--- a/scripts/produtos.xlsx
+++ b/scripts/produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ListProducts\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B918383C-E9D7-42BE-9AF9-B5F535AB80AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A64152-128B-437B-839C-BF61BFA0EF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="915" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE PRODUTOS B" sheetId="1" r:id="rId1"/>
@@ -5071,12 +5071,13 @@
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5084,25 +5085,46 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5116,26 +5138,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5154,18 +5157,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5182,6 +5173,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5492,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A796" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E796" sqref="E796"/>
+    <sheetView tabSelected="1" topLeftCell="A565" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E570" sqref="E570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5508,83 +5508,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103"/>
     </row>
     <row r="2" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="130"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107"/>
     </row>
     <row r="3" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="130"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107"/>
     </row>
     <row r="4" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="130"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="107"/>
     </row>
     <row r="5" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="130"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="130"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121"/>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66" t="s">
@@ -7423,20 +7423,20 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="103"/>
-      <c r="B118" s="104"/>
-      <c r="C118" s="104"/>
-      <c r="D118" s="105"/>
-      <c r="E118" s="106"/>
+      <c r="A118" s="117"/>
+      <c r="B118" s="105"/>
+      <c r="C118" s="105"/>
+      <c r="D118" s="106"/>
+      <c r="E118" s="113"/>
     </row>
     <row r="119" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="114" t="s">
+      <c r="A119" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="B119" s="111"/>
-      <c r="C119" s="111"/>
-      <c r="D119" s="111"/>
-      <c r="E119" s="112"/>
+      <c r="B119" s="115"/>
+      <c r="C119" s="115"/>
+      <c r="D119" s="115"/>
+      <c r="E119" s="116"/>
     </row>
     <row r="120" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="66" t="s">
@@ -7728,20 +7728,20 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="103"/>
-      <c r="B137" s="104"/>
-      <c r="C137" s="104"/>
-      <c r="D137" s="105"/>
-      <c r="E137" s="106"/>
+      <c r="A137" s="117"/>
+      <c r="B137" s="105"/>
+      <c r="C137" s="105"/>
+      <c r="D137" s="106"/>
+      <c r="E137" s="113"/>
     </row>
     <row r="138" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="114" t="s">
+      <c r="A138" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="B138" s="111"/>
-      <c r="C138" s="111"/>
-      <c r="D138" s="111"/>
-      <c r="E138" s="112"/>
+      <c r="B138" s="115"/>
+      <c r="C138" s="115"/>
+      <c r="D138" s="115"/>
+      <c r="E138" s="116"/>
     </row>
     <row r="139" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="66" t="s">
@@ -7897,20 +7897,20 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="103"/>
-      <c r="B148" s="104"/>
-      <c r="C148" s="104"/>
-      <c r="D148" s="105"/>
-      <c r="E148" s="106"/>
+      <c r="A148" s="117"/>
+      <c r="B148" s="105"/>
+      <c r="C148" s="105"/>
+      <c r="D148" s="106"/>
+      <c r="E148" s="113"/>
     </row>
     <row r="149" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="115" t="s">
+      <c r="A149" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="B149" s="111"/>
-      <c r="C149" s="111"/>
-      <c r="D149" s="111"/>
-      <c r="E149" s="116"/>
+      <c r="B149" s="115"/>
+      <c r="C149" s="115"/>
+      <c r="D149" s="115"/>
+      <c r="E149" s="128"/>
     </row>
     <row r="150" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="66" t="s">
@@ -9154,20 +9154,20 @@
       </c>
     </row>
     <row r="223" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="103"/>
-      <c r="B223" s="104"/>
-      <c r="C223" s="104"/>
-      <c r="D223" s="105"/>
-      <c r="E223" s="106"/>
+      <c r="A223" s="117"/>
+      <c r="B223" s="105"/>
+      <c r="C223" s="105"/>
+      <c r="D223" s="106"/>
+      <c r="E223" s="113"/>
     </row>
     <row r="224" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="114" t="s">
+      <c r="A224" s="118" t="s">
         <v>148</v>
       </c>
-      <c r="B224" s="111"/>
-      <c r="C224" s="111"/>
-      <c r="D224" s="111"/>
-      <c r="E224" s="112"/>
+      <c r="B224" s="115"/>
+      <c r="C224" s="115"/>
+      <c r="D224" s="115"/>
+      <c r="E224" s="116"/>
     </row>
     <row r="225" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="66" t="s">
@@ -10358,20 +10358,20 @@
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="113"/>
-      <c r="B295" s="104"/>
-      <c r="C295" s="104"/>
-      <c r="D295" s="105"/>
-      <c r="E295" s="106"/>
+      <c r="A295" s="112"/>
+      <c r="B295" s="105"/>
+      <c r="C295" s="105"/>
+      <c r="D295" s="106"/>
+      <c r="E295" s="113"/>
     </row>
     <row r="296" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="114" t="s">
+      <c r="A296" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="B296" s="111"/>
-      <c r="C296" s="111"/>
-      <c r="D296" s="111"/>
-      <c r="E296" s="112"/>
+      <c r="B296" s="115"/>
+      <c r="C296" s="115"/>
+      <c r="D296" s="115"/>
+      <c r="E296" s="116"/>
     </row>
     <row r="297" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="66" t="s">
@@ -11919,20 +11919,20 @@
       </c>
     </row>
     <row r="388" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="113"/>
-      <c r="B388" s="104"/>
-      <c r="C388" s="104"/>
-      <c r="D388" s="105"/>
-      <c r="E388" s="106"/>
+      <c r="A388" s="112"/>
+      <c r="B388" s="105"/>
+      <c r="C388" s="105"/>
+      <c r="D388" s="106"/>
+      <c r="E388" s="113"/>
     </row>
     <row r="389" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="110" t="s">
+      <c r="A389" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="B389" s="111"/>
-      <c r="C389" s="111"/>
-      <c r="D389" s="111"/>
-      <c r="E389" s="112"/>
+      <c r="B389" s="115"/>
+      <c r="C389" s="115"/>
+      <c r="D389" s="115"/>
+      <c r="E389" s="116"/>
     </row>
     <row r="390" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="66" t="s">
@@ -12569,13 +12569,13 @@
       <c r="E427" s="61"/>
     </row>
     <row r="428" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="110" t="s">
+      <c r="A428" s="114" t="s">
         <v>1304</v>
       </c>
-      <c r="B428" s="111"/>
-      <c r="C428" s="111"/>
-      <c r="D428" s="111"/>
-      <c r="E428" s="112"/>
+      <c r="B428" s="115"/>
+      <c r="C428" s="115"/>
+      <c r="D428" s="115"/>
+      <c r="E428" s="116"/>
     </row>
     <row r="429" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="66" t="s">
@@ -14444,20 +14444,20 @@
       </c>
     </row>
     <row r="539" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="113"/>
-      <c r="B539" s="104"/>
-      <c r="C539" s="104"/>
-      <c r="D539" s="105"/>
-      <c r="E539" s="106"/>
+      <c r="A539" s="112"/>
+      <c r="B539" s="105"/>
+      <c r="C539" s="105"/>
+      <c r="D539" s="106"/>
+      <c r="E539" s="113"/>
     </row>
     <row r="540" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="110" t="s">
+      <c r="A540" s="114" t="s">
         <v>338</v>
       </c>
-      <c r="B540" s="111"/>
-      <c r="C540" s="111"/>
-      <c r="D540" s="111"/>
-      <c r="E540" s="112"/>
+      <c r="B540" s="115"/>
+      <c r="C540" s="115"/>
+      <c r="D540" s="115"/>
+      <c r="E540" s="116"/>
     </row>
     <row r="541" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="66" t="s">
@@ -14815,20 +14815,20 @@
       </c>
     </row>
     <row r="562" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="113"/>
-      <c r="B562" s="104"/>
-      <c r="C562" s="104"/>
-      <c r="D562" s="105"/>
-      <c r="E562" s="106"/>
+      <c r="A562" s="112"/>
+      <c r="B562" s="105"/>
+      <c r="C562" s="105"/>
+      <c r="D562" s="106"/>
+      <c r="E562" s="113"/>
     </row>
     <row r="563" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="110" t="s">
+      <c r="A563" s="114" t="s">
         <v>353</v>
       </c>
-      <c r="B563" s="111"/>
-      <c r="C563" s="111"/>
-      <c r="D563" s="111"/>
-      <c r="E563" s="112"/>
+      <c r="B563" s="115"/>
+      <c r="C563" s="115"/>
+      <c r="D563" s="115"/>
+      <c r="E563" s="116"/>
     </row>
     <row r="564" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="66" t="s">
@@ -14944,7 +14944,7 @@
         <v>49</v>
       </c>
       <c r="E570" s="40">
-        <v>43</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -14961,7 +14961,7 @@
         <v>84</v>
       </c>
       <c r="E571" s="40">
-        <v>205</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15424,20 +15424,20 @@
       </c>
     </row>
     <row r="599" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="101"/>
-      <c r="B599" s="102"/>
-      <c r="C599" s="102"/>
-      <c r="D599" s="102"/>
-      <c r="E599" s="102"/>
+      <c r="A599" s="122"/>
+      <c r="B599" s="123"/>
+      <c r="C599" s="123"/>
+      <c r="D599" s="123"/>
+      <c r="E599" s="123"/>
     </row>
     <row r="600" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="110" t="s">
+      <c r="A600" s="114" t="s">
         <v>370</v>
       </c>
-      <c r="B600" s="111"/>
-      <c r="C600" s="111"/>
-      <c r="D600" s="111"/>
-      <c r="E600" s="112"/>
+      <c r="B600" s="115"/>
+      <c r="C600" s="115"/>
+      <c r="D600" s="115"/>
+      <c r="E600" s="116"/>
     </row>
     <row r="601" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="66" t="s">
@@ -17345,20 +17345,20 @@
       </c>
     </row>
     <row r="713" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="113"/>
-      <c r="B713" s="104"/>
-      <c r="C713" s="104"/>
-      <c r="D713" s="105"/>
-      <c r="E713" s="106"/>
+      <c r="A713" s="112"/>
+      <c r="B713" s="105"/>
+      <c r="C713" s="105"/>
+      <c r="D713" s="106"/>
+      <c r="E713" s="113"/>
     </row>
     <row r="714" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A714" s="110" t="s">
+      <c r="A714" s="114" t="s">
         <v>420</v>
       </c>
-      <c r="B714" s="111"/>
-      <c r="C714" s="111"/>
-      <c r="D714" s="111"/>
-      <c r="E714" s="112"/>
+      <c r="B714" s="115"/>
+      <c r="C714" s="115"/>
+      <c r="D714" s="115"/>
+      <c r="E714" s="116"/>
     </row>
     <row r="715" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="66" t="s">
@@ -17536,13 +17536,13 @@
       <c r="E725" s="61"/>
     </row>
     <row r="726" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A726" s="110" t="s">
+      <c r="A726" s="114" t="s">
         <v>1305</v>
       </c>
-      <c r="B726" s="111"/>
-      <c r="C726" s="111"/>
-      <c r="D726" s="111"/>
-      <c r="E726" s="112"/>
+      <c r="B726" s="115"/>
+      <c r="C726" s="115"/>
+      <c r="D726" s="115"/>
+      <c r="E726" s="116"/>
     </row>
     <row r="727" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="72" t="s">
@@ -17664,20 +17664,20 @@
       </c>
     </row>
     <row r="734" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A734" s="103"/>
-      <c r="B734" s="104"/>
-      <c r="C734" s="104"/>
-      <c r="D734" s="105"/>
-      <c r="E734" s="106"/>
+      <c r="A734" s="117"/>
+      <c r="B734" s="105"/>
+      <c r="C734" s="105"/>
+      <c r="D734" s="106"/>
+      <c r="E734" s="113"/>
     </row>
     <row r="735" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A735" s="110" t="s">
+      <c r="A735" s="114" t="s">
         <v>421</v>
       </c>
-      <c r="B735" s="111"/>
-      <c r="C735" s="111"/>
-      <c r="D735" s="111"/>
-      <c r="E735" s="112"/>
+      <c r="B735" s="115"/>
+      <c r="C735" s="115"/>
+      <c r="D735" s="115"/>
+      <c r="E735" s="116"/>
     </row>
     <row r="736" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="66" t="s">
@@ -17831,20 +17831,20 @@
       </c>
     </row>
     <row r="745" spans="1:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A745" s="103"/>
-      <c r="B745" s="104"/>
-      <c r="C745" s="104"/>
-      <c r="D745" s="105"/>
-      <c r="E745" s="106"/>
+      <c r="A745" s="117"/>
+      <c r="B745" s="105"/>
+      <c r="C745" s="105"/>
+      <c r="D745" s="106"/>
+      <c r="E745" s="113"/>
     </row>
     <row r="746" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A746" s="110" t="s">
+      <c r="A746" s="114" t="s">
         <v>1303</v>
       </c>
-      <c r="B746" s="111"/>
-      <c r="C746" s="111"/>
-      <c r="D746" s="111"/>
-      <c r="E746" s="112"/>
+      <c r="B746" s="115"/>
+      <c r="C746" s="115"/>
+      <c r="D746" s="115"/>
+      <c r="E746" s="116"/>
     </row>
     <row r="747" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A747" s="66" t="s">
@@ -18257,13 +18257,13 @@
       <c r="E770" s="98"/>
     </row>
     <row r="771" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A771" s="117" t="s">
+      <c r="A771" s="129" t="s">
         <v>1289</v>
       </c>
-      <c r="B771" s="118"/>
-      <c r="C771" s="118"/>
-      <c r="D771" s="118"/>
-      <c r="E771" s="119"/>
+      <c r="B771" s="130"/>
+      <c r="C771" s="130"/>
+      <c r="D771" s="130"/>
+      <c r="E771" s="131"/>
     </row>
     <row r="772" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A772" s="66" t="s">
@@ -19970,13 +19970,13 @@
       <c r="E873" s="100"/>
     </row>
     <row r="874" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A874" s="107" t="s">
+      <c r="A874" s="124" t="s">
         <v>1290</v>
       </c>
-      <c r="B874" s="108"/>
-      <c r="C874" s="108"/>
-      <c r="D874" s="108"/>
-      <c r="E874" s="109"/>
+      <c r="B874" s="125"/>
+      <c r="C874" s="125"/>
+      <c r="D874" s="125"/>
+      <c r="E874" s="126"/>
     </row>
     <row r="875" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="87" t="s">
@@ -20249,12 +20249,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A599:E599"/>
+    <mergeCell ref="A223:E223"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="A874:E874"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A745:E745"/>
+    <mergeCell ref="A746:E746"/>
+    <mergeCell ref="A539:E539"/>
+    <mergeCell ref="A563:E563"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A388:E388"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A224:E224"/>
+    <mergeCell ref="A771:E771"/>
+    <mergeCell ref="A726:E726"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A295:E295"/>
     <mergeCell ref="A600:E600"/>
@@ -20271,21 +20280,12 @@
     <mergeCell ref="A428:E428"/>
     <mergeCell ref="A389:E389"/>
     <mergeCell ref="A734:E734"/>
-    <mergeCell ref="A599:E599"/>
-    <mergeCell ref="A223:E223"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="A874:E874"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A745:E745"/>
-    <mergeCell ref="A746:E746"/>
-    <mergeCell ref="A539:E539"/>
-    <mergeCell ref="A563:E563"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A388:E388"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A224:E224"/>
-    <mergeCell ref="A771:E771"/>
-    <mergeCell ref="A726:E726"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="mailto:E-mailastralalimentos@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -20318,90 +20318,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="144"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="146" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="137"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="138"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="137" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="148" t="s">
         <v>488</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="137"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="138"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="137" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="137"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="138"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="145"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="137"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="138"/>
     </row>
     <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="145" t="s">
         <v>490</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="137"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="138"/>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="137"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="138"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="137"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="138"/>
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="112"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="116"/>
     </row>
     <row r="11" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
@@ -22124,19 +22124,19 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="132"/>
-      <c r="B112" s="133"/>
-      <c r="C112" s="134"/>
-      <c r="D112" s="135"/>
+      <c r="A112" s="133"/>
+      <c r="B112" s="134"/>
+      <c r="C112" s="135"/>
+      <c r="D112" s="136"/>
       <c r="E112" s="25"/>
     </row>
     <row r="113" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="138" t="s">
+      <c r="A113" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="B113" s="111"/>
-      <c r="C113" s="111"/>
-      <c r="D113" s="116"/>
+      <c r="B113" s="115"/>
+      <c r="C113" s="115"/>
+      <c r="D113" s="128"/>
       <c r="E113" s="28"/>
     </row>
     <row r="114" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22429,19 +22429,19 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="132"/>
-      <c r="B131" s="133"/>
-      <c r="C131" s="134"/>
-      <c r="D131" s="135"/>
+      <c r="A131" s="133"/>
+      <c r="B131" s="134"/>
+      <c r="C131" s="135"/>
+      <c r="D131" s="136"/>
       <c r="E131" s="25"/>
     </row>
     <row r="132" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="138" t="s">
+      <c r="A132" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="B132" s="111"/>
-      <c r="C132" s="111"/>
-      <c r="D132" s="116"/>
+      <c r="B132" s="115"/>
+      <c r="C132" s="115"/>
+      <c r="D132" s="128"/>
       <c r="E132" s="28"/>
     </row>
     <row r="133" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22615,19 +22615,19 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="132"/>
-      <c r="B143" s="133"/>
-      <c r="C143" s="134"/>
-      <c r="D143" s="135"/>
+      <c r="A143" s="133"/>
+      <c r="B143" s="134"/>
+      <c r="C143" s="135"/>
+      <c r="D143" s="136"/>
       <c r="E143" s="25"/>
     </row>
     <row r="144" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="138" t="s">
+      <c r="A144" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="B144" s="111"/>
-      <c r="C144" s="111"/>
-      <c r="D144" s="116"/>
+      <c r="B144" s="115"/>
+      <c r="C144" s="115"/>
+      <c r="D144" s="128"/>
       <c r="E144" s="28"/>
     </row>
     <row r="145" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -23260,19 +23260,19 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="132"/>
-      <c r="B182" s="133"/>
-      <c r="C182" s="134"/>
-      <c r="D182" s="135"/>
+      <c r="A182" s="133"/>
+      <c r="B182" s="134"/>
+      <c r="C182" s="135"/>
+      <c r="D182" s="136"/>
       <c r="E182" s="25"/>
     </row>
     <row r="183" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="139" t="s">
+      <c r="A183" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="B183" s="111"/>
-      <c r="C183" s="111"/>
-      <c r="D183" s="111"/>
+      <c r="B183" s="115"/>
+      <c r="C183" s="115"/>
+      <c r="D183" s="115"/>
       <c r="E183" s="26"/>
     </row>
     <row r="184" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -24134,19 +24134,19 @@
       </c>
     </row>
     <row r="241" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="132"/>
-      <c r="B241" s="133"/>
-      <c r="C241" s="134"/>
-      <c r="D241" s="135"/>
+      <c r="A241" s="133"/>
+      <c r="B241" s="134"/>
+      <c r="C241" s="135"/>
+      <c r="D241" s="136"/>
       <c r="E241" s="25"/>
     </row>
     <row r="242" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="139" t="s">
+      <c r="A242" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="B242" s="111"/>
-      <c r="C242" s="111"/>
-      <c r="D242" s="111"/>
+      <c r="B242" s="115"/>
+      <c r="C242" s="115"/>
+      <c r="D242" s="115"/>
       <c r="E242" s="28"/>
     </row>
     <row r="243" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25367,21 +25367,21 @@
       </c>
     </row>
     <row r="324" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="132"/>
-      <c r="B324" s="133"/>
-      <c r="C324" s="134"/>
-      <c r="D324" s="135"/>
+      <c r="A324" s="133"/>
+      <c r="B324" s="134"/>
+      <c r="C324" s="135"/>
+      <c r="D324" s="136"/>
       <c r="E324" s="25"/>
       <c r="G324" s="30"/>
       <c r="H324" s="30"/>
     </row>
     <row r="325" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="139" t="s">
+      <c r="A325" s="132" t="s">
         <v>235</v>
       </c>
-      <c r="B325" s="111"/>
-      <c r="C325" s="111"/>
-      <c r="D325" s="111"/>
+      <c r="B325" s="115"/>
+      <c r="C325" s="115"/>
+      <c r="D325" s="115"/>
       <c r="E325" s="28"/>
     </row>
     <row r="326" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25878,19 +25878,19 @@
       </c>
     </row>
     <row r="355" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="132"/>
-      <c r="B355" s="133"/>
-      <c r="C355" s="134"/>
-      <c r="D355" s="135"/>
+      <c r="A355" s="133"/>
+      <c r="B355" s="134"/>
+      <c r="C355" s="135"/>
+      <c r="D355" s="136"/>
       <c r="E355" s="25"/>
     </row>
     <row r="356" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="139" t="s">
+      <c r="A356" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="B356" s="111"/>
-      <c r="C356" s="111"/>
-      <c r="D356" s="111"/>
+      <c r="B356" s="115"/>
+      <c r="C356" s="115"/>
+      <c r="D356" s="115"/>
       <c r="E356" s="28"/>
     </row>
     <row r="357" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -27645,19 +27645,19 @@
       </c>
     </row>
     <row r="460" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="132"/>
-      <c r="B460" s="133"/>
-      <c r="C460" s="134"/>
-      <c r="D460" s="135"/>
+      <c r="A460" s="133"/>
+      <c r="B460" s="134"/>
+      <c r="C460" s="135"/>
+      <c r="D460" s="136"/>
       <c r="E460" s="25"/>
     </row>
     <row r="461" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="139" t="s">
+      <c r="A461" s="132" t="s">
         <v>338</v>
       </c>
-      <c r="B461" s="111"/>
-      <c r="C461" s="111"/>
-      <c r="D461" s="111"/>
+      <c r="B461" s="115"/>
+      <c r="C461" s="115"/>
+      <c r="D461" s="115"/>
       <c r="E461" s="28"/>
     </row>
     <row r="462" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -27950,19 +27950,19 @@
       </c>
     </row>
     <row r="479" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="132"/>
-      <c r="B479" s="133"/>
-      <c r="C479" s="134"/>
-      <c r="D479" s="135"/>
+      <c r="A479" s="133"/>
+      <c r="B479" s="134"/>
+      <c r="C479" s="135"/>
+      <c r="D479" s="136"/>
       <c r="E479" s="25"/>
     </row>
     <row r="480" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="139" t="s">
+      <c r="A480" s="132" t="s">
         <v>353</v>
       </c>
-      <c r="B480" s="111"/>
-      <c r="C480" s="111"/>
-      <c r="D480" s="111"/>
+      <c r="B480" s="115"/>
+      <c r="C480" s="115"/>
+      <c r="D480" s="115"/>
       <c r="E480" s="28"/>
     </row>
     <row r="481" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -28391,19 +28391,19 @@
       </c>
     </row>
     <row r="506" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="132"/>
-      <c r="B506" s="133"/>
-      <c r="C506" s="134"/>
-      <c r="D506" s="135"/>
+      <c r="A506" s="133"/>
+      <c r="B506" s="134"/>
+      <c r="C506" s="135"/>
+      <c r="D506" s="136"/>
       <c r="E506" s="25"/>
     </row>
     <row r="507" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="139" t="s">
+      <c r="A507" s="132" t="s">
         <v>370</v>
       </c>
-      <c r="B507" s="111"/>
-      <c r="C507" s="111"/>
-      <c r="D507" s="111"/>
+      <c r="B507" s="115"/>
+      <c r="C507" s="115"/>
+      <c r="D507" s="115"/>
       <c r="E507" s="28"/>
     </row>
     <row r="508" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -29918,19 +29918,19 @@
       </c>
     </row>
     <row r="597" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="132"/>
-      <c r="B597" s="133"/>
-      <c r="C597" s="134"/>
-      <c r="D597" s="135"/>
+      <c r="A597" s="133"/>
+      <c r="B597" s="134"/>
+      <c r="C597" s="135"/>
+      <c r="D597" s="136"/>
       <c r="E597" s="25"/>
     </row>
     <row r="598" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="139" t="s">
+      <c r="A598" s="132" t="s">
         <v>420</v>
       </c>
-      <c r="B598" s="111"/>
-      <c r="C598" s="111"/>
-      <c r="D598" s="111"/>
+      <c r="B598" s="115"/>
+      <c r="C598" s="115"/>
+      <c r="D598" s="115"/>
       <c r="E598" s="28"/>
     </row>
     <row r="599" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -30070,20 +30070,20 @@
       </c>
     </row>
     <row r="607" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="132"/>
-      <c r="B607" s="133"/>
-      <c r="C607" s="134"/>
-      <c r="D607" s="135"/>
+      <c r="A607" s="133"/>
+      <c r="B607" s="134"/>
+      <c r="C607" s="135"/>
+      <c r="D607" s="136"/>
       <c r="E607" s="25"/>
       <c r="G607" s="29"/>
     </row>
     <row r="608" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="139" t="s">
+      <c r="A608" s="132" t="s">
         <v>421</v>
       </c>
-      <c r="B608" s="111"/>
-      <c r="C608" s="111"/>
-      <c r="D608" s="111"/>
+      <c r="B608" s="115"/>
+      <c r="C608" s="115"/>
+      <c r="D608" s="115"/>
       <c r="E608" s="27"/>
     </row>
     <row r="609" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -30172,19 +30172,19 @@
       </c>
     </row>
     <row r="614" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="132"/>
-      <c r="B614" s="133"/>
-      <c r="C614" s="134"/>
-      <c r="D614" s="135"/>
+      <c r="A614" s="133"/>
+      <c r="B614" s="134"/>
+      <c r="C614" s="135"/>
+      <c r="D614" s="136"/>
       <c r="E614" s="25"/>
     </row>
     <row r="615" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="139" t="s">
+      <c r="A615" s="132" t="s">
         <v>422</v>
       </c>
-      <c r="B615" s="111"/>
-      <c r="C615" s="111"/>
-      <c r="D615" s="111"/>
+      <c r="B615" s="115"/>
+      <c r="C615" s="115"/>
+      <c r="D615" s="115"/>
       <c r="E615" s="28"/>
     </row>
     <row r="616" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -31549,11 +31549,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A507:D507"/>
-    <mergeCell ref="A597:D597"/>
-    <mergeCell ref="A506:D506"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A598:D598"/>
+    <mergeCell ref="A615:D615"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A480:D480"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A356:D356"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A479:D479"/>
+    <mergeCell ref="A614:D614"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A461:D461"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A355:D355"/>
     <mergeCell ref="A607:D607"/>
     <mergeCell ref="A608:D608"/>
     <mergeCell ref="A1:E1"/>
@@ -31570,20 +31578,12 @@
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A324:D324"/>
     <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A507:D507"/>
+    <mergeCell ref="A597:D597"/>
+    <mergeCell ref="A506:D506"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A598:D598"/>
     <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A615:D615"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A480:D480"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A356:D356"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A479:D479"/>
-    <mergeCell ref="A614:D614"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A461:D461"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A355:D355"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="mailto:E-mailastralalimentos@gmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/scripts/produtos.xlsx
+++ b/scripts/produtos.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ListProducts\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A64152-128B-437B-839C-BF61BFA0EF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C2B8BD-3171-4BC5-A9E5-E8B008A9A50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="915" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="915" windowWidth="21600" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE PRODUTOS B" sheetId="1" r:id="rId1"/>
     <sheet name="LISTA DE PRODUTOS T" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'LISTA DE PRODUTOS B'!$A$1:$E$889</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'LISTA DE PRODUTOS B'!$A$1:$E$891</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="1324">
   <si>
     <t xml:space="preserve">    Tabela de Produtos e Preços</t>
   </si>
@@ -3994,6 +3994,9 @@
   </si>
   <si>
     <t>COCO RALADO FLOCOS TOK</t>
+  </si>
+  <si>
+    <t>LEITE EM PÓ INTEGRAL</t>
   </si>
 </sst>
 </file>
@@ -5138,9 +5141,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5157,6 +5157,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5173,9 +5179,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5490,10 +5493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R900"/>
+  <dimension ref="A1:R902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A565" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E570" sqref="E570"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B307" sqref="B307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6195,7 +6198,7 @@
         <v>34</v>
       </c>
       <c r="E45" s="49">
-        <v>612.5</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6212,7 +6215,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="41">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8334,7 +8337,7 @@
         <v>84</v>
       </c>
       <c r="E174" s="40">
-        <v>580</v>
+        <v>660</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8351,7 +8354,7 @@
         <v>49</v>
       </c>
       <c r="E175" s="40">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10402,7 +10405,7 @@
         <v>84</v>
       </c>
       <c r="E298" s="40">
-        <v>81</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10419,7 +10422,7 @@
         <v>49</v>
       </c>
       <c r="E299" s="40">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10436,7 +10439,7 @@
         <v>84</v>
       </c>
       <c r="E300" s="40">
-        <v>117</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10453,7 +10456,7 @@
         <v>49</v>
       </c>
       <c r="E301" s="40">
-        <v>25.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10470,7 +10473,7 @@
         <v>84</v>
       </c>
       <c r="E302" s="40">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10487,7 +10490,7 @@
         <v>49</v>
       </c>
       <c r="E303" s="40">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10504,7 +10507,7 @@
         <v>84</v>
       </c>
       <c r="E304" s="40">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10521,7 +10524,7 @@
         <v>49</v>
       </c>
       <c r="E305" s="40">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10529,16 +10532,16 @@
         <v>192</v>
       </c>
       <c r="B306" s="69" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C306" s="70">
-        <v>2726</v>
+        <v>24</v>
       </c>
       <c r="D306" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E306" s="40">
-        <v>15.5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10546,16 +10549,16 @@
         <v>192</v>
       </c>
       <c r="B307" s="69" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C307" s="70">
-        <v>24</v>
+        <v>2726</v>
       </c>
       <c r="D307" s="69" t="s">
         <v>84</v>
       </c>
       <c r="E307" s="40">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10929,7 +10932,7 @@
         <v>84</v>
       </c>
       <c r="E329" s="40">
-        <v>60</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10946,7 +10949,7 @@
         <v>84</v>
       </c>
       <c r="E330" s="40">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -11963,7 +11966,7 @@
         <v>34</v>
       </c>
       <c r="E391" s="40">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -12742,7 +12745,7 @@
         <v>49</v>
       </c>
       <c r="E438" s="40">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12759,7 +12762,7 @@
         <v>50</v>
       </c>
       <c r="E439" s="40">
-        <v>450</v>
+        <v>390</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16545,276 +16548,276 @@
         <v>159.5</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="72" t="s">
-        <v>400</v>
+        <v>1323</v>
       </c>
       <c r="B666" s="72" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C666" s="73">
-        <v>4018</v>
-      </c>
-      <c r="D666" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="E666" s="50">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="667" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4556</v>
+      </c>
+      <c r="D666" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E666" s="48">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="72" t="s">
-        <v>400</v>
+        <v>1323</v>
       </c>
       <c r="B667" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C667" s="73">
-        <v>2652</v>
-      </c>
-      <c r="D667" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="E667" s="50">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="668" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4557</v>
+      </c>
+      <c r="D667" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E667" s="48">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="72" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="B668" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C668" s="73">
-        <v>4049</v>
-      </c>
-      <c r="D668" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E668" s="48">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="669" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4018</v>
+      </c>
+      <c r="D668" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E668" s="50">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="72" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="B669" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C669" s="73">
+        <v>2652</v>
+      </c>
+      <c r="D669" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E669" s="50">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A670" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="B670" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C670" s="73">
+        <v>4049</v>
+      </c>
+      <c r="D670" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E670" s="48">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A671" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="B671" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C671" s="73">
         <v>3737</v>
       </c>
-      <c r="D669" s="74" t="s">
+      <c r="D671" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E669" s="48">
+      <c r="E671" s="48">
         <v>107</v>
-      </c>
-    </row>
-    <row r="670" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A670" s="69" t="s">
-        <v>401</v>
-      </c>
-      <c r="B670" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C670" s="70">
-        <v>4301</v>
-      </c>
-      <c r="D670" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="E670" s="40">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="671" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="69" t="s">
-        <v>402</v>
-      </c>
-      <c r="B671" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C671" s="70">
-        <v>4334</v>
-      </c>
-      <c r="D671" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="E671" s="40">
-        <v>376.5</v>
       </c>
     </row>
     <row r="672" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="69" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B672" s="69" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C672" s="70">
-        <v>195</v>
+        <v>4301</v>
       </c>
       <c r="D672" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E672" s="40">
-        <v>285</v>
+        <v>235</v>
       </c>
     </row>
     <row r="673" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="69" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B673" s="69" t="s">
         <v>19</v>
       </c>
       <c r="C673" s="70">
-        <v>54</v>
+        <v>4334</v>
       </c>
       <c r="D673" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E673" s="40">
-        <v>59</v>
+        <v>376.5</v>
       </c>
     </row>
     <row r="674" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B674" s="69" t="s">
         <v>33</v>
       </c>
       <c r="C674" s="70">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D674" s="69" t="s">
         <v>34</v>
       </c>
       <c r="E674" s="40">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="675" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B675" s="69" t="s">
         <v>19</v>
       </c>
       <c r="C675" s="70">
-        <v>2483</v>
+        <v>54</v>
       </c>
       <c r="D675" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E675" s="40">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="676" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="69" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B676" s="69" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C676" s="70">
-        <v>2974</v>
+        <v>63</v>
       </c>
       <c r="D676" s="69" t="s">
         <v>34</v>
       </c>
       <c r="E676" s="40">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="677" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="69" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B677" s="69" t="s">
         <v>19</v>
       </c>
       <c r="C677" s="70">
-        <v>2831</v>
+        <v>2483</v>
       </c>
       <c r="D677" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E677" s="40">
-        <v>127</v>
+        <v>46</v>
       </c>
     </row>
     <row r="678" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="69" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B678" s="69" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="C678" s="70">
-        <v>4137</v>
+        <v>2974</v>
       </c>
       <c r="D678" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E678" s="40">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="679" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="69" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B679" s="69" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C679" s="70">
-        <v>4380</v>
+        <v>2831</v>
       </c>
       <c r="D679" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E679" s="40">
-        <v>270</v>
+        <v>127</v>
       </c>
     </row>
     <row r="680" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="69" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B680" s="69" t="s">
-        <v>319</v>
+        <v>110</v>
       </c>
       <c r="C680" s="70">
-        <v>4204</v>
+        <v>4137</v>
       </c>
       <c r="D680" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E680" s="40">
-        <v>145.5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="681" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B681" s="69" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="C681" s="70">
-        <v>4205</v>
+        <v>4380</v>
       </c>
       <c r="D681" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E681" s="40">
-        <v>360</v>
+        <v>270</v>
       </c>
     </row>
     <row r="682" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16822,186 +16825,186 @@
         <v>408</v>
       </c>
       <c r="B682" s="69" t="s">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="C682" s="70">
-        <v>4225</v>
+        <v>4204</v>
       </c>
       <c r="D682" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E682" s="40">
-        <v>900</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="683" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B683" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C683" s="70">
-        <v>4378</v>
+        <v>4205</v>
       </c>
       <c r="D683" s="69" t="s">
         <v>34</v>
       </c>
       <c r="E683" s="40">
-        <v>430</v>
+        <v>360</v>
       </c>
     </row>
     <row r="684" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B684" s="69" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C684" s="70">
-        <v>4379</v>
+        <v>4225</v>
       </c>
       <c r="D684" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E684" s="40">
-        <v>43</v>
+        <v>900</v>
       </c>
     </row>
     <row r="685" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B685" s="69" t="s">
-        <v>411</v>
+        <v>18</v>
       </c>
       <c r="C685" s="70">
-        <v>3524</v>
+        <v>4378</v>
       </c>
       <c r="D685" s="69" t="s">
-        <v>412</v>
+        <v>34</v>
       </c>
       <c r="E685" s="40">
-        <v>350</v>
+        <v>430</v>
       </c>
     </row>
     <row r="686" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B686" s="69" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C686" s="70">
-        <v>3523</v>
+        <v>4379</v>
       </c>
       <c r="D686" s="69" t="s">
-        <v>412</v>
+        <v>34</v>
       </c>
       <c r="E686" s="40">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="687" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="69" t="s">
-        <v>1164</v>
+        <v>410</v>
       </c>
       <c r="B687" s="69" t="s">
-        <v>1165</v>
+        <v>411</v>
       </c>
       <c r="C687" s="70">
-        <v>3521</v>
+        <v>3524</v>
       </c>
       <c r="D687" s="69" t="s">
-        <v>15</v>
+        <v>412</v>
       </c>
       <c r="E687" s="40">
-        <v>158</v>
+        <v>350</v>
       </c>
     </row>
     <row r="688" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="69" t="s">
+        <v>410</v>
+      </c>
+      <c r="B688" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C688" s="70">
+        <v>3523</v>
+      </c>
+      <c r="D688" s="69" t="s">
+        <v>412</v>
+      </c>
+      <c r="E688" s="40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A689" s="69" t="s">
         <v>1164</v>
       </c>
-      <c r="B688" s="69" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C688" s="70">
-        <v>3522</v>
-      </c>
-      <c r="D688" s="69" t="s">
+      <c r="B689" s="69" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C689" s="70">
+        <v>3521</v>
+      </c>
+      <c r="D689" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E688" s="40">
-        <v>216.5</v>
-      </c>
-    </row>
-    <row r="689" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A689" s="72" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B689" s="72" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C689" s="73">
-        <v>64</v>
-      </c>
-      <c r="D689" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E689" s="50">
-        <v>132</v>
+      <c r="E689" s="40">
+        <v>158</v>
       </c>
     </row>
     <row r="690" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="69" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="B690" s="69" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C690" s="70">
-        <v>90</v>
+        <v>3522</v>
       </c>
       <c r="D690" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E690" s="40">
+        <v>216.5</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A691" s="72" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B691" s="72" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C691" s="73">
+        <v>64</v>
+      </c>
+      <c r="D691" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E691" s="50">
         <v>132</v>
-      </c>
-    </row>
-    <row r="691" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A691" s="69" t="s">
-        <v>413</v>
-      </c>
-      <c r="B691" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C691" s="70">
-        <v>2805</v>
-      </c>
-      <c r="D691" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E691" s="40">
-        <v>160</v>
       </c>
     </row>
     <row r="692" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="69" t="s">
-        <v>413</v>
+        <v>1169</v>
       </c>
       <c r="B692" s="69" t="s">
-        <v>33</v>
+        <v>1168</v>
       </c>
       <c r="C692" s="70">
-        <v>3637</v>
+        <v>90</v>
       </c>
       <c r="D692" s="69" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E692" s="40">
-        <v>400</v>
+        <v>132</v>
       </c>
     </row>
     <row r="693" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -17009,231 +17012,231 @@
         <v>413</v>
       </c>
       <c r="B693" s="69" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="C693" s="70">
-        <v>2427</v>
+        <v>2805</v>
       </c>
       <c r="D693" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E693" s="40">
-        <v>49</v>
+        <v>160</v>
       </c>
     </row>
     <row r="694" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="69" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B694" s="69" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C694" s="70">
-        <v>3437</v>
+        <v>3637</v>
       </c>
       <c r="D694" s="69" t="s">
         <v>34</v>
       </c>
       <c r="E694" s="40">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="695" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="69" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B695" s="69" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C695" s="70">
-        <v>3396</v>
+        <v>2427</v>
       </c>
       <c r="D695" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E695" s="40">
-        <v>197</v>
+        <v>49</v>
       </c>
     </row>
     <row r="696" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="69" t="s">
-        <v>1170</v>
+        <v>414</v>
       </c>
       <c r="B696" s="69" t="s">
-        <v>1171</v>
+        <v>18</v>
       </c>
       <c r="C696" s="70">
-        <v>3395</v>
+        <v>3437</v>
       </c>
       <c r="D696" s="69" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E696" s="40">
-        <v>54</v>
+        <v>390</v>
       </c>
     </row>
     <row r="697" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="69" t="s">
-        <v>1172</v>
+        <v>414</v>
       </c>
       <c r="B697" s="69" t="s">
-        <v>1171</v>
+        <v>19</v>
       </c>
       <c r="C697" s="70">
-        <v>3490</v>
+        <v>3396</v>
       </c>
       <c r="D697" s="69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E697" s="40">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="698" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="69" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B698" s="69" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C698" s="70">
-        <v>458</v>
+        <v>3395</v>
       </c>
       <c r="D698" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E698" s="40">
-        <v>269.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="699" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="69" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B699" s="69" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C699" s="70">
-        <v>2641</v>
+        <v>3490</v>
       </c>
       <c r="D699" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E699" s="40">
-        <v>222</v>
+        <v>169</v>
       </c>
     </row>
     <row r="700" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A700" s="75" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B700" s="75" t="s">
+      <c r="A700" s="69" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B700" s="69" t="s">
         <v>1174</v>
       </c>
-      <c r="C700" s="76">
-        <v>4293</v>
+      <c r="C700" s="70">
+        <v>458</v>
       </c>
       <c r="D700" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E700" s="44">
+      <c r="E700" s="40">
+        <v>269.5</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A701" s="69" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B701" s="69" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C701" s="70">
+        <v>2641</v>
+      </c>
+      <c r="D701" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E701" s="40">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A702" s="75" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B702" s="75" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C702" s="76">
+        <v>4293</v>
+      </c>
+      <c r="D702" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E702" s="44">
         <v>210</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A701" s="75" t="s">
+    <row r="703" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A703" s="75" t="s">
         <v>415</v>
       </c>
-      <c r="B701" s="75" t="s">
+      <c r="B703" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C701" s="76">
+      <c r="C703" s="76">
         <v>2396</v>
       </c>
-      <c r="D701" s="75" t="s">
+      <c r="D703" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E701" s="44">
+      <c r="E703" s="44">
         <v>630</v>
-      </c>
-    </row>
-    <row r="702" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A702" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="B702" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="C702" s="81">
-        <v>2426</v>
-      </c>
-      <c r="D702" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="E702" s="42">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="703" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A703" s="80" t="s">
-        <v>416</v>
-      </c>
-      <c r="B703" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="C703" s="81">
-        <v>4335</v>
-      </c>
-      <c r="D703" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="E703" s="42">
-        <v>424.5</v>
       </c>
     </row>
     <row r="704" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="80" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B704" s="80" t="s">
         <v>19</v>
       </c>
       <c r="C704" s="81">
-        <v>4477</v>
+        <v>2426</v>
       </c>
       <c r="D704" s="80" t="s">
         <v>20</v>
       </c>
       <c r="E704" s="42">
-        <v>407.5</v>
-      </c>
-    </row>
-    <row r="705" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="80" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B705" s="80" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C705" s="81">
-        <v>4479</v>
+        <v>4335</v>
       </c>
       <c r="D705" s="80" t="s">
         <v>20</v>
       </c>
       <c r="E705" s="42">
-        <v>407.5</v>
+        <v>424.5</v>
       </c>
     </row>
     <row r="706" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="80" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B706" s="80" t="s">
         <v>19</v>
       </c>
       <c r="C706" s="81">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="D706" s="80" t="s">
         <v>20</v>
@@ -17242,38 +17245,38 @@
         <v>407.5</v>
       </c>
     </row>
-    <row r="707" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A707" s="72" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B707" s="72" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C707" s="73">
-        <v>2646</v>
-      </c>
-      <c r="D707" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="E707" s="50">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="708" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A708" s="72" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B708" s="72" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C708" s="73">
-        <v>2645</v>
-      </c>
-      <c r="D708" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="E708" s="50">
-        <v>78</v>
+    <row r="707" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A707" s="80" t="s">
+        <v>418</v>
+      </c>
+      <c r="B707" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C707" s="81">
+        <v>4479</v>
+      </c>
+      <c r="D707" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E707" s="42">
+        <v>407.5</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A708" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="B708" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C708" s="81">
+        <v>4478</v>
+      </c>
+      <c r="D708" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E708" s="42">
+        <v>407.5</v>
       </c>
     </row>
     <row r="709" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -17281,132 +17284,132 @@
         <v>1265</v>
       </c>
       <c r="B709" s="72" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C709" s="73">
-        <v>2638</v>
+        <v>2646</v>
       </c>
       <c r="D709" s="72" t="s">
         <v>177</v>
       </c>
       <c r="E709" s="50">
-        <v>65</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="710" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="72" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B710" s="72" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C710" s="73">
-        <v>4294</v>
+        <v>2645</v>
       </c>
       <c r="D710" s="72" t="s">
         <v>177</v>
       </c>
       <c r="E710" s="50">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="711" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="72" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="B711" s="72" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C711" s="73">
-        <v>4314</v>
+        <v>2638</v>
       </c>
       <c r="D711" s="72" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="E711" s="50">
-        <v>252</v>
+        <v>65</v>
       </c>
     </row>
     <row r="712" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="72" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B712" s="72" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C712" s="73">
+        <v>4294</v>
+      </c>
+      <c r="D712" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E712" s="50">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A713" s="72" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B713" s="72" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C713" s="73">
+        <v>4314</v>
+      </c>
+      <c r="D713" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E713" s="50">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A714" s="72" t="s">
         <v>1273</v>
       </c>
-      <c r="B712" s="72" t="s">
+      <c r="B714" s="72" t="s">
         <v>1274</v>
       </c>
-      <c r="C712" s="73">
+      <c r="C714" s="73">
         <v>4315</v>
       </c>
-      <c r="D712" s="72" t="s">
+      <c r="D714" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E712" s="50">
+      <c r="E714" s="50">
         <v>450</v>
       </c>
     </row>
-    <row r="713" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="112"/>
-      <c r="B713" s="105"/>
-      <c r="C713" s="105"/>
-      <c r="D713" s="106"/>
-      <c r="E713" s="113"/>
-    </row>
-    <row r="714" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A714" s="114" t="s">
+    <row r="715" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="112"/>
+      <c r="B715" s="105"/>
+      <c r="C715" s="105"/>
+      <c r="D715" s="106"/>
+      <c r="E715" s="113"/>
+    </row>
+    <row r="716" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="114" t="s">
         <v>420</v>
       </c>
-      <c r="B714" s="115"/>
-      <c r="C714" s="115"/>
-      <c r="D714" s="115"/>
-      <c r="E714" s="116"/>
-    </row>
-    <row r="715" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A715" s="66" t="s">
+      <c r="B716" s="115"/>
+      <c r="C716" s="115"/>
+      <c r="D716" s="115"/>
+      <c r="E716" s="116"/>
+    </row>
+    <row r="717" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A717" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B715" s="66"/>
-      <c r="C715" s="66" t="s">
+      <c r="B717" s="66"/>
+      <c r="C717" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D715" s="66" t="s">
+      <c r="D717" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E715" s="46" t="s">
+      <c r="E717" s="46" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="716" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A716" s="69" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B716" s="69" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C716" s="70">
-        <v>3402</v>
-      </c>
-      <c r="D716" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="E716" s="40">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="717" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="69" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B717" s="69" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C717" s="70">
-        <v>3401</v>
-      </c>
-      <c r="D717" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="E717" s="40">
-        <v>65</v>
       </c>
     </row>
     <row r="718" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -17414,185 +17417,185 @@
         <v>1178</v>
       </c>
       <c r="B718" s="69" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C718" s="70">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="D718" s="69" t="s">
         <v>177</v>
       </c>
       <c r="E718" s="40">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="719" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="69" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B719" s="69" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C719" s="70">
-        <v>4032</v>
+        <v>3401</v>
       </c>
       <c r="D719" s="69" t="s">
         <v>177</v>
       </c>
       <c r="E719" s="40">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="720" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="69" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B720" s="75" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C720" s="76">
-        <v>4460</v>
+        <v>1178</v>
+      </c>
+      <c r="B720" s="69" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C720" s="70">
+        <v>3403</v>
       </c>
       <c r="D720" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="E720" s="44">
+      <c r="E720" s="40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A721" s="69" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B721" s="69" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C721" s="70">
+        <v>4032</v>
+      </c>
+      <c r="D721" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E721" s="40">
         <v>56</v>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A721" s="75" t="s">
+    <row r="722" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A722" s="69" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B722" s="75" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C722" s="76">
+        <v>4460</v>
+      </c>
+      <c r="D722" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E722" s="44">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A723" s="75" t="s">
         <v>1185</v>
       </c>
-      <c r="B721" s="75" t="s">
+      <c r="B723" s="75" t="s">
         <v>1186</v>
       </c>
-      <c r="C721" s="76">
+      <c r="C723" s="76">
         <v>4260</v>
       </c>
-      <c r="D721" s="75" t="s">
+      <c r="D723" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="E721" s="44">
+      <c r="E723" s="44">
         <v>58</v>
       </c>
     </row>
-    <row r="722" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A722" s="75" t="s">
+    <row r="724" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A724" s="75" t="s">
         <v>1187</v>
       </c>
-      <c r="B722" s="75" t="s">
+      <c r="B724" s="75" t="s">
         <v>1188</v>
       </c>
-      <c r="C722" s="76">
+      <c r="C724" s="76">
         <v>2551</v>
       </c>
-      <c r="D722" s="75" t="s">
+      <c r="D724" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="E722" s="44">
+      <c r="E724" s="44">
         <v>82</v>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A723" s="80" t="s">
+    <row r="725" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A725" s="80" t="s">
         <v>1189</v>
       </c>
-      <c r="B723" s="80" t="s">
+      <c r="B725" s="80" t="s">
         <v>1190</v>
       </c>
-      <c r="C723" s="81">
+      <c r="C725" s="81">
         <v>2550</v>
       </c>
-      <c r="D723" s="80" t="s">
+      <c r="D725" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="E723" s="42">
+      <c r="E725" s="42">
         <v>25.5</v>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A724" s="80" t="s">
+    <row r="726" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A726" s="80" t="s">
         <v>1191</v>
       </c>
-      <c r="B724" s="80" t="s">
+      <c r="B726" s="80" t="s">
         <v>1192</v>
       </c>
-      <c r="C724" s="81">
+      <c r="C726" s="81">
         <v>4383</v>
       </c>
-      <c r="D724" s="80" t="s">
+      <c r="D726" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="E724" s="42">
+      <c r="E726" s="42">
         <v>51.5</v>
       </c>
     </row>
-    <row r="725" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A725" s="85"/>
-      <c r="B725" s="85"/>
-      <c r="C725" s="86"/>
-      <c r="D725" s="85"/>
-      <c r="E725" s="61"/>
-    </row>
-    <row r="726" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A726" s="114" t="s">
+    <row r="727" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A727" s="85"/>
+      <c r="B727" s="85"/>
+      <c r="C727" s="86"/>
+      <c r="D727" s="85"/>
+      <c r="E727" s="61"/>
+    </row>
+    <row r="728" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A728" s="114" t="s">
         <v>1305</v>
       </c>
-      <c r="B726" s="115"/>
-      <c r="C726" s="115"/>
-      <c r="D726" s="115"/>
-      <c r="E726" s="116"/>
-    </row>
-    <row r="727" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A727" s="72" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B727" s="72" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C727" s="73">
-        <v>3642</v>
-      </c>
-      <c r="D727" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="E727" s="48">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="728" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A728" s="72" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B728" s="72" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C728" s="73">
-        <v>3644</v>
-      </c>
-      <c r="D728" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="E728" s="49">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="729" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B728" s="115"/>
+      <c r="C728" s="115"/>
+      <c r="D728" s="115"/>
+      <c r="E728" s="116"/>
+    </row>
+    <row r="729" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="72" t="s">
         <v>1285</v>
       </c>
       <c r="B729" s="72" t="s">
-        <v>1252</v>
+        <v>1286</v>
       </c>
       <c r="C729" s="73">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="D729" s="74" t="s">
         <v>160</v>
       </c>
       <c r="E729" s="48">
-        <v>84</v>
+        <v>162</v>
       </c>
     </row>
     <row r="730" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17600,50 +17603,50 @@
         <v>1285</v>
       </c>
       <c r="B730" s="72" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C730" s="73">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="D730" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E730" s="48">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="731" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E730" s="49">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="72" t="s">
-        <v>1251</v>
+        <v>1285</v>
       </c>
       <c r="B731" s="72" t="s">
-        <v>1174</v>
+        <v>1252</v>
       </c>
       <c r="C731" s="73">
-        <v>3852</v>
+        <v>3641</v>
       </c>
       <c r="D731" s="74" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E731" s="48">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="732" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="72" t="s">
-        <v>1251</v>
+        <v>1285</v>
       </c>
       <c r="B732" s="72" t="s">
-        <v>1252</v>
+        <v>1288</v>
       </c>
       <c r="C732" s="73">
-        <v>3647</v>
+        <v>3645</v>
       </c>
       <c r="D732" s="74" t="s">
         <v>160</v>
       </c>
       <c r="E732" s="48">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
     <row r="733" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -17651,98 +17654,98 @@
         <v>1251</v>
       </c>
       <c r="B733" s="72" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C733" s="73">
+        <v>3852</v>
+      </c>
+      <c r="D733" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E733" s="48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A734" s="72" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B734" s="72" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C734" s="73">
+        <v>3647</v>
+      </c>
+      <c r="D734" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="E734" s="48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A735" s="72" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B735" s="72" t="s">
         <v>1253</v>
       </c>
-      <c r="C733" s="73">
+      <c r="C735" s="73">
         <v>3648</v>
       </c>
-      <c r="D733" s="74" t="s">
+      <c r="D735" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E733" s="48">
+      <c r="E735" s="48">
         <v>33</v>
       </c>
     </row>
-    <row r="734" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A734" s="117"/>
-      <c r="B734" s="105"/>
-      <c r="C734" s="105"/>
-      <c r="D734" s="106"/>
-      <c r="E734" s="113"/>
-    </row>
-    <row r="735" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A735" s="114" t="s">
+    <row r="736" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A736" s="117"/>
+      <c r="B736" s="105"/>
+      <c r="C736" s="105"/>
+      <c r="D736" s="106"/>
+      <c r="E736" s="113"/>
+    </row>
+    <row r="737" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A737" s="114" t="s">
         <v>421</v>
       </c>
-      <c r="B735" s="115"/>
-      <c r="C735" s="115"/>
-      <c r="D735" s="115"/>
-      <c r="E735" s="116"/>
-    </row>
-    <row r="736" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A736" s="66" t="s">
+      <c r="B737" s="115"/>
+      <c r="C737" s="115"/>
+      <c r="D737" s="115"/>
+      <c r="E737" s="116"/>
+    </row>
+    <row r="738" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A738" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B736" s="66"/>
-      <c r="C736" s="66" t="s">
+      <c r="B738" s="66"/>
+      <c r="C738" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D736" s="66" t="s">
+      <c r="D738" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E736" s="46" t="s">
+      <c r="E738" s="46" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="737" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A737" s="69" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B737" s="69" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C737" s="70">
-        <v>3056</v>
-      </c>
-      <c r="D737" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="E737" s="40">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="738" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A738" s="69" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B738" s="69" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C738" s="70">
-        <v>3083</v>
-      </c>
-      <c r="D738" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="E738" s="40">
-        <v>56</v>
       </c>
     </row>
     <row r="739" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="69" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B739" s="69" t="s">
         <v>1132</v>
       </c>
       <c r="C739" s="70">
-        <v>2264</v>
+        <v>3056</v>
       </c>
       <c r="D739" s="69" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="E739" s="40">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="740" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17753,171 +17756,157 @@
         <v>1139</v>
       </c>
       <c r="C740" s="70">
+        <v>3083</v>
+      </c>
+      <c r="D740" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="E740" s="40">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="741" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A741" s="69" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B741" s="69" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C741" s="70">
+        <v>2264</v>
+      </c>
+      <c r="D741" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E741" s="40">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="742" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A742" s="69" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B742" s="69" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C742" s="70">
         <v>2355</v>
       </c>
-      <c r="D740" s="69" t="s">
+      <c r="D742" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E740" s="40">
+      <c r="E742" s="40">
         <v>59</v>
       </c>
     </row>
-    <row r="741" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A741" s="75" t="s">
+    <row r="743" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A743" s="75" t="s">
         <v>1195</v>
       </c>
-      <c r="B741" s="75" t="s">
+      <c r="B743" s="75" t="s">
         <v>1132</v>
       </c>
-      <c r="C741" s="76">
+      <c r="C743" s="76">
         <v>573</v>
       </c>
-      <c r="D741" s="75" t="s">
+      <c r="D743" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="E741" s="44">
+      <c r="E743" s="44">
         <v>59</v>
       </c>
     </row>
-    <row r="742" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A742" s="80" t="s">
+    <row r="744" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A744" s="80" t="s">
         <v>1196</v>
       </c>
-      <c r="B742" s="80" t="s">
+      <c r="B744" s="80" t="s">
         <v>1197</v>
       </c>
-      <c r="C742" s="81">
+      <c r="C744" s="81">
         <v>572</v>
       </c>
-      <c r="D742" s="80" t="s">
+      <c r="D744" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="E742" s="42">
+      <c r="E744" s="42">
         <v>60</v>
       </c>
     </row>
-    <row r="743" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A743" s="65" t="s">
+    <row r="745" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A745" s="65" t="s">
         <v>1198</v>
       </c>
-      <c r="B743" s="65" t="s">
+      <c r="B745" s="65" t="s">
         <v>1156</v>
       </c>
-      <c r="C743" s="81">
+      <c r="C745" s="81">
         <v>4411</v>
       </c>
-      <c r="D743" s="80" t="s">
+      <c r="D745" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E743" s="42">
+      <c r="E745" s="42">
         <v>93</v>
       </c>
     </row>
-    <row r="744" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A744" s="65" t="s">
+    <row r="746" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A746" s="65" t="s">
         <v>1199</v>
       </c>
-      <c r="B744" s="65" t="s">
+      <c r="B746" s="65" t="s">
         <v>1200</v>
       </c>
-      <c r="C744" s="81">
+      <c r="C746" s="81">
         <v>4410</v>
       </c>
-      <c r="D744" s="80" t="s">
+      <c r="D746" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E744" s="42">
+      <c r="E746" s="42">
         <v>95</v>
       </c>
     </row>
-    <row r="745" spans="1:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A745" s="117"/>
-      <c r="B745" s="105"/>
-      <c r="C745" s="105"/>
-      <c r="D745" s="106"/>
-      <c r="E745" s="113"/>
-    </row>
-    <row r="746" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A746" s="114" t="s">
+    <row r="747" spans="1:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A747" s="117"/>
+      <c r="B747" s="105"/>
+      <c r="C747" s="105"/>
+      <c r="D747" s="106"/>
+      <c r="E747" s="113"/>
+    </row>
+    <row r="748" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A748" s="114" t="s">
         <v>1303</v>
       </c>
-      <c r="B746" s="115"/>
-      <c r="C746" s="115"/>
-      <c r="D746" s="115"/>
-      <c r="E746" s="116"/>
-    </row>
-    <row r="747" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A747" s="66" t="s">
+      <c r="B748" s="115"/>
+      <c r="C748" s="115"/>
+      <c r="D748" s="115"/>
+      <c r="E748" s="116"/>
+    </row>
+    <row r="749" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A749" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B747" s="66"/>
-      <c r="C747" s="66" t="s">
+      <c r="B749" s="66"/>
+      <c r="C749" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D747" s="66" t="s">
+      <c r="D749" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E747" s="47" t="s">
+      <c r="E749" s="47" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="748" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="72" t="s">
-        <v>439</v>
-      </c>
-      <c r="B748" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="C748" s="73">
-        <v>4043</v>
-      </c>
-      <c r="D748" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E748" s="48">
-        <v>63</v>
-      </c>
-      <c r="F748" s="54"/>
-      <c r="G748" s="54"/>
-      <c r="I748" s="57"/>
-      <c r="J748" s="58"/>
-      <c r="K748" s="60"/>
-      <c r="L748" s="59"/>
-      <c r="M748" s="59"/>
-      <c r="N748" s="59"/>
-      <c r="O748" s="59"/>
-      <c r="P748" s="59"/>
-      <c r="Q748" s="59"/>
-      <c r="R748" s="58"/>
-    </row>
-    <row r="749" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="72" t="s">
-        <v>440</v>
-      </c>
-      <c r="B749" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="C749" s="73">
-        <v>3531</v>
-      </c>
-      <c r="D749" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E749" s="48">
-        <v>63</v>
-      </c>
-      <c r="G749" s="55"/>
-      <c r="H749" s="56"/>
     </row>
     <row r="750" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="72" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B750" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C750" s="73">
-        <v>3974</v>
+        <v>4043</v>
       </c>
       <c r="D750" s="74" t="s">
         <v>20</v>
@@ -17925,16 +17914,28 @@
       <c r="E750" s="48">
         <v>63</v>
       </c>
+      <c r="F750" s="54"/>
+      <c r="G750" s="54"/>
+      <c r="I750" s="57"/>
+      <c r="J750" s="58"/>
+      <c r="K750" s="60"/>
+      <c r="L750" s="59"/>
+      <c r="M750" s="59"/>
+      <c r="N750" s="59"/>
+      <c r="O750" s="59"/>
+      <c r="P750" s="59"/>
+      <c r="Q750" s="59"/>
+      <c r="R750" s="58"/>
     </row>
     <row r="751" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="72" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B751" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C751" s="73">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="D751" s="74" t="s">
         <v>20</v>
@@ -17942,67 +17943,69 @@
       <c r="E751" s="48">
         <v>63</v>
       </c>
+      <c r="G751" s="55"/>
+      <c r="H751" s="56"/>
     </row>
     <row r="752" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="72" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B752" s="72" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C752" s="73">
-        <v>4282</v>
+        <v>3974</v>
       </c>
       <c r="D752" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E752" s="48">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="753" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="72" t="s">
-        <v>1209</v>
+        <v>442</v>
       </c>
       <c r="B753" s="72" t="s">
-        <v>1208</v>
+        <v>145</v>
       </c>
       <c r="C753" s="73">
-        <v>3870</v>
+        <v>3530</v>
       </c>
       <c r="D753" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E753" s="48">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="754" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="72" t="s">
-        <v>1210</v>
+        <v>443</v>
       </c>
       <c r="B754" s="72" t="s">
-        <v>1208</v>
+        <v>78</v>
       </c>
       <c r="C754" s="73">
-        <v>3701</v>
+        <v>4282</v>
       </c>
       <c r="D754" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E754" s="48">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="755" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="72" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B755" s="72" t="s">
         <v>1208</v>
       </c>
       <c r="C755" s="73">
-        <v>3800</v>
+        <v>3870</v>
       </c>
       <c r="D755" s="74" t="s">
         <v>20</v>
@@ -18013,16 +18016,16 @@
     </row>
     <row r="756" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="72" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B756" s="72" t="s">
         <v>1208</v>
       </c>
       <c r="C756" s="73">
-        <v>3725</v>
+        <v>3701</v>
       </c>
       <c r="D756" s="74" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E756" s="48">
         <v>22</v>
@@ -18030,64 +18033,64 @@
     </row>
     <row r="757" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="72" t="s">
-        <v>1237</v>
+        <v>1211</v>
       </c>
       <c r="B757" s="72" t="s">
         <v>1208</v>
       </c>
       <c r="C757" s="73">
-        <v>3871</v>
+        <v>3800</v>
       </c>
       <c r="D757" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E757" s="48">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="758" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="72" t="s">
-        <v>463</v>
+        <v>1212</v>
       </c>
       <c r="B758" s="72" t="s">
-        <v>145</v>
+        <v>1208</v>
       </c>
       <c r="C758" s="73">
-        <v>2825</v>
+        <v>3725</v>
       </c>
       <c r="D758" s="74" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E758" s="48">
-        <v>23.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="759" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="72" t="s">
-        <v>464</v>
+        <v>1237</v>
       </c>
       <c r="B759" s="72" t="s">
-        <v>145</v>
+        <v>1208</v>
       </c>
       <c r="C759" s="73">
-        <v>2828</v>
+        <v>3871</v>
       </c>
       <c r="D759" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E759" s="48">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="760" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="72" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B760" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C760" s="73">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="D760" s="74" t="s">
         <v>20</v>
@@ -18098,13 +18101,13 @@
     </row>
     <row r="761" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="72" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B761" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C761" s="73">
-        <v>3058</v>
+        <v>2828</v>
       </c>
       <c r="D761" s="74" t="s">
         <v>20</v>
@@ -18115,13 +18118,13 @@
     </row>
     <row r="762" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="72" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B762" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C762" s="73">
-        <v>3059</v>
+        <v>2826</v>
       </c>
       <c r="D762" s="74" t="s">
         <v>20</v>
@@ -18132,13 +18135,13 @@
     </row>
     <row r="763" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="72" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B763" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C763" s="73">
-        <v>2829</v>
+        <v>3058</v>
       </c>
       <c r="D763" s="74" t="s">
         <v>20</v>
@@ -18149,13 +18152,13 @@
     </row>
     <row r="764" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="72" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B764" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C764" s="73">
-        <v>4126</v>
+        <v>3059</v>
       </c>
       <c r="D764" s="74" t="s">
         <v>20</v>
@@ -18166,13 +18169,13 @@
     </row>
     <row r="765" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="72" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B765" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C765" s="73">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="D765" s="74" t="s">
         <v>20</v>
@@ -18183,148 +18186,148 @@
     </row>
     <row r="766" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="72" t="s">
-        <v>1254</v>
+        <v>469</v>
       </c>
       <c r="B766" s="72" t="s">
-        <v>1208</v>
+        <v>145</v>
       </c>
       <c r="C766" s="73">
-        <v>3801</v>
+        <v>4126</v>
       </c>
       <c r="D766" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E766" s="48">
-        <v>25</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="767" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="72" t="s">
-        <v>1255</v>
+        <v>470</v>
       </c>
       <c r="B767" s="72" t="s">
-        <v>1208</v>
+        <v>145</v>
       </c>
       <c r="C767" s="73">
-        <v>3833</v>
+        <v>2827</v>
       </c>
       <c r="D767" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E767" s="48">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A768" s="72" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B768" s="72" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C768" s="73">
+        <v>3801</v>
+      </c>
+      <c r="D768" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E768" s="48">
         <v>25</v>
-      </c>
-    </row>
-    <row r="768" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A768" s="72" t="s">
-        <v>476</v>
-      </c>
-      <c r="B768" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="C768" s="73">
-        <v>3897</v>
-      </c>
-      <c r="D768" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="E768" s="48">
-        <v>60</v>
       </c>
     </row>
     <row r="769" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="72" t="s">
-        <v>477</v>
+        <v>1255</v>
       </c>
       <c r="B769" s="72" t="s">
-        <v>145</v>
+        <v>1208</v>
       </c>
       <c r="C769" s="73">
-        <v>3764</v>
+        <v>3833</v>
       </c>
       <c r="D769" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E769" s="48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A770" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="B770" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C770" s="73">
+        <v>3897</v>
+      </c>
+      <c r="D770" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E770" s="48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A771" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="B771" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C771" s="73">
+        <v>3764</v>
+      </c>
+      <c r="D771" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E771" s="48">
         <v>78</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A770" s="96"/>
-      <c r="B770" s="96"/>
-      <c r="C770" s="97"/>
-      <c r="D770" s="96"/>
-      <c r="E770" s="98"/>
-    </row>
-    <row r="771" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A771" s="129" t="s">
+    <row r="772" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="96"/>
+      <c r="B772" s="96"/>
+      <c r="C772" s="97"/>
+      <c r="D772" s="96"/>
+      <c r="E772" s="98"/>
+    </row>
+    <row r="773" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="129" t="s">
         <v>1289</v>
       </c>
-      <c r="B771" s="130"/>
-      <c r="C771" s="130"/>
-      <c r="D771" s="130"/>
-      <c r="E771" s="131"/>
-    </row>
-    <row r="772" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A772" s="66" t="s">
+      <c r="B773" s="130"/>
+      <c r="C773" s="130"/>
+      <c r="D773" s="130"/>
+      <c r="E773" s="131"/>
+    </row>
+    <row r="774" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A774" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B772" s="66" t="s">
+      <c r="B774" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C772" s="66" t="s">
+      <c r="C774" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D772" s="66" t="s">
+      <c r="D774" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E772" s="47" t="s">
+      <c r="E774" s="47" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="773" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A773" s="72" t="s">
-        <v>425</v>
-      </c>
-      <c r="B773" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="C773" s="73">
-        <v>3438</v>
-      </c>
-      <c r="D773" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="E773" s="48">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="774" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A774" s="72" t="s">
-        <v>425</v>
-      </c>
-      <c r="B774" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C774" s="73">
-        <v>3434</v>
-      </c>
-      <c r="D774" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E774" s="48">
-        <v>69</v>
       </c>
     </row>
     <row r="775" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B775" s="72" t="s">
         <v>120</v>
       </c>
       <c r="C775" s="73">
-        <v>3443</v>
+        <v>3438</v>
       </c>
       <c r="D775" s="74" t="s">
         <v>15</v>
@@ -18335,13 +18338,13 @@
     </row>
     <row r="776" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B776" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C776" s="73">
-        <v>3019</v>
+        <v>3434</v>
       </c>
       <c r="D776" s="74" t="s">
         <v>20</v>
@@ -18352,13 +18355,13 @@
     </row>
     <row r="777" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="72" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B777" s="72" t="s">
         <v>120</v>
       </c>
       <c r="C777" s="73">
-        <v>4489</v>
+        <v>3443</v>
       </c>
       <c r="D777" s="74" t="s">
         <v>15</v>
@@ -18369,13 +18372,13 @@
     </row>
     <row r="778" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="72" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B778" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C778" s="73">
-        <v>4490</v>
+        <v>3019</v>
       </c>
       <c r="D778" s="74" t="s">
         <v>20</v>
@@ -18384,15 +18387,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="72" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B779" s="72" t="s">
         <v>120</v>
       </c>
       <c r="C779" s="73">
-        <v>3476</v>
+        <v>4489</v>
       </c>
       <c r="D779" s="74" t="s">
         <v>15</v>
@@ -18401,15 +18404,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="780" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="72" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B780" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C780" s="73">
-        <v>3477</v>
+        <v>4490</v>
       </c>
       <c r="D780" s="74" t="s">
         <v>20</v>
@@ -18420,166 +18423,166 @@
     </row>
     <row r="781" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="72" t="s">
-        <v>1314</v>
+        <v>428</v>
       </c>
       <c r="B781" s="72" t="s">
-        <v>1156</v>
+        <v>120</v>
       </c>
       <c r="C781" s="73">
-        <v>4344</v>
+        <v>3476</v>
       </c>
       <c r="D781" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E781" s="48">
-        <v>328</v>
+        <v>207</v>
       </c>
     </row>
     <row r="782" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="72" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B782" s="72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C782" s="73">
-        <v>3123</v>
+        <v>3477</v>
       </c>
       <c r="D782" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E782" s="48">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="783" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="72" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B783" s="72" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C783" s="73">
+        <v>4344</v>
+      </c>
+      <c r="D783" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E783" s="48">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A784" s="72" t="s">
         <v>429</v>
-      </c>
-      <c r="B783" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C783" s="73">
-        <v>2674</v>
-      </c>
-      <c r="D783" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E783" s="48">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="784" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A784" s="72" t="s">
-        <v>430</v>
       </c>
       <c r="B784" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C784" s="73">
-        <v>3719</v>
+        <v>3123</v>
       </c>
       <c r="D784" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E784" s="48">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="785" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="72" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B785" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C785" s="73">
-        <v>3720</v>
+        <v>2674</v>
       </c>
       <c r="D785" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E785" s="48">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="786" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B786" s="72" t="s">
-        <v>1126</v>
+        <v>18</v>
       </c>
       <c r="C786" s="73">
-        <v>3765</v>
+        <v>3719</v>
       </c>
       <c r="D786" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E786" s="48">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="787" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B787" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C787" s="73">
-        <v>3766</v>
+        <v>3720</v>
       </c>
       <c r="D787" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E787" s="48">
-        <v>62.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="788" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B788" s="72" t="s">
-        <v>18</v>
+        <v>1126</v>
       </c>
       <c r="C788" s="73">
-        <v>3126</v>
+        <v>3765</v>
       </c>
       <c r="D788" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E788" s="48">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="789" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B789" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C789" s="73">
-        <v>3127</v>
+        <v>3766</v>
       </c>
       <c r="D789" s="74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E789" s="48">
-        <v>54</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="790" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="72" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B790" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C790" s="73">
-        <v>3435</v>
+        <v>3126</v>
       </c>
       <c r="D790" s="74" t="s">
         <v>15</v>
@@ -18590,16 +18593,16 @@
     </row>
     <row r="791" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="72" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B791" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C791" s="73">
-        <v>3436</v>
+        <v>3127</v>
       </c>
       <c r="D791" s="74" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E791" s="48">
         <v>54</v>
@@ -18607,13 +18610,13 @@
     </row>
     <row r="792" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B792" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C792" s="73">
-        <v>3128</v>
+        <v>3435</v>
       </c>
       <c r="D792" s="74" t="s">
         <v>15</v>
@@ -18624,16 +18627,16 @@
     </row>
     <row r="793" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B793" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C793" s="73">
-        <v>3129</v>
+        <v>3436</v>
       </c>
       <c r="D793" s="74" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E793" s="48">
         <v>54</v>
@@ -18641,13 +18644,13 @@
     </row>
     <row r="794" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B794" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C794" s="73">
-        <v>4158</v>
+        <v>3128</v>
       </c>
       <c r="D794" s="74" t="s">
         <v>15</v>
@@ -18658,13 +18661,13 @@
     </row>
     <row r="795" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B795" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C795" s="73">
-        <v>4159</v>
+        <v>3129</v>
       </c>
       <c r="D795" s="74" t="s">
         <v>20</v>
@@ -18675,237 +18678,237 @@
     </row>
     <row r="796" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="72" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B796" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C796" s="73">
-        <v>3124</v>
+        <v>4158</v>
       </c>
       <c r="D796" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E796" s="48">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="797" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="72" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B797" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C797" s="73">
-        <v>2824</v>
+        <v>4159</v>
       </c>
       <c r="D797" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E797" s="48">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="798" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="72" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B798" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C798" s="73">
-        <v>3130</v>
+        <v>3124</v>
       </c>
       <c r="D798" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E798" s="48">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="799" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="72" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B799" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C799" s="73">
-        <v>3131</v>
+        <v>2824</v>
       </c>
       <c r="D799" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E799" s="48">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="800" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="72" t="s">
-        <v>1201</v>
+        <v>437</v>
       </c>
       <c r="B800" s="72" t="s">
-        <v>1156</v>
+        <v>18</v>
       </c>
       <c r="C800" s="73">
-        <v>4346</v>
+        <v>3130</v>
       </c>
       <c r="D800" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E800" s="48">
-        <v>328</v>
+        <v>124</v>
       </c>
     </row>
     <row r="801" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="72" t="s">
-        <v>1202</v>
+        <v>437</v>
       </c>
       <c r="B801" s="72" t="s">
-        <v>1156</v>
+        <v>19</v>
       </c>
       <c r="C801" s="73">
-        <v>4345</v>
+        <v>3131</v>
       </c>
       <c r="D801" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E801" s="48">
-        <v>328</v>
+        <v>62</v>
       </c>
     </row>
     <row r="802" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="72" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B802" s="72" t="s">
-        <v>1132</v>
+        <v>1156</v>
       </c>
       <c r="C802" s="73">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="D802" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E802" s="48">
-        <v>274</v>
+        <v>328</v>
       </c>
     </row>
     <row r="803" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="72" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B803" s="72" t="s">
         <v>1156</v>
       </c>
       <c r="C803" s="73">
-        <v>4446</v>
+        <v>4345</v>
       </c>
       <c r="D803" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E803" s="48">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="804" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="72" t="s">
-        <v>438</v>
+        <v>1203</v>
       </c>
       <c r="B804" s="72" t="s">
-        <v>78</v>
+        <v>1132</v>
       </c>
       <c r="C804" s="73">
-        <v>4476</v>
+        <v>4347</v>
       </c>
       <c r="D804" s="74" t="s">
-        <v>412</v>
+        <v>15</v>
       </c>
       <c r="E804" s="48">
-        <v>30</v>
+        <v>274</v>
       </c>
     </row>
     <row r="805" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="72" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B805" s="72" t="s">
         <v>1156</v>
       </c>
       <c r="C805" s="73">
-        <v>4348</v>
+        <v>4446</v>
       </c>
       <c r="D805" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E805" s="48">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="806" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="72" t="s">
-        <v>1206</v>
+        <v>438</v>
       </c>
       <c r="B806" s="72" t="s">
-        <v>1207</v>
+        <v>78</v>
       </c>
       <c r="C806" s="73">
-        <v>4456</v>
+        <v>4476</v>
       </c>
       <c r="D806" s="74" t="s">
-        <v>160</v>
+        <v>412</v>
       </c>
       <c r="E806" s="48">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="807" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="72" t="s">
-        <v>444</v>
+        <v>1205</v>
       </c>
       <c r="B807" s="72" t="s">
-        <v>110</v>
+        <v>1156</v>
       </c>
       <c r="C807" s="73">
-        <v>4051</v>
+        <v>4348</v>
       </c>
       <c r="D807" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E807" s="48">
-        <v>72</v>
+        <v>328</v>
       </c>
     </row>
     <row r="808" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="72" t="s">
-        <v>1315</v>
+        <v>1206</v>
       </c>
       <c r="B808" s="72" t="s">
-        <v>1151</v>
+        <v>1207</v>
       </c>
       <c r="C808" s="73">
-        <v>4408</v>
+        <v>4456</v>
       </c>
       <c r="D808" s="74" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E808" s="48">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="809" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="72" t="s">
-        <v>1213</v>
+        <v>444</v>
       </c>
       <c r="B809" s="72" t="s">
-        <v>1151</v>
+        <v>110</v>
       </c>
       <c r="C809" s="73">
-        <v>4341</v>
+        <v>4051</v>
       </c>
       <c r="D809" s="74" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E809" s="48">
         <v>72</v>
@@ -18913,319 +18916,319 @@
     </row>
     <row r="810" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="72" t="s">
-        <v>448</v>
+        <v>1315</v>
       </c>
       <c r="B810" s="72" t="s">
-        <v>145</v>
+        <v>1151</v>
       </c>
       <c r="C810" s="73">
-        <v>4265</v>
+        <v>4408</v>
       </c>
       <c r="D810" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E810" s="48">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="811" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="72" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B811" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C811" s="73">
-        <v>4266</v>
+        <v>4341</v>
       </c>
       <c r="D811" s="74" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E811" s="48">
-        <v>81.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="812" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="72" t="s">
-        <v>1215</v>
+        <v>448</v>
       </c>
       <c r="B812" s="72" t="s">
-        <v>1151</v>
+        <v>145</v>
       </c>
       <c r="C812" s="73">
-        <v>4269</v>
+        <v>4265</v>
       </c>
       <c r="D812" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E812" s="48">
-        <v>87.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="813" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="72" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B813" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C813" s="73">
-        <v>4273</v>
+        <v>4266</v>
       </c>
       <c r="D813" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E813" s="48">
-        <v>94</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="814" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="72" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B814" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C814" s="73">
-        <v>4405</v>
+        <v>4269</v>
       </c>
       <c r="D814" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E814" s="48">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="815" spans="1:5" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="72" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B815" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C815" s="73">
-        <v>4406</v>
+        <v>4273</v>
       </c>
       <c r="D815" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E815" s="48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="816" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="72" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B816" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C816" s="73">
-        <v>4267</v>
+        <v>4405</v>
       </c>
       <c r="D816" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E816" s="48">
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="817" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="72" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B817" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C817" s="73">
-        <v>4271</v>
+        <v>4406</v>
       </c>
       <c r="D817" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E817" s="48">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="818" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="72" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B818" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C818" s="73">
-        <v>4276</v>
+        <v>4267</v>
       </c>
       <c r="D818" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E818" s="48">
-        <v>119</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="819" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="72" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B819" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C819" s="73">
-        <v>4342</v>
+        <v>4271</v>
       </c>
       <c r="D819" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E819" s="48">
-        <v>114</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="820" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="72" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B820" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C820" s="73">
-        <v>4398</v>
+        <v>4276</v>
       </c>
       <c r="D820" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E820" s="48">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="821" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="72" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B821" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C821" s="73">
-        <v>4270</v>
+        <v>4342</v>
       </c>
       <c r="D821" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E821" s="48">
-        <v>87.5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="822" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="72" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B822" s="72" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="C822" s="73">
-        <v>4275</v>
+        <v>4398</v>
       </c>
       <c r="D822" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E822" s="48">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="823" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="72" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B823" s="72" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="C823" s="73">
-        <v>4274</v>
+        <v>4270</v>
       </c>
       <c r="D823" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E823" s="48">
-        <v>54</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="824" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="72" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B824" s="72" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C824" s="73">
-        <v>4399</v>
+        <v>4275</v>
       </c>
       <c r="D824" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E824" s="48">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="825" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="72" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B825" s="72" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C825" s="73">
-        <v>4404</v>
+        <v>4274</v>
       </c>
       <c r="D825" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E825" s="48">
-        <v>130</v>
+        <v>54</v>
       </c>
     </row>
     <row r="826" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="72" t="s">
-        <v>449</v>
+        <v>1227</v>
       </c>
       <c r="B826" s="72" t="s">
-        <v>145</v>
+        <v>1151</v>
       </c>
       <c r="C826" s="73">
-        <v>4262</v>
+        <v>4399</v>
       </c>
       <c r="D826" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E826" s="48">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="72" t="s">
-        <v>450</v>
+        <v>1228</v>
       </c>
       <c r="B827" s="72" t="s">
-        <v>145</v>
+        <v>1151</v>
       </c>
       <c r="C827" s="73">
-        <v>4263</v>
+        <v>4404</v>
       </c>
       <c r="D827" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E827" s="48">
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="828" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="72" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B828" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C828" s="73">
-        <v>4264</v>
+        <v>4262</v>
       </c>
       <c r="D828" s="74" t="s">
         <v>20</v>
@@ -19236,254 +19239,254 @@
     </row>
     <row r="829" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="72" t="s">
-        <v>1229</v>
+        <v>450</v>
       </c>
       <c r="B829" s="72" t="s">
-        <v>1151</v>
+        <v>145</v>
       </c>
       <c r="C829" s="73">
-        <v>4407</v>
+        <v>4263</v>
       </c>
       <c r="D829" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E829" s="48">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="830" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="72" t="s">
-        <v>1230</v>
+        <v>451</v>
       </c>
       <c r="B830" s="72" t="s">
-        <v>1151</v>
+        <v>145</v>
       </c>
       <c r="C830" s="73">
-        <v>4397</v>
+        <v>4264</v>
       </c>
       <c r="D830" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E830" s="48">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="831" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="72" t="s">
-        <v>452</v>
+        <v>1229</v>
       </c>
       <c r="B831" s="72" t="s">
-        <v>145</v>
+        <v>1151</v>
       </c>
       <c r="C831" s="73">
-        <v>4343</v>
+        <v>4407</v>
       </c>
       <c r="D831" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E831" s="48">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="832" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="72" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B832" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C832" s="73">
-        <v>4268</v>
+        <v>4397</v>
       </c>
       <c r="D832" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E832" s="48">
-        <v>81.5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="833" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="72" t="s">
-        <v>1232</v>
+        <v>452</v>
       </c>
       <c r="B833" s="72" t="s">
-        <v>1233</v>
+        <v>145</v>
       </c>
       <c r="C833" s="73">
-        <v>4074</v>
+        <v>4343</v>
       </c>
       <c r="D833" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E833" s="48">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="834" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="72" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B834" s="72" t="s">
-        <v>1235</v>
+        <v>1151</v>
       </c>
       <c r="C834" s="73">
-        <v>4076</v>
+        <v>4268</v>
       </c>
       <c r="D834" s="74" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="E834" s="48">
-        <v>24</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="835" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="72" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="B835" s="72" t="s">
-        <v>1207</v>
+        <v>1233</v>
       </c>
       <c r="C835" s="73">
-        <v>4133</v>
+        <v>4074</v>
       </c>
       <c r="D835" s="74" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="E835" s="48">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="836" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="72" t="s">
-        <v>455</v>
+        <v>1234</v>
       </c>
       <c r="B836" s="72" t="s">
-        <v>120</v>
+        <v>1235</v>
       </c>
       <c r="C836" s="73">
-        <v>3068</v>
+        <v>4076</v>
       </c>
       <c r="D836" s="74" t="s">
-        <v>20</v>
+        <v>453</v>
       </c>
       <c r="E836" s="48">
-        <v>324</v>
+        <v>24</v>
       </c>
     </row>
     <row r="837" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="72" t="s">
-        <v>455</v>
+        <v>1236</v>
       </c>
       <c r="B837" s="72" t="s">
-        <v>19</v>
+        <v>1207</v>
       </c>
       <c r="C837" s="73">
-        <v>3087</v>
+        <v>4133</v>
       </c>
       <c r="D837" s="74" t="s">
-        <v>15</v>
+        <v>453</v>
       </c>
       <c r="E837" s="48">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="838" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="72" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B838" s="72" t="s">
-        <v>1132</v>
+        <v>120</v>
       </c>
       <c r="C838" s="73">
-        <v>4531</v>
+        <v>3068</v>
       </c>
       <c r="D838" s="74" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E838" s="48">
-        <v>880</v>
+        <v>324</v>
       </c>
     </row>
     <row r="839" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="72" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B839" s="72" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C839" s="73">
-        <v>4532</v>
+        <v>3087</v>
       </c>
       <c r="D839" s="74" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E839" s="48">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="840" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="72" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B840" s="72" t="s">
-        <v>145</v>
+        <v>1132</v>
       </c>
       <c r="C840" s="73">
-        <v>4493</v>
+        <v>4531</v>
       </c>
       <c r="D840" s="74" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E840" s="48">
-        <v>83</v>
+        <v>880</v>
       </c>
     </row>
     <row r="841" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="72" t="s">
-        <v>1238</v>
+        <v>456</v>
       </c>
       <c r="B841" s="72" t="s">
-        <v>1239</v>
+        <v>78</v>
       </c>
       <c r="C841" s="73">
-        <v>4102</v>
+        <v>4532</v>
       </c>
       <c r="D841" s="74" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E841" s="48">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="842" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="72" t="s">
-        <v>1240</v>
+        <v>457</v>
       </c>
       <c r="B842" s="72" t="s">
-        <v>1239</v>
+        <v>145</v>
       </c>
       <c r="C842" s="73">
-        <v>4103</v>
+        <v>4493</v>
       </c>
       <c r="D842" s="74" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E842" s="48">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="843" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="72" t="s">
-        <v>1316</v>
+        <v>1238</v>
       </c>
       <c r="B843" s="72" t="s">
         <v>1239</v>
       </c>
       <c r="C843" s="73">
-        <v>4547</v>
+        <v>4102</v>
       </c>
       <c r="D843" s="74" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E843" s="48">
         <v>77</v>
@@ -19491,13 +19494,13 @@
     </row>
     <row r="844" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="72" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B844" s="72" t="s">
         <v>1239</v>
       </c>
       <c r="C844" s="73">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="D844" s="74" t="s">
         <v>160</v>
@@ -19508,13 +19511,13 @@
     </row>
     <row r="845" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="72" t="s">
-        <v>1242</v>
+        <v>1316</v>
       </c>
       <c r="B845" s="72" t="s">
         <v>1239</v>
       </c>
       <c r="C845" s="73">
-        <v>4101</v>
+        <v>4547</v>
       </c>
       <c r="D845" s="74" t="s">
         <v>160</v>
@@ -19525,13 +19528,13 @@
     </row>
     <row r="846" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="72" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B846" s="72" t="s">
         <v>1239</v>
       </c>
       <c r="C846" s="73">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="D846" s="74" t="s">
         <v>160</v>
@@ -19540,222 +19543,222 @@
         <v>77</v>
       </c>
     </row>
-    <row r="847" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="72" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B847" s="72" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="C847" s="73">
-        <v>3705</v>
+        <v>4101</v>
       </c>
       <c r="D847" s="74" t="s">
         <v>160</v>
       </c>
       <c r="E847" s="48">
-        <v>123.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="848" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="72" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B848" s="72" t="s">
         <v>1239</v>
       </c>
       <c r="C848" s="73">
-        <v>3823</v>
+        <v>4105</v>
       </c>
       <c r="D848" s="74" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="E848" s="48">
         <v>77</v>
       </c>
     </row>
-    <row r="849" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="72" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="B849" s="72" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C849" s="73">
-        <v>4308</v>
+        <v>3705</v>
       </c>
       <c r="D849" s="74" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E849" s="48">
-        <v>68.5</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="850" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="72" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="B850" s="72" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="C850" s="73">
-        <v>4309</v>
+        <v>3823</v>
       </c>
       <c r="D850" s="74" t="s">
-        <v>453</v>
+        <v>15</v>
       </c>
       <c r="E850" s="48">
-        <v>68.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="851" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="72" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="B851" s="72" t="s">
-        <v>1151</v>
+        <v>1248</v>
       </c>
       <c r="C851" s="73">
-        <v>4412</v>
+        <v>4308</v>
       </c>
       <c r="D851" s="74" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="E851" s="48">
-        <v>71.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="852" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="72" t="s">
-        <v>459</v>
+        <v>1249</v>
       </c>
       <c r="B852" s="72" t="s">
-        <v>33</v>
+        <v>1248</v>
       </c>
       <c r="C852" s="73">
-        <v>4413</v>
+        <v>4309</v>
       </c>
       <c r="D852" s="74" t="s">
-        <v>20</v>
+        <v>453</v>
       </c>
       <c r="E852" s="48">
-        <v>496</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="853" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="72" t="s">
-        <v>459</v>
+        <v>1250</v>
       </c>
       <c r="B853" s="72" t="s">
-        <v>19</v>
+        <v>1151</v>
       </c>
       <c r="C853" s="73">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="D853" s="74" t="s">
-        <v>20</v>
+        <v>453</v>
       </c>
       <c r="E853" s="48">
-        <v>101</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="854" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="72" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B854" s="72" t="s">
         <v>33</v>
       </c>
       <c r="C854" s="73">
-        <v>4415</v>
+        <v>4413</v>
       </c>
       <c r="D854" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E854" s="48">
-        <v>414</v>
+        <v>496</v>
       </c>
     </row>
     <row r="855" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="72" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B855" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C855" s="73">
-        <v>4416</v>
+        <v>4414</v>
       </c>
       <c r="D855" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E855" s="48">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="856" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="72" t="s">
-        <v>1256</v>
+        <v>460</v>
       </c>
       <c r="B856" s="72" t="s">
-        <v>1257</v>
+        <v>33</v>
       </c>
       <c r="C856" s="73">
-        <v>4475</v>
+        <v>4415</v>
       </c>
       <c r="D856" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E856" s="48">
-        <v>8</v>
+        <v>414</v>
       </c>
     </row>
     <row r="857" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="72" t="s">
-        <v>1258</v>
+        <v>460</v>
       </c>
       <c r="B857" s="72" t="s">
-        <v>1259</v>
+        <v>19</v>
       </c>
       <c r="C857" s="73">
-        <v>4354</v>
+        <v>4416</v>
       </c>
       <c r="D857" s="74" t="s">
-        <v>412</v>
+        <v>20</v>
       </c>
       <c r="E857" s="48">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="858" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="72" t="s">
-        <v>472</v>
+        <v>1256</v>
       </c>
       <c r="B858" s="72" t="s">
-        <v>473</v>
+        <v>1257</v>
       </c>
       <c r="C858" s="73">
-        <v>4445</v>
+        <v>4475</v>
       </c>
       <c r="D858" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E858" s="48">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="859" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="72" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B859" s="72" t="s">
         <v>1259</v>
       </c>
       <c r="C859" s="73">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="D859" s="74" t="s">
-        <v>50</v>
+        <v>412</v>
       </c>
       <c r="E859" s="48">
         <v>74</v>
@@ -19763,16 +19766,16 @@
     </row>
     <row r="860" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="72" t="s">
-        <v>1261</v>
+        <v>472</v>
       </c>
       <c r="B860" s="72" t="s">
-        <v>1259</v>
+        <v>473</v>
       </c>
       <c r="C860" s="73">
-        <v>4350</v>
+        <v>4445</v>
       </c>
       <c r="D860" s="74" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E860" s="48">
         <v>74</v>
@@ -19780,13 +19783,13 @@
     </row>
     <row r="861" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="72" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B861" s="72" t="s">
         <v>1259</v>
       </c>
       <c r="C861" s="73">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="D861" s="74" t="s">
         <v>50</v>
@@ -19797,13 +19800,13 @@
     </row>
     <row r="862" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="72" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B862" s="72" t="s">
         <v>1259</v>
       </c>
       <c r="C862" s="73">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="D862" s="74" t="s">
         <v>50</v>
@@ -19814,13 +19817,13 @@
     </row>
     <row r="863" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="72" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B863" s="72" t="s">
         <v>1259</v>
       </c>
       <c r="C863" s="73">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="D863" s="74" t="s">
         <v>50</v>
@@ -19830,137 +19833,157 @@
       </c>
     </row>
     <row r="864" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A864" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B864" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="C864" s="81">
-        <v>4096</v>
-      </c>
-      <c r="D864" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="E864" s="42">
-        <v>79</v>
+      <c r="A864" s="72" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B864" s="72" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C864" s="73">
+        <v>4349</v>
+      </c>
+      <c r="D864" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E864" s="48">
+        <v>74</v>
       </c>
     </row>
     <row r="865" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="72" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
       <c r="B865" s="72" t="s">
-        <v>1276</v>
+        <v>1259</v>
       </c>
       <c r="C865" s="73">
-        <v>4123</v>
+        <v>4351</v>
       </c>
       <c r="D865" s="74" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E865" s="48">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="866" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A866" s="72" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B866" s="72" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C866" s="73">
-        <v>4306</v>
-      </c>
-      <c r="D866" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="E866" s="48">
-        <v>81</v>
+      <c r="A866" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B866" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C866" s="81">
+        <v>4096</v>
+      </c>
+      <c r="D866" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E866" s="42">
+        <v>79</v>
       </c>
     </row>
     <row r="867" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="72" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B867" s="72" t="s">
-        <v>1239</v>
+        <v>1276</v>
       </c>
       <c r="C867" s="73">
-        <v>4307</v>
+        <v>4123</v>
       </c>
       <c r="D867" s="74" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="E867" s="48">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="868" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="72" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B868" s="72" t="s">
-        <v>1280</v>
+        <v>1239</v>
       </c>
       <c r="C868" s="73">
-        <v>2659</v>
-      </c>
-      <c r="D868" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="E868" s="50">
-        <v>27.5</v>
+        <v>4306</v>
+      </c>
+      <c r="D868" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="E868" s="48">
+        <v>81</v>
       </c>
     </row>
     <row r="869" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="72" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B869" s="72" t="s">
-        <v>1281</v>
+        <v>1239</v>
       </c>
       <c r="C869" s="73">
-        <v>2621</v>
-      </c>
-      <c r="D869" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="E869" s="50">
-        <v>24.5</v>
+        <v>4307</v>
+      </c>
+      <c r="D869" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="E869" s="48">
+        <v>81</v>
       </c>
     </row>
     <row r="870" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="72" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B870" s="72" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C870" s="73">
-        <v>3656</v>
+        <v>2659</v>
       </c>
       <c r="D870" s="72" t="s">
         <v>160</v>
       </c>
       <c r="E870" s="50">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A871" s="72" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B871" s="72" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C871" s="73">
+        <v>2621</v>
+      </c>
+      <c r="D871" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E871" s="50">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A872" s="72" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B872" s="72" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C872" s="73">
+        <v>3656</v>
+      </c>
+      <c r="D872" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E872" s="50">
         <v>27</v>
       </c>
-    </row>
-    <row r="871" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A871" s="99"/>
-      <c r="B871" s="99"/>
-      <c r="C871" s="99"/>
-      <c r="D871" s="99"/>
-      <c r="E871" s="100"/>
-    </row>
-    <row r="872" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A872" s="99"/>
-      <c r="B872" s="99"/>
-      <c r="C872" s="99"/>
-      <c r="D872" s="99"/>
-      <c r="E872" s="100"/>
     </row>
     <row r="873" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="99"/>
@@ -19969,272 +19992,284 @@
       <c r="D873" s="99"/>
       <c r="E873" s="100"/>
     </row>
-    <row r="874" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A874" s="124" t="s">
+    <row r="874" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A874" s="99"/>
+      <c r="B874" s="99"/>
+      <c r="C874" s="99"/>
+      <c r="D874" s="99"/>
+      <c r="E874" s="100"/>
+    </row>
+    <row r="875" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A875" s="99"/>
+      <c r="B875" s="99"/>
+      <c r="C875" s="99"/>
+      <c r="D875" s="99"/>
+      <c r="E875" s="100"/>
+    </row>
+    <row r="876" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A876" s="124" t="s">
         <v>1290</v>
       </c>
-      <c r="B874" s="125"/>
-      <c r="C874" s="125"/>
-      <c r="D874" s="125"/>
-      <c r="E874" s="126"/>
-    </row>
-    <row r="875" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A875" s="87" t="s">
+      <c r="B876" s="125"/>
+      <c r="C876" s="125"/>
+      <c r="D876" s="125"/>
+      <c r="E876" s="126"/>
+    </row>
+    <row r="877" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A877" s="87" t="s">
         <v>1293</v>
       </c>
-      <c r="B875" s="87" t="s">
+      <c r="B877" s="87" t="s">
         <v>1291</v>
       </c>
-      <c r="C875" s="88">
+      <c r="C877" s="88">
         <v>3460</v>
       </c>
-      <c r="D875" s="89" t="s">
+      <c r="D877" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="E875" s="63">
+      <c r="E877" s="63">
         <v>90</v>
-      </c>
-    </row>
-    <row r="876" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A876" s="72" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B876" s="72" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C876" s="73">
-        <v>3459</v>
-      </c>
-      <c r="D876" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E876" s="48">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="877" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A877" s="72" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B877" s="72" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C877" s="73">
-        <v>3803</v>
-      </c>
-      <c r="D877" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E877" s="48">
-        <v>23</v>
       </c>
     </row>
     <row r="878" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="72" t="s">
-        <v>480</v>
+        <v>1292</v>
       </c>
       <c r="B878" s="72" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C878" s="73">
-        <v>3425</v>
+        <v>3459</v>
       </c>
       <c r="D878" s="74" t="s">
-        <v>412</v>
+        <v>20</v>
       </c>
       <c r="E878" s="48">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="879" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="72" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="B879" s="72" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C879" s="73">
-        <v>3426</v>
+        <v>3803</v>
       </c>
       <c r="D879" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E879" s="48">
-        <v>252</v>
+        <v>23</v>
       </c>
     </row>
     <row r="880" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="72" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B880" s="72" t="s">
         <v>1296</v>
       </c>
       <c r="C880" s="73">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="D880" s="74" t="s">
         <v>412</v>
       </c>
       <c r="E880" s="48">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="881" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="72" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B881" s="72" t="s">
         <v>1295</v>
       </c>
       <c r="C881" s="73">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="D881" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E881" s="48">
-        <v>540</v>
+        <v>252</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="72" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B882" s="72" t="s">
         <v>1296</v>
       </c>
       <c r="C882" s="73">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="D882" s="74" t="s">
         <v>412</v>
       </c>
       <c r="E882" s="48">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="883" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="72" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B883" s="72" t="s">
         <v>1295</v>
       </c>
       <c r="C883" s="73">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="D883" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E883" s="48">
-        <v>660</v>
+        <v>540</v>
       </c>
     </row>
     <row r="884" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="72" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B884" s="72" t="s">
         <v>1296</v>
       </c>
       <c r="C884" s="73">
-        <v>3913</v>
+        <v>3429</v>
       </c>
       <c r="D884" s="74" t="s">
         <v>412</v>
       </c>
       <c r="E884" s="48">
-        <v>62.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="885" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="72" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B885" s="72" t="s">
         <v>1295</v>
       </c>
       <c r="C885" s="73">
-        <v>3872</v>
+        <v>3430</v>
       </c>
       <c r="D885" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E885" s="48">
-        <v>582</v>
+        <v>660</v>
       </c>
     </row>
     <row r="886" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="72" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B886" s="72" t="s">
         <v>1296</v>
       </c>
       <c r="C886" s="73">
-        <v>3422</v>
+        <v>3913</v>
       </c>
       <c r="D886" s="74" t="s">
         <v>412</v>
       </c>
       <c r="E886" s="48">
-        <v>18</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="887" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="72" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B887" s="72" t="s">
         <v>1295</v>
       </c>
       <c r="C887" s="73">
-        <v>3423</v>
+        <v>3872</v>
       </c>
       <c r="D887" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E887" s="48">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="888" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A888" s="83" t="s">
-        <v>485</v>
-      </c>
-      <c r="B888" s="83" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C888" s="84">
-        <v>3431</v>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A888" s="72" t="s">
+        <v>484</v>
+      </c>
+      <c r="B888" s="72" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C888" s="73">
+        <v>3422</v>
       </c>
       <c r="D888" s="74" t="s">
         <v>412</v>
       </c>
       <c r="E888" s="48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A889" s="72" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B889" s="72" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C889" s="73">
+        <v>3423</v>
+      </c>
+      <c r="D889" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E889" s="48">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A890" s="83" t="s">
+        <v>485</v>
+      </c>
+      <c r="B890" s="83" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C890" s="84">
+        <v>3431</v>
+      </c>
+      <c r="D890" s="74" t="s">
+        <v>412</v>
+      </c>
+      <c r="E890" s="48">
         <v>105</v>
       </c>
     </row>
-    <row r="889" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A889" s="90" t="s">
+    <row r="891" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A891" s="90" t="s">
         <v>485</v>
       </c>
-      <c r="B889" s="90" t="s">
+      <c r="B891" s="90" t="s">
         <v>1295</v>
       </c>
-      <c r="C889" s="91">
+      <c r="C891" s="91">
         <v>3432</v>
       </c>
-      <c r="D889" s="92" t="s">
+      <c r="D891" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="E889" s="48">
+      <c r="E891" s="48">
         <v>996</v>
       </c>
     </row>
-    <row r="890" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="891" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
     <row r="892" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
     <row r="893" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
     <row r="894" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
@@ -20242,8 +20277,10 @@
     <row r="896" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
     <row r="897" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
     <row r="898" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="900" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A900" s="64" t="s">
+    <row r="899" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="900" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="902" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A902" s="64" t="s">
         <v>386</v>
       </c>
     </row>
@@ -20252,26 +20289,26 @@
     <mergeCell ref="A599:E599"/>
     <mergeCell ref="A223:E223"/>
     <mergeCell ref="A137:E137"/>
-    <mergeCell ref="A874:E874"/>
+    <mergeCell ref="A876:E876"/>
     <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A745:E745"/>
-    <mergeCell ref="A746:E746"/>
+    <mergeCell ref="A747:E747"/>
+    <mergeCell ref="A748:E748"/>
     <mergeCell ref="A539:E539"/>
     <mergeCell ref="A563:E563"/>
     <mergeCell ref="A119:E119"/>
     <mergeCell ref="A388:E388"/>
     <mergeCell ref="A149:E149"/>
     <mergeCell ref="A224:E224"/>
-    <mergeCell ref="A771:E771"/>
-    <mergeCell ref="A726:E726"/>
+    <mergeCell ref="A773:E773"/>
+    <mergeCell ref="A728:E728"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A295:E295"/>
     <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A714:E714"/>
-    <mergeCell ref="A735:E735"/>
+    <mergeCell ref="A716:E716"/>
+    <mergeCell ref="A737:E737"/>
     <mergeCell ref="A148:E148"/>
     <mergeCell ref="A562:E562"/>
-    <mergeCell ref="A713:E713"/>
+    <mergeCell ref="A715:E715"/>
     <mergeCell ref="A296:E296"/>
     <mergeCell ref="A540:E540"/>
     <mergeCell ref="A8:E8"/>
@@ -20279,7 +20316,7 @@
     <mergeCell ref="A138:E138"/>
     <mergeCell ref="A428:E428"/>
     <mergeCell ref="A389:E389"/>
-    <mergeCell ref="A734:E734"/>
+    <mergeCell ref="A736:E736"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A3:E3"/>
@@ -20318,81 +20355,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="142"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="147" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="138"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="137"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="136" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="148" t="s">
         <v>488</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="138"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="137"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="136" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="138"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="137"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="142"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="138"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="137"/>
     </row>
     <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="146" t="s">
         <v>490</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="138"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="138"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="138"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="149" t="s">
@@ -22124,14 +22161,14 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="133"/>
-      <c r="B112" s="134"/>
-      <c r="C112" s="135"/>
-      <c r="D112" s="136"/>
+      <c r="A112" s="132"/>
+      <c r="B112" s="133"/>
+      <c r="C112" s="134"/>
+      <c r="D112" s="135"/>
       <c r="E112" s="25"/>
     </row>
     <row r="113" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="147" t="s">
+      <c r="A113" s="139" t="s">
         <v>86</v>
       </c>
       <c r="B113" s="115"/>
@@ -22429,14 +22466,14 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="133"/>
-      <c r="B131" s="134"/>
-      <c r="C131" s="135"/>
-      <c r="D131" s="136"/>
+      <c r="A131" s="132"/>
+      <c r="B131" s="133"/>
+      <c r="C131" s="134"/>
+      <c r="D131" s="135"/>
       <c r="E131" s="25"/>
     </row>
     <row r="132" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="147" t="s">
+      <c r="A132" s="139" t="s">
         <v>95</v>
       </c>
       <c r="B132" s="115"/>
@@ -22615,14 +22652,14 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="133"/>
-      <c r="B143" s="134"/>
-      <c r="C143" s="135"/>
-      <c r="D143" s="136"/>
+      <c r="A143" s="132"/>
+      <c r="B143" s="133"/>
+      <c r="C143" s="134"/>
+      <c r="D143" s="135"/>
       <c r="E143" s="25"/>
     </row>
     <row r="144" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="147" t="s">
+      <c r="A144" s="139" t="s">
         <v>106</v>
       </c>
       <c r="B144" s="115"/>
@@ -23260,14 +23297,14 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="133"/>
-      <c r="B182" s="134"/>
-      <c r="C182" s="135"/>
-      <c r="D182" s="136"/>
+      <c r="A182" s="132"/>
+      <c r="B182" s="133"/>
+      <c r="C182" s="134"/>
+      <c r="D182" s="135"/>
       <c r="E182" s="25"/>
     </row>
     <row r="183" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="132" t="s">
+      <c r="A183" s="138" t="s">
         <v>148</v>
       </c>
       <c r="B183" s="115"/>
@@ -24134,14 +24171,14 @@
       </c>
     </row>
     <row r="241" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="133"/>
-      <c r="B241" s="134"/>
-      <c r="C241" s="135"/>
-      <c r="D241" s="136"/>
+      <c r="A241" s="132"/>
+      <c r="B241" s="133"/>
+      <c r="C241" s="134"/>
+      <c r="D241" s="135"/>
       <c r="E241" s="25"/>
     </row>
     <row r="242" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="132" t="s">
+      <c r="A242" s="138" t="s">
         <v>186</v>
       </c>
       <c r="B242" s="115"/>
@@ -25367,16 +25404,16 @@
       </c>
     </row>
     <row r="324" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="133"/>
-      <c r="B324" s="134"/>
-      <c r="C324" s="135"/>
-      <c r="D324" s="136"/>
+      <c r="A324" s="132"/>
+      <c r="B324" s="133"/>
+      <c r="C324" s="134"/>
+      <c r="D324" s="135"/>
       <c r="E324" s="25"/>
       <c r="G324" s="30"/>
       <c r="H324" s="30"/>
     </row>
     <row r="325" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="132" t="s">
+      <c r="A325" s="138" t="s">
         <v>235</v>
       </c>
       <c r="B325" s="115"/>
@@ -25878,14 +25915,14 @@
       </c>
     </row>
     <row r="355" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="133"/>
-      <c r="B355" s="134"/>
-      <c r="C355" s="135"/>
-      <c r="D355" s="136"/>
+      <c r="A355" s="132"/>
+      <c r="B355" s="133"/>
+      <c r="C355" s="134"/>
+      <c r="D355" s="135"/>
       <c r="E355" s="25"/>
     </row>
     <row r="356" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="132" t="s">
+      <c r="A356" s="138" t="s">
         <v>261</v>
       </c>
       <c r="B356" s="115"/>
@@ -27645,14 +27682,14 @@
       </c>
     </row>
     <row r="460" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="133"/>
-      <c r="B460" s="134"/>
-      <c r="C460" s="135"/>
-      <c r="D460" s="136"/>
+      <c r="A460" s="132"/>
+      <c r="B460" s="133"/>
+      <c r="C460" s="134"/>
+      <c r="D460" s="135"/>
       <c r="E460" s="25"/>
     </row>
     <row r="461" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="132" t="s">
+      <c r="A461" s="138" t="s">
         <v>338</v>
       </c>
       <c r="B461" s="115"/>
@@ -27950,14 +27987,14 @@
       </c>
     </row>
     <row r="479" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="133"/>
-      <c r="B479" s="134"/>
-      <c r="C479" s="135"/>
-      <c r="D479" s="136"/>
+      <c r="A479" s="132"/>
+      <c r="B479" s="133"/>
+      <c r="C479" s="134"/>
+      <c r="D479" s="135"/>
       <c r="E479" s="25"/>
     </row>
     <row r="480" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="132" t="s">
+      <c r="A480" s="138" t="s">
         <v>353</v>
       </c>
       <c r="B480" s="115"/>
@@ -28391,14 +28428,14 @@
       </c>
     </row>
     <row r="506" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="133"/>
-      <c r="B506" s="134"/>
-      <c r="C506" s="135"/>
-      <c r="D506" s="136"/>
+      <c r="A506" s="132"/>
+      <c r="B506" s="133"/>
+      <c r="C506" s="134"/>
+      <c r="D506" s="135"/>
       <c r="E506" s="25"/>
     </row>
     <row r="507" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="132" t="s">
+      <c r="A507" s="138" t="s">
         <v>370</v>
       </c>
       <c r="B507" s="115"/>
@@ -29918,14 +29955,14 @@
       </c>
     </row>
     <row r="597" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="133"/>
-      <c r="B597" s="134"/>
-      <c r="C597" s="135"/>
-      <c r="D597" s="136"/>
+      <c r="A597" s="132"/>
+      <c r="B597" s="133"/>
+      <c r="C597" s="134"/>
+      <c r="D597" s="135"/>
       <c r="E597" s="25"/>
     </row>
     <row r="598" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="132" t="s">
+      <c r="A598" s="138" t="s">
         <v>420</v>
       </c>
       <c r="B598" s="115"/>
@@ -30070,15 +30107,15 @@
       </c>
     </row>
     <row r="607" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="133"/>
-      <c r="B607" s="134"/>
-      <c r="C607" s="135"/>
-      <c r="D607" s="136"/>
+      <c r="A607" s="132"/>
+      <c r="B607" s="133"/>
+      <c r="C607" s="134"/>
+      <c r="D607" s="135"/>
       <c r="E607" s="25"/>
       <c r="G607" s="29"/>
     </row>
     <row r="608" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="132" t="s">
+      <c r="A608" s="138" t="s">
         <v>421</v>
       </c>
       <c r="B608" s="115"/>
@@ -30172,14 +30209,14 @@
       </c>
     </row>
     <row r="614" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="133"/>
-      <c r="B614" s="134"/>
-      <c r="C614" s="135"/>
-      <c r="D614" s="136"/>
+      <c r="A614" s="132"/>
+      <c r="B614" s="133"/>
+      <c r="C614" s="134"/>
+      <c r="D614" s="135"/>
       <c r="E614" s="25"/>
     </row>
     <row r="615" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="132" t="s">
+      <c r="A615" s="138" t="s">
         <v>422</v>
       </c>
       <c r="B615" s="115"/>
@@ -31564,6 +31601,7 @@
     <mergeCell ref="A355:D355"/>
     <mergeCell ref="A607:D607"/>
     <mergeCell ref="A608:D608"/>
+    <mergeCell ref="A507:D507"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A460:D460"/>
     <mergeCell ref="A112:D112"/>
@@ -31578,7 +31616,6 @@
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A324:D324"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A507:D507"/>
     <mergeCell ref="A597:D597"/>
     <mergeCell ref="A506:D506"/>
     <mergeCell ref="A5:E5"/>

--- a/scripts/produtos.xlsx
+++ b/scripts/produtos.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ListProducts\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACDD040-E6BF-4CDF-8A4F-9658FFA3846B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4321F263-8C1B-4205-B2F0-74A971236010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="1125" windowWidth="21300" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE PRODUTOS B" sheetId="1" r:id="rId1"/>
     <sheet name="LISTA DE PRODUTOS T" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'LISTA DE PRODUTOS B'!$A$1:$E$897</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'LISTA DE PRODUTOS B'!$A$1:$E$896</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3992" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="1329">
   <si>
     <t xml:space="preserve">    Tabela de Produtos e Preços</t>
   </si>
@@ -5089,18 +5089,40 @@
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5111,11 +5133,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5127,31 +5158,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5166,11 +5172,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5191,19 +5200,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5512,10 +5512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R908"/>
+  <dimension ref="A1:R907"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A678" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F696" sqref="F696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5530,83 +5530,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="106"/>
     </row>
     <row r="2" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="127"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="127"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110"/>
     </row>
     <row r="4" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="127"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="127"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="127"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="110"/>
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="114"/>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
     </row>
     <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66" t="s">
@@ -7275,20 +7275,20 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="103"/>
-      <c r="B108" s="104"/>
-      <c r="C108" s="104"/>
-      <c r="D108" s="105"/>
-      <c r="E108" s="106"/>
+      <c r="A108" s="120"/>
+      <c r="B108" s="108"/>
+      <c r="C108" s="108"/>
+      <c r="D108" s="109"/>
+      <c r="E108" s="116"/>
     </row>
     <row r="109" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="111" t="s">
+      <c r="A109" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="B109" s="108"/>
-      <c r="C109" s="108"/>
-      <c r="D109" s="108"/>
-      <c r="E109" s="109"/>
+      <c r="B109" s="118"/>
+      <c r="C109" s="118"/>
+      <c r="D109" s="118"/>
+      <c r="E109" s="119"/>
     </row>
     <row r="110" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="66" t="s">
@@ -7491,7 +7491,7 @@
         <v>34</v>
       </c>
       <c r="E121" s="40">
-        <v>469</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7508,7 +7508,7 @@
         <v>20</v>
       </c>
       <c r="E122" s="40">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7580,20 +7580,20 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="103"/>
-      <c r="B127" s="104"/>
-      <c r="C127" s="104"/>
-      <c r="D127" s="105"/>
-      <c r="E127" s="106"/>
+      <c r="A127" s="120"/>
+      <c r="B127" s="108"/>
+      <c r="C127" s="108"/>
+      <c r="D127" s="109"/>
+      <c r="E127" s="116"/>
     </row>
     <row r="128" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="111" t="s">
+      <c r="A128" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="B128" s="108"/>
-      <c r="C128" s="108"/>
-      <c r="D128" s="108"/>
-      <c r="E128" s="109"/>
+      <c r="B128" s="118"/>
+      <c r="C128" s="118"/>
+      <c r="D128" s="118"/>
+      <c r="E128" s="119"/>
     </row>
     <row r="129" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="66" t="s">
@@ -7749,20 +7749,20 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="103"/>
-      <c r="B138" s="104"/>
-      <c r="C138" s="104"/>
-      <c r="D138" s="105"/>
-      <c r="E138" s="106"/>
+      <c r="A138" s="120"/>
+      <c r="B138" s="108"/>
+      <c r="C138" s="108"/>
+      <c r="D138" s="109"/>
+      <c r="E138" s="116"/>
     </row>
     <row r="139" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="112" t="s">
+      <c r="A139" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="B139" s="108"/>
-      <c r="C139" s="108"/>
-      <c r="D139" s="108"/>
-      <c r="E139" s="113"/>
+      <c r="B139" s="118"/>
+      <c r="C139" s="118"/>
+      <c r="D139" s="118"/>
+      <c r="E139" s="128"/>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="66" t="s">
@@ -9006,20 +9006,20 @@
       </c>
     </row>
     <row r="213" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="103"/>
-      <c r="B213" s="104"/>
-      <c r="C213" s="104"/>
-      <c r="D213" s="105"/>
-      <c r="E213" s="106"/>
+      <c r="A213" s="120"/>
+      <c r="B213" s="108"/>
+      <c r="C213" s="108"/>
+      <c r="D213" s="109"/>
+      <c r="E213" s="116"/>
     </row>
     <row r="214" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="111" t="s">
+      <c r="A214" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="B214" s="108"/>
-      <c r="C214" s="108"/>
-      <c r="D214" s="108"/>
-      <c r="E214" s="109"/>
+      <c r="B214" s="118"/>
+      <c r="C214" s="118"/>
+      <c r="D214" s="118"/>
+      <c r="E214" s="119"/>
     </row>
     <row r="215" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="66" t="s">
@@ -10210,20 +10210,20 @@
       </c>
     </row>
     <row r="285" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="110"/>
-      <c r="B285" s="104"/>
-      <c r="C285" s="104"/>
-      <c r="D285" s="105"/>
-      <c r="E285" s="106"/>
+      <c r="A285" s="115"/>
+      <c r="B285" s="108"/>
+      <c r="C285" s="108"/>
+      <c r="D285" s="109"/>
+      <c r="E285" s="116"/>
     </row>
     <row r="286" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="111" t="s">
+      <c r="A286" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="B286" s="108"/>
-      <c r="C286" s="108"/>
-      <c r="D286" s="108"/>
-      <c r="E286" s="109"/>
+      <c r="B286" s="118"/>
+      <c r="C286" s="118"/>
+      <c r="D286" s="118"/>
+      <c r="E286" s="119"/>
     </row>
     <row r="287" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="66" t="s">
@@ -11771,20 +11771,20 @@
       </c>
     </row>
     <row r="378" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="110"/>
-      <c r="B378" s="104"/>
-      <c r="C378" s="104"/>
-      <c r="D378" s="105"/>
-      <c r="E378" s="106"/>
+      <c r="A378" s="115"/>
+      <c r="B378" s="108"/>
+      <c r="C378" s="108"/>
+      <c r="D378" s="109"/>
+      <c r="E378" s="116"/>
     </row>
     <row r="379" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="107" t="s">
+      <c r="A379" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="B379" s="108"/>
-      <c r="C379" s="108"/>
-      <c r="D379" s="108"/>
-      <c r="E379" s="109"/>
+      <c r="B379" s="118"/>
+      <c r="C379" s="118"/>
+      <c r="D379" s="118"/>
+      <c r="E379" s="119"/>
     </row>
     <row r="380" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="66" t="s">
@@ -12438,13 +12438,13 @@
       <c r="E418" s="61"/>
     </row>
     <row r="419" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="107" t="s">
+      <c r="A419" s="117" t="s">
         <v>1304</v>
       </c>
-      <c r="B419" s="108"/>
-      <c r="C419" s="108"/>
-      <c r="D419" s="108"/>
-      <c r="E419" s="109"/>
+      <c r="B419" s="118"/>
+      <c r="C419" s="118"/>
+      <c r="D419" s="118"/>
+      <c r="E419" s="119"/>
     </row>
     <row r="420" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="66" t="s">
@@ -14313,20 +14313,20 @@
       </c>
     </row>
     <row r="530" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="110"/>
-      <c r="B530" s="104"/>
-      <c r="C530" s="104"/>
-      <c r="D530" s="105"/>
-      <c r="E530" s="106"/>
+      <c r="A530" s="115"/>
+      <c r="B530" s="108"/>
+      <c r="C530" s="108"/>
+      <c r="D530" s="109"/>
+      <c r="E530" s="116"/>
     </row>
     <row r="531" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="107" t="s">
+      <c r="A531" s="117" t="s">
         <v>338</v>
       </c>
-      <c r="B531" s="108"/>
-      <c r="C531" s="108"/>
-      <c r="D531" s="108"/>
-      <c r="E531" s="109"/>
+      <c r="B531" s="118"/>
+      <c r="C531" s="118"/>
+      <c r="D531" s="118"/>
+      <c r="E531" s="119"/>
     </row>
     <row r="532" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="66" t="s">
@@ -14684,20 +14684,20 @@
       </c>
     </row>
     <row r="553" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="110"/>
-      <c r="B553" s="104"/>
-      <c r="C553" s="104"/>
-      <c r="D553" s="105"/>
-      <c r="E553" s="106"/>
+      <c r="A553" s="115"/>
+      <c r="B553" s="108"/>
+      <c r="C553" s="108"/>
+      <c r="D553" s="109"/>
+      <c r="E553" s="116"/>
     </row>
     <row r="554" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="107" t="s">
+      <c r="A554" s="117" t="s">
         <v>353</v>
       </c>
-      <c r="B554" s="108"/>
-      <c r="C554" s="108"/>
-      <c r="D554" s="108"/>
-      <c r="E554" s="109"/>
+      <c r="B554" s="118"/>
+      <c r="C554" s="118"/>
+      <c r="D554" s="118"/>
+      <c r="E554" s="119"/>
     </row>
     <row r="555" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="66" t="s">
@@ -14906,16 +14906,16 @@
         <v>359</v>
       </c>
       <c r="B567" s="69" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C567" s="70">
-        <v>3473</v>
+        <v>38</v>
       </c>
       <c r="D567" s="69" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E567" s="40">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="568" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -14923,33 +14923,33 @@
         <v>359</v>
       </c>
       <c r="B568" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C568" s="70">
+        <v>2479</v>
+      </c>
+      <c r="D568" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E568" s="40">
         <v>22</v>
-      </c>
-      <c r="C568" s="70">
-        <v>38</v>
-      </c>
-      <c r="D568" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="E568" s="40">
-        <v>165.5</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="69" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B569" s="69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C569" s="70">
-        <v>2479</v>
+        <v>105</v>
       </c>
       <c r="D569" s="69" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E569" s="40">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -14957,33 +14957,33 @@
         <v>360</v>
       </c>
       <c r="B570" s="69" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="C570" s="70">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="D570" s="69" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E570" s="40">
-        <v>67</v>
+        <v>201</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="B571" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="C571" s="70">
-        <v>212</v>
-      </c>
-      <c r="D571" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="E571" s="40">
-        <v>201</v>
+      <c r="A571" s="72" t="s">
+        <v>361</v>
+      </c>
+      <c r="B571" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C571" s="73">
+        <v>2848</v>
+      </c>
+      <c r="D571" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E571" s="50">
+        <v>615</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -14991,33 +14991,33 @@
         <v>361</v>
       </c>
       <c r="B572" s="72" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C572" s="73">
-        <v>2848</v>
+        <v>2851</v>
       </c>
       <c r="D572" s="72" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E572" s="50">
-        <v>615</v>
+        <v>125</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="72" t="s">
-        <v>361</v>
+        <v>1152</v>
       </c>
       <c r="B573" s="72" t="s">
-        <v>19</v>
+        <v>1151</v>
       </c>
       <c r="C573" s="73">
-        <v>2851</v>
+        <v>4202</v>
       </c>
       <c r="D573" s="72" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E573" s="50">
-        <v>125</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15025,67 +15025,67 @@
         <v>1152</v>
       </c>
       <c r="B574" s="72" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C574" s="73">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="D574" s="72" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E574" s="50">
-        <v>147.5</v>
+        <v>295</v>
       </c>
     </row>
     <row r="575" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="72" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B575" s="72" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C575" s="73">
-        <v>4201</v>
-      </c>
-      <c r="D575" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E575" s="50">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="B575" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C575" s="70">
+        <v>653</v>
+      </c>
+      <c r="D575" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E575" s="40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="69" t="s">
         <v>362</v>
       </c>
       <c r="B576" s="69" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C576" s="70">
-        <v>653</v>
+        <v>2484</v>
       </c>
       <c r="D576" s="69" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E576" s="40">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="69" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B577" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C577" s="70">
-        <v>2484</v>
+        <v>2716</v>
       </c>
       <c r="D577" s="69" t="s">
         <v>84</v>
       </c>
       <c r="E577" s="40">
-        <v>18</v>
+        <v>295</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15093,33 +15093,33 @@
         <v>363</v>
       </c>
       <c r="B578" s="69" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C578" s="70">
-        <v>2716</v>
+        <v>2478</v>
       </c>
       <c r="D578" s="69" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E578" s="40">
-        <v>295</v>
+        <v>67</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="B579" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C579" s="70">
-        <v>2478</v>
-      </c>
-      <c r="D579" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="E579" s="40">
-        <v>67</v>
+      <c r="A579" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="B579" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C579" s="73">
+        <v>2606</v>
+      </c>
+      <c r="D579" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E579" s="50">
+        <v>450</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15127,16 +15127,16 @@
         <v>364</v>
       </c>
       <c r="B580" s="72" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="C580" s="73">
-        <v>2606</v>
+        <v>2338</v>
       </c>
       <c r="D580" s="72" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E580" s="50">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15144,200 +15144,200 @@
         <v>364</v>
       </c>
       <c r="B581" s="72" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C581" s="73">
-        <v>2338</v>
+        <v>2425</v>
       </c>
       <c r="D581" s="72" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E581" s="50">
-        <v>600</v>
+        <v>91</v>
       </c>
     </row>
     <row r="582" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="72" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B582" s="72" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C582" s="73">
-        <v>2425</v>
+        <v>2579</v>
       </c>
       <c r="D582" s="72" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E582" s="50">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="72" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B583" s="72" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C583" s="73">
-        <v>2579</v>
+        <v>2243</v>
       </c>
       <c r="D583" s="72" t="s">
         <v>84</v>
       </c>
       <c r="E583" s="50">
-        <v>102</v>
+        <v>500</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="B584" s="72" t="s">
+      <c r="A584" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="B584" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C584" s="73">
-        <v>2243</v>
-      </c>
-      <c r="D584" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="E584" s="50">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="585" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C584" s="70">
+        <v>4400</v>
+      </c>
+      <c r="D584" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E584" s="40">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="69" t="s">
         <v>367</v>
       </c>
       <c r="B585" s="69" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C585" s="70">
-        <v>4400</v>
+        <v>2676</v>
       </c>
       <c r="D585" s="69" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E585" s="40">
-        <v>900</v>
+        <v>182</v>
       </c>
     </row>
     <row r="586" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="69" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B586" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C586" s="70">
+        <v>571</v>
+      </c>
+      <c r="D586" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E586" s="40">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="75" t="s">
+        <v>368</v>
+      </c>
+      <c r="B587" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C586" s="70">
-        <v>2676</v>
-      </c>
-      <c r="D586" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="E586" s="40">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="587" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="B587" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C587" s="70">
-        <v>571</v>
-      </c>
-      <c r="D587" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="E587" s="40">
-        <v>525</v>
+      <c r="C587" s="76">
+        <v>2245</v>
+      </c>
+      <c r="D587" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E587" s="44">
+        <v>107</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="B588" s="75" t="s">
+      <c r="A588" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="B588" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C588" s="81">
+        <v>3754</v>
+      </c>
+      <c r="D588" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E588" s="42">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="125"/>
+      <c r="B589" s="126"/>
+      <c r="C589" s="126"/>
+      <c r="D589" s="126"/>
+      <c r="E589" s="126"/>
+    </row>
+    <row r="590" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="117" t="s">
+        <v>370</v>
+      </c>
+      <c r="B590" s="118"/>
+      <c r="C590" s="118"/>
+      <c r="D590" s="118"/>
+      <c r="E590" s="119"/>
+    </row>
+    <row r="591" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B591" s="66"/>
+      <c r="C591" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D591" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E591" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="82" t="s">
+        <v>371</v>
+      </c>
+      <c r="B592" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C588" s="76">
-        <v>2245</v>
-      </c>
-      <c r="D588" s="75" t="s">
+      <c r="C592" s="82">
+        <v>4336</v>
+      </c>
+      <c r="D592" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E592" s="43">
+        <v>329.5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="B593" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C593" s="70">
+        <v>2618</v>
+      </c>
+      <c r="D593" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="E588" s="44">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="589" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="B589" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="C589" s="81">
-        <v>3754</v>
-      </c>
-      <c r="D589" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="E589" s="42">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="590" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="101"/>
-      <c r="B590" s="102"/>
-      <c r="C590" s="102"/>
-      <c r="D590" s="102"/>
-      <c r="E590" s="102"/>
-    </row>
-    <row r="591" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="107" t="s">
-        <v>370</v>
-      </c>
-      <c r="B591" s="108"/>
-      <c r="C591" s="108"/>
-      <c r="D591" s="108"/>
-      <c r="E591" s="109"/>
-    </row>
-    <row r="592" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B592" s="66"/>
-      <c r="C592" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D592" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E592" s="46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="593" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="82" t="s">
-        <v>371</v>
-      </c>
-      <c r="B593" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="C593" s="82">
-        <v>4336</v>
-      </c>
-      <c r="D593" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="E593" s="43">
-        <v>329.5</v>
+      <c r="E593" s="40">
+        <v>245</v>
       </c>
     </row>
     <row r="594" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15345,33 +15345,33 @@
         <v>372</v>
       </c>
       <c r="B594" s="69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C594" s="70">
-        <v>2618</v>
+        <v>2398</v>
       </c>
       <c r="D594" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E594" s="40">
-        <v>245</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="69" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B595" s="69" t="s">
-        <v>19</v>
+        <v>1156</v>
       </c>
       <c r="C595" s="70">
-        <v>2398</v>
+        <v>2297</v>
       </c>
       <c r="D595" s="69" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E595" s="40">
-        <v>124.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15379,16 +15379,16 @@
         <v>373</v>
       </c>
       <c r="B596" s="69" t="s">
-        <v>1156</v>
+        <v>19</v>
       </c>
       <c r="C596" s="70">
-        <v>2297</v>
+        <v>3653</v>
       </c>
       <c r="D596" s="69" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E596" s="40">
-        <v>77.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="597" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15396,33 +15396,33 @@
         <v>373</v>
       </c>
       <c r="B597" s="69" t="s">
-        <v>19</v>
+        <v>1177</v>
       </c>
       <c r="C597" s="70">
-        <v>3653</v>
+        <v>2339</v>
       </c>
       <c r="D597" s="69" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E597" s="40">
-        <v>29</v>
+        <v>173</v>
       </c>
     </row>
     <row r="598" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="69" t="s">
-        <v>373</v>
+        <v>1153</v>
       </c>
       <c r="B598" s="69" t="s">
-        <v>1177</v>
+        <v>1132</v>
       </c>
       <c r="C598" s="70">
-        <v>2339</v>
+        <v>2223</v>
       </c>
       <c r="D598" s="69" t="s">
         <v>160</v>
       </c>
       <c r="E598" s="40">
-        <v>173</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="599" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15430,81 +15430,81 @@
         <v>1153</v>
       </c>
       <c r="B599" s="69" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="C599" s="70">
-        <v>2223</v>
+        <v>3707</v>
       </c>
       <c r="D599" s="69" t="s">
         <v>160</v>
       </c>
       <c r="E599" s="40">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="600" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="69" t="s">
         <v>1153</v>
       </c>
       <c r="B600" s="69" t="s">
-        <v>1139</v>
+        <v>33</v>
       </c>
       <c r="C600" s="70">
-        <v>3707</v>
+        <v>4090</v>
       </c>
       <c r="D600" s="69" t="s">
         <v>160</v>
       </c>
       <c r="E600" s="40">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="601" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="69" t="s">
-        <v>1153</v>
+        <v>374</v>
       </c>
       <c r="B601" s="69" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C601" s="70">
-        <v>4090</v>
+        <v>4279</v>
       </c>
       <c r="D601" s="69" t="s">
         <v>160</v>
       </c>
       <c r="E601" s="40">
-        <v>141.5</v>
+        <v>295</v>
       </c>
     </row>
     <row r="602" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="69" t="s">
-        <v>374</v>
+        <v>1309</v>
       </c>
       <c r="B602" s="69" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C602" s="70">
-        <v>4279</v>
+        <v>2259</v>
       </c>
       <c r="D602" s="69" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E602" s="40">
-        <v>295</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="603" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="69" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B603" s="69" t="s">
         <v>110</v>
       </c>
       <c r="C603" s="70">
-        <v>2259</v>
+        <v>3540</v>
       </c>
       <c r="D603" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E603" s="40">
         <v>15.5</v>
@@ -15512,64 +15512,64 @@
     </row>
     <row r="604" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="69" t="s">
-        <v>1308</v>
+        <v>375</v>
       </c>
       <c r="B604" s="69" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C604" s="70">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="D604" s="69" t="s">
         <v>34</v>
       </c>
       <c r="E604" s="40">
-        <v>15.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="605" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="69" t="s">
-        <v>375</v>
+        <v>1307</v>
       </c>
       <c r="B605" s="69" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C605" s="70">
-        <v>3541</v>
+        <v>2422</v>
       </c>
       <c r="D605" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E605" s="40">
-        <v>120</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="606" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="69" t="s">
-        <v>1307</v>
+        <v>376</v>
       </c>
       <c r="B606" s="69" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C606" s="70">
-        <v>2422</v>
+        <v>569</v>
       </c>
       <c r="D606" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E606" s="40">
-        <v>15.5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="69" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B607" s="69" t="s">
         <v>33</v>
       </c>
       <c r="C607" s="70">
-        <v>569</v>
+        <v>282</v>
       </c>
       <c r="D607" s="69" t="s">
         <v>34</v>
@@ -15580,19 +15580,19 @@
     </row>
     <row r="608" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="69" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B608" s="69" t="s">
         <v>33</v>
       </c>
       <c r="C608" s="70">
-        <v>282</v>
+        <v>2336</v>
       </c>
       <c r="D608" s="69" t="s">
         <v>34</v>
       </c>
       <c r="E608" s="40">
-        <v>118</v>
+        <v>750</v>
       </c>
     </row>
     <row r="609" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15600,118 +15600,118 @@
         <v>378</v>
       </c>
       <c r="B609" s="69" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C609" s="70">
-        <v>2336</v>
+        <v>2421</v>
       </c>
       <c r="D609" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E609" s="40">
-        <v>750</v>
+        <v>91</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="69" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B610" s="69" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="C610" s="70">
-        <v>2421</v>
+        <v>2568</v>
       </c>
       <c r="D610" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E610" s="40">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="611" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="69" t="s">
         <v>379</v>
       </c>
       <c r="B611" s="69" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="C611" s="70">
-        <v>2568</v>
+        <v>3009</v>
       </c>
       <c r="D611" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E611" s="40">
-        <v>260</v>
+        <v>78</v>
       </c>
     </row>
     <row r="612" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="69" t="s">
-        <v>379</v>
+        <v>1322</v>
       </c>
       <c r="B612" s="69" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C612" s="70">
-        <v>3009</v>
+        <v>3106</v>
       </c>
       <c r="D612" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E612" s="40">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="613" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="69" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B613" s="69" t="s">
         <v>19</v>
       </c>
       <c r="C613" s="70">
-        <v>3106</v>
+        <v>2778</v>
       </c>
       <c r="D613" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E613" s="40">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A614" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="B614" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C614" s="73">
+        <v>3489</v>
+      </c>
+      <c r="D614" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E613" s="40">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="614" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="69" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B614" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C614" s="70">
-        <v>2778</v>
-      </c>
-      <c r="D614" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="E614" s="40">
-        <v>260</v>
+      <c r="E614" s="50">
+        <v>700</v>
       </c>
     </row>
     <row r="615" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A615" s="72" t="s">
+      <c r="A615" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="B615" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C615" s="73">
-        <v>3489</v>
-      </c>
-      <c r="D615" s="72" t="s">
+      <c r="B615" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C615" s="70">
+        <v>3696</v>
+      </c>
+      <c r="D615" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="E615" s="50">
-        <v>700</v>
+      <c r="E615" s="40">
+        <v>280</v>
       </c>
     </row>
     <row r="616" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15719,16 +15719,14 @@
         <v>380</v>
       </c>
       <c r="B616" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C616" s="70">
-        <v>3696</v>
-      </c>
+        <v>1135</v>
+      </c>
+      <c r="C616" s="70"/>
       <c r="D616" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E616" s="40">
-        <v>280</v>
+        <v>142</v>
       </c>
     </row>
     <row r="617" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15736,48 +15734,50 @@
         <v>380</v>
       </c>
       <c r="B617" s="69" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C617" s="70"/>
+        <v>1154</v>
+      </c>
+      <c r="C617" s="70">
+        <v>3755</v>
+      </c>
       <c r="D617" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E617" s="40">
-        <v>142</v>
+        <v>85</v>
       </c>
     </row>
     <row r="618" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="69" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B618" s="69" t="s">
-        <v>1154</v>
+        <v>18</v>
       </c>
       <c r="C618" s="70">
-        <v>3755</v>
+        <v>3486</v>
       </c>
       <c r="D618" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E618" s="40">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="619" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="69" t="s">
         <v>382</v>
       </c>
       <c r="B619" s="69" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="C619" s="70">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D619" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E619" s="40">
-        <v>540</v>
+        <v>163</v>
       </c>
     </row>
     <row r="620" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15785,84 +15785,84 @@
         <v>382</v>
       </c>
       <c r="B620" s="69" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C620" s="70">
-        <v>3487</v>
+        <v>4488</v>
       </c>
       <c r="D620" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E620" s="40">
-        <v>163</v>
+        <v>272</v>
       </c>
     </row>
     <row r="621" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="69" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B621" s="69" t="s">
         <v>19</v>
       </c>
       <c r="C621" s="70">
-        <v>4488</v>
+        <v>4333</v>
       </c>
       <c r="D621" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E621" s="40">
-        <v>272</v>
+        <v>259.5</v>
       </c>
     </row>
     <row r="622" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="69" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B622" s="69" t="s">
         <v>19</v>
       </c>
       <c r="C622" s="70">
-        <v>4333</v>
+        <v>4388</v>
       </c>
       <c r="D622" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E622" s="40">
-        <v>259.5</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="623" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="69" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B623" s="69" t="s">
         <v>19</v>
       </c>
       <c r="C623" s="70">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="D623" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E623" s="40">
-        <v>131.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="624" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="69" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B624" s="69" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C624" s="70">
-        <v>4389</v>
+        <v>3488</v>
       </c>
       <c r="D624" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E624" s="40">
-        <v>102</v>
+        <v>220</v>
       </c>
     </row>
     <row r="625" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15870,33 +15870,33 @@
         <v>387</v>
       </c>
       <c r="B625" s="69" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C625" s="70">
-        <v>3488</v>
+        <v>3400</v>
       </c>
       <c r="D625" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E625" s="40">
-        <v>220</v>
+        <v>57</v>
       </c>
     </row>
     <row r="626" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="69" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B626" s="69" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C626" s="70">
-        <v>3400</v>
+        <v>2257</v>
       </c>
       <c r="D626" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E626" s="40">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="627" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15904,44 +15904,44 @@
         <v>388</v>
       </c>
       <c r="B627" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C627" s="70">
+        <v>565</v>
+      </c>
+      <c r="D627" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E627" s="40">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A628" s="72" t="s">
+        <v>389</v>
+      </c>
+      <c r="B628" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="C627" s="70">
-        <v>2257</v>
-      </c>
-      <c r="D627" s="69" t="s">
+      <c r="C628" s="73">
+        <v>4474</v>
+      </c>
+      <c r="D628" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E627" s="40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="628" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A628" s="69" t="s">
-        <v>388</v>
-      </c>
-      <c r="B628" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C628" s="70">
-        <v>565</v>
-      </c>
-      <c r="D628" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E628" s="40">
-        <v>123</v>
+      <c r="E628" s="50">
+        <v>39</v>
       </c>
     </row>
     <row r="629" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="72" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B629" s="72" t="s">
         <v>110</v>
       </c>
       <c r="C629" s="73">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="D629" s="72" t="s">
         <v>20</v>
@@ -15952,13 +15952,13 @@
     </row>
     <row r="630" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="72" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B630" s="72" t="s">
         <v>110</v>
       </c>
       <c r="C630" s="73">
-        <v>4473</v>
+        <v>2658</v>
       </c>
       <c r="D630" s="72" t="s">
         <v>20</v>
@@ -15969,13 +15969,13 @@
     </row>
     <row r="631" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="72" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B631" s="72" t="s">
         <v>110</v>
       </c>
       <c r="C631" s="73">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D631" s="72" t="s">
         <v>20</v>
@@ -15986,30 +15986,30 @@
     </row>
     <row r="632" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="72" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B632" s="72" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C632" s="73">
         <v>2657</v>
       </c>
       <c r="D632" s="72" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E632" s="50">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="633" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="72" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B633" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C633" s="73">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="D633" s="72" t="s">
         <v>49</v>
@@ -16017,42 +16017,42 @@
       <c r="E633" s="50">
         <v>65</v>
       </c>
+      <c r="F633" s="1" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="634" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A634" s="72" t="s">
-        <v>391</v>
-      </c>
-      <c r="B634" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C634" s="73">
-        <v>2658</v>
-      </c>
-      <c r="D634" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="E634" s="50">
-        <v>65</v>
-      </c>
-      <c r="F634" s="1" t="s">
-        <v>386</v>
+      <c r="A634" s="69" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B634" s="69" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C634" s="70">
+        <v>3537</v>
+      </c>
+      <c r="D634" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E634" s="40">
+        <v>162</v>
       </c>
     </row>
     <row r="635" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="69" t="s">
-        <v>1155</v>
+        <v>394</v>
       </c>
       <c r="B635" s="69" t="s">
-        <v>1156</v>
+        <v>18</v>
       </c>
       <c r="C635" s="70">
-        <v>3537</v>
+        <v>2732</v>
       </c>
       <c r="D635" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E635" s="40">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="636" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16060,33 +16060,33 @@
         <v>394</v>
       </c>
       <c r="B636" s="69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C636" s="70">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="D636" s="69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E636" s="40">
-        <v>175</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="637" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="69" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B637" s="69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C637" s="70">
-        <v>2733</v>
+        <v>2584</v>
       </c>
       <c r="D637" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E637" s="40">
-        <v>87.5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="638" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16094,33 +16094,33 @@
         <v>395</v>
       </c>
       <c r="B638" s="69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C638" s="70">
-        <v>2584</v>
+        <v>2677</v>
       </c>
       <c r="D638" s="69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E638" s="40">
-        <v>205</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="639" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="69" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B639" s="69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C639" s="70">
-        <v>2677</v>
+        <v>2495</v>
       </c>
       <c r="D639" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E639" s="40">
-        <v>104.5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="640" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16128,50 +16128,50 @@
         <v>396</v>
       </c>
       <c r="B640" s="69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C640" s="70">
-        <v>2495</v>
+        <v>2678</v>
       </c>
       <c r="D640" s="69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E640" s="40">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="641" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="69" t="s">
-        <v>396</v>
+        <v>1157</v>
       </c>
       <c r="B641" s="69" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C641" s="70">
+        <v>4498</v>
+      </c>
+      <c r="D641" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E641" s="40">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A642" s="69" t="s">
+        <v>397</v>
+      </c>
+      <c r="B642" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C641" s="70">
-        <v>2678</v>
-      </c>
-      <c r="D641" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="E641" s="40">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="642" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A642" s="69" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B642" s="69" t="s">
-        <v>1132</v>
-      </c>
       <c r="C642" s="70">
-        <v>4498</v>
+        <v>4253</v>
       </c>
       <c r="D642" s="69" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E642" s="40">
-        <v>240</v>
+        <v>112</v>
       </c>
     </row>
     <row r="643" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16179,16 +16179,16 @@
         <v>397</v>
       </c>
       <c r="B643" s="69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C643" s="70">
-        <v>4253</v>
+        <v>4500</v>
       </c>
       <c r="D643" s="69" t="s">
         <v>160</v>
       </c>
       <c r="E643" s="40">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="644" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16196,16 +16196,16 @@
         <v>397</v>
       </c>
       <c r="B644" s="69" t="s">
-        <v>18</v>
+        <v>1158</v>
       </c>
       <c r="C644" s="70">
-        <v>4500</v>
+        <v>4249</v>
       </c>
       <c r="D644" s="69" t="s">
         <v>160</v>
       </c>
       <c r="E644" s="40">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="645" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16213,186 +16213,186 @@
         <v>397</v>
       </c>
       <c r="B645" s="69" t="s">
-        <v>1158</v>
+        <v>1132</v>
       </c>
       <c r="C645" s="70">
-        <v>4249</v>
+        <v>3724</v>
       </c>
       <c r="D645" s="69" t="s">
         <v>160</v>
       </c>
       <c r="E645" s="40">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="646" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="69" t="s">
-        <v>397</v>
+        <v>1159</v>
       </c>
       <c r="B646" s="69" t="s">
-        <v>1132</v>
+        <v>1156</v>
       </c>
       <c r="C646" s="70">
-        <v>3724</v>
+        <v>3736</v>
       </c>
       <c r="D646" s="69" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="E646" s="40">
-        <v>224</v>
+        <v>162</v>
       </c>
     </row>
     <row r="647" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="69" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B647" s="69" t="s">
-        <v>1156</v>
+        <v>1132</v>
       </c>
       <c r="C647" s="70">
-        <v>3736</v>
+        <v>4499</v>
       </c>
       <c r="D647" s="69" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="E647" s="40">
-        <v>162</v>
+        <v>240</v>
       </c>
     </row>
     <row r="648" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="69" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B648" s="69" t="s">
-        <v>1132</v>
+        <v>1156</v>
       </c>
       <c r="C648" s="70">
-        <v>4499</v>
+        <v>3536</v>
       </c>
       <c r="D648" s="69" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="E648" s="40">
-        <v>240</v>
+        <v>162</v>
       </c>
     </row>
     <row r="649" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="69" t="s">
-        <v>1161</v>
+        <v>398</v>
       </c>
       <c r="B649" s="69" t="s">
-        <v>1156</v>
+        <v>18</v>
       </c>
       <c r="C649" s="70">
-        <v>3536</v>
+        <v>2494</v>
       </c>
       <c r="D649" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E649" s="40">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="650" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A650" s="69" t="s">
+      <c r="A650" s="72" t="s">
         <v>398</v>
       </c>
-      <c r="B650" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C650" s="70">
-        <v>2494</v>
-      </c>
-      <c r="D650" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E650" s="40">
-        <v>170</v>
+      <c r="B650" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C650" s="73">
+        <v>2679</v>
+      </c>
+      <c r="D650" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E650" s="50">
+        <v>87</v>
       </c>
     </row>
     <row r="651" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="72" t="s">
-        <v>398</v>
+        <v>1162</v>
       </c>
       <c r="B651" s="72" t="s">
-        <v>19</v>
+        <v>1132</v>
       </c>
       <c r="C651" s="73">
-        <v>2679</v>
+        <v>4497</v>
       </c>
       <c r="D651" s="72" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="E651" s="50">
-        <v>87</v>
+        <v>240</v>
       </c>
     </row>
     <row r="652" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A652" s="72" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B652" s="72" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C652" s="73">
-        <v>4497</v>
-      </c>
-      <c r="D652" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="E652" s="50">
-        <v>240</v>
+      <c r="A652" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="B652" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C652" s="70">
+        <v>2493</v>
+      </c>
+      <c r="D652" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E652" s="40">
+        <v>170</v>
       </c>
     </row>
     <row r="653" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="69" t="s">
-        <v>399</v>
+        <v>1163</v>
       </c>
       <c r="B653" s="69" t="s">
-        <v>18</v>
+        <v>1156</v>
       </c>
       <c r="C653" s="70">
-        <v>2493</v>
+        <v>3535</v>
       </c>
       <c r="D653" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E653" s="40">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="654" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="69" t="s">
-        <v>1163</v>
+        <v>399</v>
       </c>
       <c r="B654" s="69" t="s">
-        <v>1156</v>
+        <v>19</v>
       </c>
       <c r="C654" s="70">
-        <v>3535</v>
+        <v>2498</v>
       </c>
       <c r="D654" s="69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E654" s="40">
-        <v>162</v>
+        <v>87</v>
       </c>
     </row>
     <row r="655" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="69" t="s">
-        <v>399</v>
-      </c>
-      <c r="B655" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C655" s="70">
-        <v>2498</v>
-      </c>
-      <c r="D655" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="E655" s="40">
-        <v>87</v>
+      <c r="A655" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="B655" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C655" s="73">
+        <v>2806</v>
+      </c>
+      <c r="D655" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="E655" s="48">
+        <v>472</v>
       </c>
     </row>
     <row r="656" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16400,33 +16400,33 @@
         <v>462</v>
       </c>
       <c r="B656" s="72" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="C656" s="73">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="D656" s="74" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="E656" s="48">
-        <v>472</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="657" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="72" t="s">
-        <v>462</v>
+        <v>1323</v>
       </c>
       <c r="B657" s="72" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C657" s="73">
-        <v>2807</v>
+        <v>4556</v>
       </c>
       <c r="D657" s="74" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E657" s="48">
-        <v>159.5</v>
+        <v>900</v>
       </c>
     </row>
     <row r="658" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16434,33 +16434,33 @@
         <v>1323</v>
       </c>
       <c r="B658" s="72" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C658" s="73">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="D658" s="74" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E658" s="48">
-        <v>900</v>
+        <v>182</v>
       </c>
     </row>
     <row r="659" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="72" t="s">
-        <v>1323</v>
+        <v>400</v>
       </c>
       <c r="B659" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C659" s="73">
-        <v>4557</v>
-      </c>
-      <c r="D659" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E659" s="48">
-        <v>182</v>
+        <v>4018</v>
+      </c>
+      <c r="D659" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E659" s="50">
+        <v>230</v>
       </c>
     </row>
     <row r="660" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16468,33 +16468,33 @@
         <v>400</v>
       </c>
       <c r="B660" s="72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C660" s="73">
-        <v>4018</v>
+        <v>2652</v>
       </c>
       <c r="D660" s="72" t="s">
         <v>49</v>
       </c>
       <c r="E660" s="50">
-        <v>230</v>
+        <v>117</v>
       </c>
     </row>
     <row r="661" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="72" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="B661" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C661" s="73">
-        <v>2652</v>
-      </c>
-      <c r="D661" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="E661" s="50">
-        <v>117</v>
+        <v>4049</v>
+      </c>
+      <c r="D661" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E661" s="48">
+        <v>210</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16502,67 +16502,67 @@
         <v>458</v>
       </c>
       <c r="B662" s="72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C662" s="73">
-        <v>4049</v>
+        <v>3737</v>
       </c>
       <c r="D662" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E662" s="48">
-        <v>210</v>
+        <v>107</v>
       </c>
     </row>
     <row r="663" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A663" s="72" t="s">
-        <v>458</v>
-      </c>
-      <c r="B663" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C663" s="73">
-        <v>3737</v>
-      </c>
-      <c r="D663" s="74" t="s">
+      <c r="A663" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="B663" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C663" s="70">
+        <v>4301</v>
+      </c>
+      <c r="D663" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E663" s="48">
-        <v>107</v>
+      <c r="E663" s="40">
+        <v>235</v>
       </c>
     </row>
     <row r="664" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="69" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B664" s="69" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C664" s="70">
-        <v>4301</v>
+        <v>4334</v>
       </c>
       <c r="D664" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E664" s="40">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="665" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376.5</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="69" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B665" s="69" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C665" s="70">
-        <v>4334</v>
+        <v>195</v>
       </c>
       <c r="D665" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E665" s="40">
-        <v>376.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="666" spans="1:5" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16570,33 +16570,33 @@
         <v>403</v>
       </c>
       <c r="B666" s="69" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C666" s="70">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="D666" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E666" s="40">
-        <v>285</v>
+        <v>59</v>
       </c>
     </row>
     <row r="667" spans="1:5" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B667" s="69" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C667" s="70">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D667" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E667" s="40">
-        <v>59</v>
+        <v>220</v>
       </c>
     </row>
     <row r="668" spans="1:5" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16604,33 +16604,33 @@
         <v>404</v>
       </c>
       <c r="B668" s="69" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C668" s="70">
-        <v>63</v>
+        <v>2483</v>
       </c>
       <c r="D668" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E668" s="40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A669" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="B669" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C669" s="70">
+        <v>2974</v>
+      </c>
+      <c r="D669" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="E668" s="40">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="669" spans="1:5" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A669" s="69" t="s">
-        <v>404</v>
-      </c>
-      <c r="B669" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C669" s="70">
-        <v>2483</v>
-      </c>
-      <c r="D669" s="69" t="s">
-        <v>20</v>
-      </c>
       <c r="E669" s="40">
-        <v>46</v>
+        <v>250</v>
       </c>
     </row>
     <row r="670" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16638,44 +16638,44 @@
         <v>405</v>
       </c>
       <c r="B670" s="69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C670" s="70">
-        <v>2974</v>
+        <v>2831</v>
       </c>
       <c r="D670" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E670" s="40">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="671" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B671" s="69" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C671" s="70">
-        <v>2831</v>
+        <v>4137</v>
       </c>
       <c r="D671" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E671" s="40">
-        <v>127</v>
+        <v>270</v>
       </c>
     </row>
     <row r="672" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="69" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B672" s="69" t="s">
         <v>110</v>
       </c>
       <c r="C672" s="70">
-        <v>4137</v>
+        <v>4380</v>
       </c>
       <c r="D672" s="69" t="s">
         <v>20</v>
@@ -16684,21 +16684,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="673" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="69" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B673" s="69" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="C673" s="70">
-        <v>4380</v>
+        <v>4204</v>
       </c>
       <c r="D673" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E673" s="40">
-        <v>270</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="674" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16706,16 +16706,16 @@
         <v>408</v>
       </c>
       <c r="B674" s="69" t="s">
-        <v>319</v>
+        <v>18</v>
       </c>
       <c r="C674" s="70">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="D674" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E674" s="40">
-        <v>145.5</v>
+        <v>360</v>
       </c>
     </row>
     <row r="675" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16723,33 +16723,33 @@
         <v>408</v>
       </c>
       <c r="B675" s="69" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C675" s="70">
-        <v>4205</v>
+        <v>4225</v>
       </c>
       <c r="D675" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E675" s="40">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="676" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="69" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B676" s="69" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C676" s="70">
-        <v>4225</v>
+        <v>4378</v>
       </c>
       <c r="D676" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E676" s="40">
-        <v>900</v>
+        <v>430</v>
       </c>
     </row>
     <row r="677" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16757,67 +16757,67 @@
         <v>409</v>
       </c>
       <c r="B677" s="69" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C677" s="70">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="D677" s="69" t="s">
         <v>34</v>
       </c>
       <c r="E677" s="40">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="678" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="69" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B678" s="69" t="s">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="C678" s="70">
-        <v>4379</v>
+        <v>3524</v>
       </c>
       <c r="D678" s="69" t="s">
-        <v>34</v>
+        <v>412</v>
       </c>
       <c r="E678" s="40">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="679" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="69" t="s">
         <v>410</v>
       </c>
       <c r="B679" s="69" t="s">
-        <v>411</v>
+        <v>110</v>
       </c>
       <c r="C679" s="70">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="D679" s="69" t="s">
         <v>412</v>
       </c>
       <c r="E679" s="40">
-        <v>350</v>
+        <v>72</v>
       </c>
     </row>
     <row r="680" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="69" t="s">
-        <v>410</v>
+        <v>1164</v>
       </c>
       <c r="B680" s="69" t="s">
-        <v>110</v>
+        <v>1165</v>
       </c>
       <c r="C680" s="70">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="D680" s="69" t="s">
-        <v>412</v>
+        <v>15</v>
       </c>
       <c r="E680" s="40">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="681" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16825,67 +16825,67 @@
         <v>1164</v>
       </c>
       <c r="B681" s="69" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C681" s="70">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="D681" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E681" s="40">
-        <v>158</v>
+        <v>216.5</v>
       </c>
     </row>
     <row r="682" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="69" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B682" s="69" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C682" s="70">
-        <v>3522</v>
-      </c>
-      <c r="D682" s="69" t="s">
+      <c r="A682" s="72" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B682" s="72" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C682" s="73">
+        <v>64</v>
+      </c>
+      <c r="D682" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E682" s="40">
-        <v>216.5</v>
+      <c r="E682" s="50">
+        <v>132</v>
       </c>
     </row>
     <row r="683" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A683" s="72" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B683" s="72" t="s">
+      <c r="A683" s="69" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B683" s="69" t="s">
         <v>1168</v>
       </c>
-      <c r="C683" s="73">
-        <v>64</v>
-      </c>
-      <c r="D683" s="72" t="s">
+      <c r="C683" s="70">
+        <v>90</v>
+      </c>
+      <c r="D683" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E683" s="50">
+      <c r="E683" s="40">
         <v>132</v>
       </c>
     </row>
     <row r="684" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="69" t="s">
-        <v>1169</v>
+        <v>413</v>
       </c>
       <c r="B684" s="69" t="s">
-        <v>1168</v>
+        <v>18</v>
       </c>
       <c r="C684" s="70">
-        <v>90</v>
+        <v>2805</v>
       </c>
       <c r="D684" s="69" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E684" s="40">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
     <row r="685" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16893,16 +16893,16 @@
         <v>413</v>
       </c>
       <c r="B685" s="69" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C685" s="70">
-        <v>2805</v>
+        <v>3637</v>
       </c>
       <c r="D685" s="69" t="s">
         <v>34</v>
       </c>
       <c r="E685" s="40">
-        <v>160</v>
+        <v>400</v>
       </c>
     </row>
     <row r="686" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16910,33 +16910,33 @@
         <v>413</v>
       </c>
       <c r="B686" s="69" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C686" s="70">
-        <v>3637</v>
+        <v>2427</v>
       </c>
       <c r="D686" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E686" s="40">
-        <v>400</v>
+        <v>49</v>
       </c>
     </row>
     <row r="687" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="69" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B687" s="69" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="C687" s="70">
-        <v>2427</v>
+        <v>3437</v>
       </c>
       <c r="D687" s="69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E687" s="40">
-        <v>49</v>
+        <v>390</v>
       </c>
     </row>
     <row r="688" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16944,180 +16944,180 @@
         <v>414</v>
       </c>
       <c r="B688" s="69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C688" s="70">
-        <v>3437</v>
+        <v>3396</v>
       </c>
       <c r="D688" s="69" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E688" s="40">
-        <v>390</v>
+        <v>197</v>
       </c>
     </row>
     <row r="689" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="69" t="s">
-        <v>414</v>
+        <v>1170</v>
       </c>
       <c r="B689" s="69" t="s">
-        <v>19</v>
+        <v>1171</v>
       </c>
       <c r="C689" s="70">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="D689" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E689" s="40">
-        <v>197</v>
+        <v>54</v>
       </c>
     </row>
     <row r="690" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="69" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B690" s="69" t="s">
         <v>1171</v>
       </c>
       <c r="C690" s="70">
-        <v>3395</v>
+        <v>3490</v>
       </c>
       <c r="D690" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E690" s="40">
-        <v>54</v>
+        <v>169</v>
       </c>
     </row>
     <row r="691" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="69" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B691" s="69" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C691" s="70">
-        <v>3490</v>
+        <v>458</v>
       </c>
       <c r="D691" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E691" s="40">
-        <v>169</v>
+        <v>269.5</v>
       </c>
     </row>
     <row r="692" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="69" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B692" s="69" t="s">
         <v>1174</v>
       </c>
       <c r="C692" s="70">
-        <v>458</v>
+        <v>2641</v>
       </c>
       <c r="D692" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E692" s="40">
-        <v>269.5</v>
+        <v>222</v>
       </c>
     </row>
     <row r="693" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A693" s="69" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B693" s="69" t="s">
+      <c r="A693" s="75" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B693" s="75" t="s">
         <v>1174</v>
       </c>
-      <c r="C693" s="70">
-        <v>2641</v>
+      <c r="C693" s="76">
+        <v>4293</v>
       </c>
       <c r="D693" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E693" s="40">
-        <v>222</v>
+      <c r="E693" s="44">
+        <v>210</v>
       </c>
     </row>
     <row r="694" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="75" t="s">
-        <v>1176</v>
+        <v>415</v>
       </c>
       <c r="B694" s="75" t="s">
-        <v>1174</v>
+        <v>33</v>
       </c>
       <c r="C694" s="76">
-        <v>4293</v>
-      </c>
-      <c r="D694" s="69" t="s">
-        <v>15</v>
+        <v>2396</v>
+      </c>
+      <c r="D694" s="75" t="s">
+        <v>34</v>
       </c>
       <c r="E694" s="44">
-        <v>210</v>
+        <v>675</v>
       </c>
     </row>
     <row r="695" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A695" s="75" t="s">
+      <c r="A695" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="B695" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C695" s="76">
-        <v>2396</v>
-      </c>
-      <c r="D695" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="E695" s="44">
-        <v>630</v>
+      <c r="B695" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C695" s="81">
+        <v>2426</v>
+      </c>
+      <c r="D695" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E695" s="42">
+        <v>137</v>
       </c>
     </row>
     <row r="696" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="80" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B696" s="80" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C696" s="81">
-        <v>2426</v>
+        <v>4335</v>
       </c>
       <c r="D696" s="80" t="s">
         <v>20</v>
       </c>
       <c r="E696" s="42">
-        <v>128</v>
+        <v>424.5</v>
       </c>
     </row>
     <row r="697" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="80" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B697" s="80" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C697" s="81">
-        <v>4335</v>
+        <v>4477</v>
       </c>
       <c r="D697" s="80" t="s">
         <v>20</v>
       </c>
       <c r="E697" s="42">
-        <v>424.5</v>
+        <v>407.5</v>
       </c>
     </row>
     <row r="698" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="80" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B698" s="80" t="s">
         <v>19</v>
       </c>
       <c r="C698" s="81">
-        <v>4477</v>
+        <v>4479</v>
       </c>
       <c r="D698" s="80" t="s">
         <v>20</v>
@@ -17128,13 +17128,13 @@
     </row>
     <row r="699" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="80" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B699" s="80" t="s">
         <v>19</v>
       </c>
       <c r="C699" s="81">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="D699" s="80" t="s">
         <v>20</v>
@@ -17144,20 +17144,20 @@
       </c>
     </row>
     <row r="700" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A700" s="80" t="s">
-        <v>419</v>
-      </c>
-      <c r="B700" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="C700" s="81">
-        <v>4478</v>
-      </c>
-      <c r="D700" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="E700" s="42">
-        <v>407.5</v>
+      <c r="A700" s="72" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B700" s="72" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C700" s="73">
+        <v>2646</v>
+      </c>
+      <c r="D700" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E700" s="50">
+        <v>50.5</v>
       </c>
     </row>
     <row r="701" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -17165,16 +17165,16 @@
         <v>1265</v>
       </c>
       <c r="B701" s="72" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C701" s="73">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D701" s="72" t="s">
         <v>177</v>
       </c>
       <c r="E701" s="50">
-        <v>50.5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="702" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -17182,132 +17182,132 @@
         <v>1265</v>
       </c>
       <c r="B702" s="72" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C702" s="73">
-        <v>2645</v>
+        <v>2638</v>
       </c>
       <c r="D702" s="72" t="s">
         <v>177</v>
       </c>
       <c r="E702" s="50">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="703" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="72" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="B703" s="72" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C703" s="73">
-        <v>2638</v>
+        <v>4294</v>
       </c>
       <c r="D703" s="72" t="s">
         <v>177</v>
       </c>
       <c r="E703" s="50">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="704" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="72" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B704" s="72" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C704" s="73">
-        <v>4294</v>
+        <v>4314</v>
       </c>
       <c r="D704" s="72" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="E704" s="50">
-        <v>150</v>
+        <v>252</v>
       </c>
     </row>
     <row r="705" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="72" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B705" s="72" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C705" s="73">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="D705" s="72" t="s">
         <v>15</v>
       </c>
       <c r="E705" s="50">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="706" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A706" s="72" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B706" s="72" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C706" s="73">
-        <v>4315</v>
-      </c>
-      <c r="D706" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E706" s="50">
         <v>450</v>
       </c>
     </row>
-    <row r="707" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="110"/>
-      <c r="B707" s="104"/>
-      <c r="C707" s="104"/>
-      <c r="D707" s="105"/>
-      <c r="E707" s="106"/>
-    </row>
-    <row r="708" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A708" s="107" t="s">
+    <row r="706" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="115"/>
+      <c r="B706" s="108"/>
+      <c r="C706" s="108"/>
+      <c r="D706" s="109"/>
+      <c r="E706" s="116"/>
+    </row>
+    <row r="707" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="117" t="s">
         <v>420</v>
       </c>
-      <c r="B708" s="108"/>
-      <c r="C708" s="108"/>
-      <c r="D708" s="108"/>
-      <c r="E708" s="109"/>
-    </row>
-    <row r="709" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A709" s="66" t="s">
+      <c r="B707" s="118"/>
+      <c r="C707" s="118"/>
+      <c r="D707" s="118"/>
+      <c r="E707" s="119"/>
+    </row>
+    <row r="708" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A708" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B709" s="66"/>
-      <c r="C709" s="66" t="s">
+      <c r="B708" s="66"/>
+      <c r="C708" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D709" s="66" t="s">
+      <c r="D708" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E709" s="46" t="s">
+      <c r="E708" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A709" s="69" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B709" s="69" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C709" s="70">
+        <v>3402</v>
+      </c>
+      <c r="D709" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E709" s="40">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="69" t="s">
         <v>1178</v>
       </c>
       <c r="B710" s="69" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C710" s="70">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="D710" s="69" t="s">
         <v>177</v>
       </c>
       <c r="E710" s="40">
-        <v>46.5</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="711" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -17315,168 +17315,168 @@
         <v>1178</v>
       </c>
       <c r="B711" s="69" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C711" s="70">
-        <v>3401</v>
+        <v>3403</v>
       </c>
       <c r="D711" s="69" t="s">
         <v>177</v>
       </c>
       <c r="E711" s="40">
-        <v>66.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="712" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="69" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="B712" s="69" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C712" s="70">
-        <v>3403</v>
+        <v>4032</v>
       </c>
       <c r="D712" s="69" t="s">
         <v>177</v>
       </c>
       <c r="E712" s="40">
-        <v>38.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="713" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="69" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B713" s="69" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B713" s="75" t="s">
         <v>1183</v>
       </c>
-      <c r="C713" s="70">
-        <v>4032</v>
+      <c r="C713" s="76">
+        <v>4460</v>
       </c>
       <c r="D713" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="E713" s="40">
+      <c r="E713" s="44">
         <v>57.5</v>
       </c>
     </row>
     <row r="714" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A714" s="69" t="s">
-        <v>1184</v>
+      <c r="A714" s="75" t="s">
+        <v>1185</v>
       </c>
       <c r="B714" s="75" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C714" s="76">
-        <v>4460</v>
-      </c>
-      <c r="D714" s="69" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D714" s="75" t="s">
         <v>177</v>
       </c>
       <c r="E714" s="44">
-        <v>57.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="715" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="75" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B715" s="75" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C715" s="76">
-        <v>4260</v>
+        <v>2551</v>
       </c>
       <c r="D715" s="75" t="s">
         <v>177</v>
       </c>
       <c r="E715" s="44">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="716" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A716" s="75" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B716" s="75" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C716" s="76">
-        <v>2551</v>
-      </c>
-      <c r="D716" s="75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A716" s="80" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B716" s="80" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C716" s="81">
+        <v>2550</v>
+      </c>
+      <c r="D716" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="E716" s="44">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="717" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E716" s="42">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="80" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B717" s="80" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C717" s="81">
-        <v>2550</v>
+        <v>4383</v>
       </c>
       <c r="D717" s="80" t="s">
         <v>177</v>
       </c>
       <c r="E717" s="42">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="718" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A718" s="80" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B718" s="80" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C718" s="81">
-        <v>4383</v>
-      </c>
-      <c r="D718" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="E718" s="42">
         <v>53</v>
       </c>
     </row>
+    <row r="718" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="85"/>
+      <c r="B718" s="85"/>
+      <c r="C718" s="86"/>
+      <c r="D718" s="85"/>
+      <c r="E718" s="61"/>
+    </row>
     <row r="719" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A719" s="85"/>
-      <c r="B719" s="85"/>
-      <c r="C719" s="86"/>
-      <c r="D719" s="85"/>
-      <c r="E719" s="61"/>
-    </row>
-    <row r="720" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A720" s="107" t="s">
+      <c r="A719" s="117" t="s">
         <v>1305</v>
       </c>
-      <c r="B720" s="108"/>
-      <c r="C720" s="108"/>
-      <c r="D720" s="108"/>
-      <c r="E720" s="109"/>
+      <c r="B719" s="118"/>
+      <c r="C719" s="118"/>
+      <c r="D719" s="118"/>
+      <c r="E719" s="119"/>
+    </row>
+    <row r="720" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A720" s="72" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B720" s="72" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C720" s="73">
+        <v>3642</v>
+      </c>
+      <c r="D720" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="E720" s="48">
+        <v>162</v>
+      </c>
     </row>
     <row r="721" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="72" t="s">
         <v>1285</v>
       </c>
       <c r="B721" s="72" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C721" s="73">
-        <v>3642</v>
+        <v>3644</v>
       </c>
       <c r="D721" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E721" s="48">
-        <v>162</v>
+      <c r="E721" s="49">
+        <v>84</v>
       </c>
     </row>
     <row r="722" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -17484,15 +17484,15 @@
         <v>1285</v>
       </c>
       <c r="B722" s="72" t="s">
-        <v>1287</v>
+        <v>1252</v>
       </c>
       <c r="C722" s="73">
-        <v>3644</v>
+        <v>3641</v>
       </c>
       <c r="D722" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E722" s="49">
+      <c r="E722" s="48">
         <v>84</v>
       </c>
     </row>
@@ -17501,33 +17501,33 @@
         <v>1285</v>
       </c>
       <c r="B723" s="72" t="s">
-        <v>1252</v>
+        <v>1288</v>
       </c>
       <c r="C723" s="73">
-        <v>3641</v>
+        <v>3645</v>
       </c>
       <c r="D723" s="74" t="s">
         <v>160</v>
       </c>
       <c r="E723" s="48">
-        <v>84</v>
+        <v>162</v>
       </c>
     </row>
     <row r="724" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="72" t="s">
-        <v>1285</v>
+        <v>1251</v>
       </c>
       <c r="B724" s="72" t="s">
-        <v>1288</v>
+        <v>1174</v>
       </c>
       <c r="C724" s="73">
-        <v>3645</v>
+        <v>3852</v>
       </c>
       <c r="D724" s="74" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E724" s="48">
-        <v>162</v>
+        <v>26</v>
       </c>
     </row>
     <row r="725" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -17535,259 +17535,259 @@
         <v>1251</v>
       </c>
       <c r="B725" s="72" t="s">
-        <v>1174</v>
+        <v>1252</v>
       </c>
       <c r="C725" s="73">
-        <v>3852</v>
+        <v>3647</v>
       </c>
       <c r="D725" s="74" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E725" s="48">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="726" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="72" t="s">
         <v>1251</v>
       </c>
       <c r="B726" s="72" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C726" s="73">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="D726" s="74" t="s">
         <v>160</v>
       </c>
       <c r="E726" s="48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="727" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A727" s="72" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B727" s="72" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C727" s="73">
-        <v>3648</v>
-      </c>
-      <c r="D727" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A727" s="120"/>
+      <c r="B727" s="108"/>
+      <c r="C727" s="108"/>
+      <c r="D727" s="109"/>
+      <c r="E727" s="116"/>
+    </row>
+    <row r="728" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A728" s="117" t="s">
+        <v>421</v>
+      </c>
+      <c r="B728" s="118"/>
+      <c r="C728" s="118"/>
+      <c r="D728" s="118"/>
+      <c r="E728" s="119"/>
+    </row>
+    <row r="729" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A729" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B729" s="66"/>
+      <c r="C729" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D729" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E729" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A730" s="69" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B730" s="69" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C730" s="70">
+        <v>3056</v>
+      </c>
+      <c r="D730" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="E727" s="48">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="728" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A728" s="103"/>
-      <c r="B728" s="104"/>
-      <c r="C728" s="104"/>
-      <c r="D728" s="105"/>
-      <c r="E728" s="106"/>
-    </row>
-    <row r="729" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A729" s="107" t="s">
-        <v>421</v>
-      </c>
-      <c r="B729" s="108"/>
-      <c r="C729" s="108"/>
-      <c r="D729" s="108"/>
-      <c r="E729" s="109"/>
-    </row>
-    <row r="730" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A730" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B730" s="66"/>
-      <c r="C730" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D730" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E730" s="46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="731" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E730" s="40">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="69" t="s">
         <v>1193</v>
       </c>
       <c r="B731" s="69" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="C731" s="70">
-        <v>3056</v>
+        <v>3083</v>
       </c>
       <c r="D731" s="69" t="s">
         <v>160</v>
       </c>
       <c r="E731" s="40">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="732" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="69" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B732" s="69" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="C732" s="70">
-        <v>3083</v>
+        <v>2264</v>
       </c>
       <c r="D732" s="69" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="E732" s="40">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="733" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="69" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B733" s="69" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="C733" s="70">
-        <v>2264</v>
+        <v>2355</v>
       </c>
       <c r="D733" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E733" s="40">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="734" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A734" s="69" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B734" s="69" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C734" s="70">
-        <v>2355</v>
-      </c>
-      <c r="D734" s="69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A734" s="75" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B734" s="75" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C734" s="76">
+        <v>573</v>
+      </c>
+      <c r="D734" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="E734" s="44">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A735" s="80" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B735" s="80" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C735" s="81">
+        <v>572</v>
+      </c>
+      <c r="D735" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="E735" s="42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A736" s="65" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B736" s="65" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C736" s="81">
+        <v>4411</v>
+      </c>
+      <c r="D736" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E734" s="40">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="735" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A735" s="75" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B735" s="75" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C735" s="76">
-        <v>573</v>
-      </c>
-      <c r="D735" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="E735" s="44">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="736" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A736" s="80" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B736" s="80" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C736" s="81">
-        <v>572</v>
-      </c>
-      <c r="D736" s="80" t="s">
-        <v>177</v>
-      </c>
       <c r="E736" s="42">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="737" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="737" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="65" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B737" s="65" t="s">
-        <v>1156</v>
+        <v>1200</v>
       </c>
       <c r="C737" s="81">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="D737" s="80" t="s">
         <v>15</v>
       </c>
       <c r="E737" s="42">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="738" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A738" s="65" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B738" s="65" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C738" s="81">
-        <v>4410</v>
-      </c>
-      <c r="D738" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E738" s="42">
         <v>95</v>
       </c>
     </row>
-    <row r="739" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A739" s="103"/>
-      <c r="B739" s="104"/>
-      <c r="C739" s="104"/>
-      <c r="D739" s="105"/>
-      <c r="E739" s="106"/>
-    </row>
-    <row r="740" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A740" s="107" t="s">
+    <row r="738" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="120"/>
+      <c r="B738" s="108"/>
+      <c r="C738" s="108"/>
+      <c r="D738" s="109"/>
+      <c r="E738" s="116"/>
+    </row>
+    <row r="739" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="117" t="s">
         <v>1303</v>
       </c>
-      <c r="B740" s="108"/>
-      <c r="C740" s="108"/>
-      <c r="D740" s="108"/>
-      <c r="E740" s="109"/>
+      <c r="B739" s="118"/>
+      <c r="C739" s="118"/>
+      <c r="D739" s="118"/>
+      <c r="E739" s="119"/>
+    </row>
+    <row r="740" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A740" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B740" s="66"/>
+      <c r="C740" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D740" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E740" s="47" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="741" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A741" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B741" s="66"/>
-      <c r="C741" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D741" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E741" s="47" t="s">
-        <v>12</v>
+      <c r="A741" s="72" t="s">
+        <v>439</v>
+      </c>
+      <c r="B741" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C741" s="73">
+        <v>4043</v>
+      </c>
+      <c r="D741" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E741" s="48">
+        <v>63</v>
       </c>
     </row>
     <row r="742" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="72" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B742" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C742" s="73">
-        <v>4043</v>
+        <v>3531</v>
       </c>
       <c r="D742" s="74" t="s">
         <v>20</v>
@@ -17798,13 +17798,13 @@
     </row>
     <row r="743" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="72" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B743" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C743" s="73">
-        <v>3531</v>
+        <v>3974</v>
       </c>
       <c r="D743" s="74" t="s">
         <v>20</v>
@@ -17813,15 +17813,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="744" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="72" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B744" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C744" s="73">
-        <v>3974</v>
+        <v>3530</v>
       </c>
       <c r="D744" s="74" t="s">
         <v>20</v>
@@ -17832,47 +17832,47 @@
     </row>
     <row r="745" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="72" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B745" s="72" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="C745" s="73">
-        <v>3530</v>
+        <v>4282</v>
       </c>
       <c r="D745" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E745" s="48">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="746" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="72" t="s">
-        <v>443</v>
+        <v>1209</v>
       </c>
       <c r="B746" s="72" t="s">
-        <v>78</v>
+        <v>1208</v>
       </c>
       <c r="C746" s="73">
-        <v>4282</v>
+        <v>3870</v>
       </c>
       <c r="D746" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E746" s="48">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="747" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="72" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B747" s="72" t="s">
         <v>1208</v>
       </c>
       <c r="C747" s="73">
-        <v>3870</v>
+        <v>3701</v>
       </c>
       <c r="D747" s="74" t="s">
         <v>20</v>
@@ -17883,13 +17883,13 @@
     </row>
     <row r="748" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="72" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B748" s="72" t="s">
         <v>1208</v>
       </c>
       <c r="C748" s="73">
-        <v>3701</v>
+        <v>3800</v>
       </c>
       <c r="D748" s="74" t="s">
         <v>20</v>
@@ -17898,66 +17898,78 @@
         <v>22</v>
       </c>
     </row>
-    <row r="749" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="72" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B749" s="72" t="s">
         <v>1208</v>
       </c>
       <c r="C749" s="73">
-        <v>3800</v>
+        <v>3725</v>
       </c>
       <c r="D749" s="74" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E749" s="48">
         <v>22</v>
       </c>
     </row>
-    <row r="750" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A750" s="72" t="s">
-        <v>1212</v>
+        <v>1237</v>
       </c>
       <c r="B750" s="72" t="s">
         <v>1208</v>
       </c>
       <c r="C750" s="73">
-        <v>3725</v>
+        <v>3871</v>
       </c>
       <c r="D750" s="74" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E750" s="48">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="751" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="751" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="72" t="s">
-        <v>1237</v>
+        <v>463</v>
       </c>
       <c r="B751" s="72" t="s">
-        <v>1208</v>
+        <v>145</v>
       </c>
       <c r="C751" s="73">
-        <v>3871</v>
+        <v>2825</v>
       </c>
       <c r="D751" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E751" s="48">
-        <v>27</v>
-      </c>
+        <v>23.5</v>
+      </c>
+      <c r="F751" s="54"/>
+      <c r="G751" s="54"/>
+      <c r="I751" s="57"/>
+      <c r="J751" s="58"/>
+      <c r="K751" s="60"/>
+      <c r="L751" s="59"/>
+      <c r="M751" s="59"/>
+      <c r="N751" s="59"/>
+      <c r="O751" s="59"/>
+      <c r="P751" s="59"/>
+      <c r="Q751" s="59"/>
+      <c r="R751" s="58"/>
     </row>
     <row r="752" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="72" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B752" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C752" s="73">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="D752" s="74" t="s">
         <v>20</v>
@@ -17965,28 +17977,18 @@
       <c r="E752" s="48">
         <v>23.5</v>
       </c>
-      <c r="F752" s="54"/>
-      <c r="G752" s="54"/>
-      <c r="I752" s="57"/>
-      <c r="J752" s="58"/>
-      <c r="K752" s="60"/>
-      <c r="L752" s="59"/>
-      <c r="M752" s="59"/>
-      <c r="N752" s="59"/>
-      <c r="O752" s="59"/>
-      <c r="P752" s="59"/>
-      <c r="Q752" s="59"/>
-      <c r="R752" s="58"/>
-    </row>
-    <row r="753" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G752" s="55"/>
+      <c r="H752" s="56"/>
+    </row>
+    <row r="753" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="72" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B753" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C753" s="73">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="D753" s="74" t="s">
         <v>20</v>
@@ -17994,18 +17996,16 @@
       <c r="E753" s="48">
         <v>23.5</v>
       </c>
-      <c r="G753" s="55"/>
-      <c r="H753" s="56"/>
-    </row>
-    <row r="754" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="754" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="72" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B754" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C754" s="73">
-        <v>2826</v>
+        <v>3058</v>
       </c>
       <c r="D754" s="74" t="s">
         <v>20</v>
@@ -18014,15 +18014,15 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="755" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="72" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B755" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C755" s="73">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="D755" s="74" t="s">
         <v>20</v>
@@ -18031,15 +18031,15 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="756" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="72" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B756" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C756" s="73">
-        <v>3059</v>
+        <v>2829</v>
       </c>
       <c r="D756" s="74" t="s">
         <v>20</v>
@@ -18048,15 +18048,15 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="757" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="72" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B757" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C757" s="73">
-        <v>2829</v>
+        <v>4126</v>
       </c>
       <c r="D757" s="74" t="s">
         <v>20</v>
@@ -18065,15 +18065,15 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="758" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="72" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B758" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C758" s="73">
-        <v>4126</v>
+        <v>2827</v>
       </c>
       <c r="D758" s="74" t="s">
         <v>20</v>
@@ -18082,32 +18082,32 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="759" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="72" t="s">
-        <v>470</v>
+        <v>1254</v>
       </c>
       <c r="B759" s="72" t="s">
-        <v>145</v>
+        <v>1208</v>
       </c>
       <c r="C759" s="73">
-        <v>2827</v>
+        <v>3801</v>
       </c>
       <c r="D759" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E759" s="48">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="760" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="72" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B760" s="72" t="s">
         <v>1208</v>
       </c>
       <c r="C760" s="73">
-        <v>3801</v>
+        <v>3833</v>
       </c>
       <c r="D760" s="74" t="s">
         <v>20</v>
@@ -18116,122 +18116,122 @@
         <v>25</v>
       </c>
     </row>
-    <row r="761" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="72" t="s">
-        <v>1255</v>
+        <v>476</v>
       </c>
       <c r="B761" s="72" t="s">
-        <v>1208</v>
+        <v>145</v>
       </c>
       <c r="C761" s="73">
-        <v>3833</v>
+        <v>3897</v>
       </c>
       <c r="D761" s="74" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E761" s="48">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="762" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="72" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B762" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C762" s="73">
-        <v>3897</v>
+        <v>3764</v>
       </c>
       <c r="D762" s="74" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E762" s="48">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="763" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A763" s="72" t="s">
-        <v>477</v>
-      </c>
-      <c r="B763" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="C763" s="73">
-        <v>3764</v>
-      </c>
-      <c r="D763" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E763" s="48">
         <v>78</v>
       </c>
     </row>
-    <row r="764" spans="1:8" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A764" s="96"/>
-      <c r="B764" s="96"/>
-      <c r="C764" s="97"/>
-      <c r="D764" s="96"/>
-      <c r="E764" s="98"/>
-    </row>
-    <row r="765" spans="1:8" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A765" s="114" t="s">
+    <row r="763" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A763" s="96"/>
+      <c r="B763" s="96"/>
+      <c r="C763" s="97"/>
+      <c r="D763" s="96"/>
+      <c r="E763" s="98"/>
+    </row>
+    <row r="764" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A764" s="129" t="s">
         <v>1289</v>
       </c>
-      <c r="B765" s="115"/>
-      <c r="C765" s="115"/>
-      <c r="D765" s="115"/>
-      <c r="E765" s="116"/>
-    </row>
-    <row r="766" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A766" s="66" t="s">
+      <c r="B764" s="130"/>
+      <c r="C764" s="130"/>
+      <c r="D764" s="130"/>
+      <c r="E764" s="131"/>
+    </row>
+    <row r="765" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A765" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B766" s="66" t="s">
+      <c r="B765" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C766" s="66" t="s">
+      <c r="C765" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D766" s="66" t="s">
+      <c r="D765" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E766" s="47" t="s">
+      <c r="E765" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="767" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A766" s="72" t="s">
+        <v>425</v>
+      </c>
+      <c r="B766" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C766" s="73">
+        <v>3438</v>
+      </c>
+      <c r="D766" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E766" s="48">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="72" t="s">
         <v>425</v>
       </c>
       <c r="B767" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C767" s="73">
+        <v>3434</v>
+      </c>
+      <c r="D767" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E767" s="48">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A768" s="72" t="s">
+        <v>426</v>
+      </c>
+      <c r="B768" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C767" s="73">
-        <v>3438</v>
-      </c>
-      <c r="D767" s="74" t="s">
+      <c r="C768" s="73">
+        <v>3443</v>
+      </c>
+      <c r="D768" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="E767" s="48">
+      <c r="E768" s="48">
         <v>228</v>
-      </c>
-    </row>
-    <row r="768" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A768" s="72" t="s">
-        <v>425</v>
-      </c>
-      <c r="B768" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C768" s="73">
-        <v>3434</v>
-      </c>
-      <c r="D768" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E768" s="48">
-        <v>76</v>
       </c>
     </row>
     <row r="769" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -18239,67 +18239,67 @@
         <v>426</v>
       </c>
       <c r="B769" s="72" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="C769" s="73">
-        <v>3443</v>
+        <v>3019</v>
       </c>
       <c r="D769" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E769" s="48">
-        <v>228</v>
+        <v>76</v>
       </c>
     </row>
     <row r="770" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="72" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B770" s="72" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="C770" s="73">
-        <v>3019</v>
+        <v>4489</v>
       </c>
       <c r="D770" s="74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E770" s="48">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="771" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="72" t="s">
         <v>427</v>
       </c>
       <c r="B771" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C771" s="73">
+        <v>4490</v>
+      </c>
+      <c r="D771" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E771" s="48">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A772" s="72" t="s">
+        <v>428</v>
+      </c>
+      <c r="B772" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C771" s="73">
-        <v>4489</v>
-      </c>
-      <c r="D771" s="74" t="s">
+      <c r="C772" s="73">
+        <v>3476</v>
+      </c>
+      <c r="D772" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="E771" s="48">
+      <c r="E772" s="48">
         <v>228</v>
-      </c>
-    </row>
-    <row r="772" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A772" s="72" t="s">
-        <v>427</v>
-      </c>
-      <c r="B772" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C772" s="73">
-        <v>4490</v>
-      </c>
-      <c r="D772" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E772" s="48">
-        <v>76</v>
       </c>
     </row>
     <row r="773" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -18307,84 +18307,84 @@
         <v>428</v>
       </c>
       <c r="B773" s="72" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="C773" s="73">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="D773" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E773" s="48">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A774" s="72" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B774" s="72" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C774" s="73">
+        <v>4344</v>
+      </c>
+      <c r="D774" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="E773" s="48">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="774" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A774" s="72" t="s">
-        <v>428</v>
-      </c>
-      <c r="B774" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C774" s="73">
-        <v>3477</v>
-      </c>
-      <c r="D774" s="74" t="s">
-        <v>20</v>
-      </c>
       <c r="E774" s="48">
-        <v>76</v>
+        <v>328</v>
       </c>
     </row>
     <row r="775" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A775" s="72" t="s">
-        <v>1314</v>
+        <v>429</v>
       </c>
       <c r="B775" s="72" t="s">
-        <v>1156</v>
+        <v>18</v>
       </c>
       <c r="C775" s="73">
-        <v>4344</v>
+        <v>3123</v>
       </c>
       <c r="D775" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E775" s="48">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="776" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="72" t="s">
         <v>429</v>
       </c>
       <c r="B776" s="72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C776" s="73">
-        <v>3123</v>
+        <v>2674</v>
       </c>
       <c r="D776" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E776" s="48">
-        <v>121</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="777" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="72" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B777" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C777" s="73">
-        <v>2674</v>
+        <v>3719</v>
       </c>
       <c r="D777" s="74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E777" s="48">
-        <v>60.5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="778" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -18392,33 +18392,33 @@
         <v>430</v>
       </c>
       <c r="B778" s="72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C778" s="73">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="D778" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E778" s="48">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="779" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="72" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B779" s="72" t="s">
-        <v>19</v>
+        <v>1126</v>
       </c>
       <c r="C779" s="73">
-        <v>3720</v>
+        <v>3765</v>
       </c>
       <c r="D779" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E779" s="48">
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="780" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -18426,67 +18426,67 @@
         <v>431</v>
       </c>
       <c r="B780" s="72" t="s">
-        <v>1126</v>
+        <v>19</v>
       </c>
       <c r="C780" s="73">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="D780" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E780" s="48">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="781" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="72" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B781" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C781" s="73">
-        <v>3766</v>
+        <v>3126</v>
       </c>
       <c r="D781" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E781" s="48">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="782" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="72" t="s">
         <v>432</v>
       </c>
       <c r="B782" s="72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C782" s="73">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="D782" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E782" s="48">
-        <v>121</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="783" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="72" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B783" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C783" s="73">
-        <v>3127</v>
+        <v>3435</v>
       </c>
       <c r="D783" s="74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E783" s="48">
-        <v>60.5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="784" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18494,33 +18494,33 @@
         <v>433</v>
       </c>
       <c r="B784" s="72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C784" s="73">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="D784" s="74" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="E784" s="48">
-        <v>121</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="785" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="72" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B785" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C785" s="73">
-        <v>3436</v>
+        <v>3128</v>
       </c>
       <c r="D785" s="74" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="E785" s="48">
-        <v>60.5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="786" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18528,33 +18528,33 @@
         <v>434</v>
       </c>
       <c r="B786" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C786" s="73">
+        <v>3129</v>
+      </c>
+      <c r="D786" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E786" s="48">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A787" s="72" t="s">
+        <v>435</v>
+      </c>
+      <c r="B787" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C786" s="73">
-        <v>3128</v>
-      </c>
-      <c r="D786" s="74" t="s">
+      <c r="C787" s="73">
+        <v>4158</v>
+      </c>
+      <c r="D787" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="E786" s="48">
+      <c r="E787" s="48">
         <v>121</v>
-      </c>
-    </row>
-    <row r="787" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A787" s="72" t="s">
-        <v>434</v>
-      </c>
-      <c r="B787" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C787" s="73">
-        <v>3129</v>
-      </c>
-      <c r="D787" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E787" s="48">
-        <v>60.5</v>
       </c>
     </row>
     <row r="788" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -18562,33 +18562,33 @@
         <v>435</v>
       </c>
       <c r="B788" s="72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C788" s="73">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="D788" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E788" s="48">
-        <v>121</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="789" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="72" t="s">
-        <v>435</v>
+        <v>1327</v>
       </c>
       <c r="B789" s="72" t="s">
-        <v>19</v>
+        <v>1126</v>
       </c>
       <c r="C789" s="73">
-        <v>4159</v>
+        <v>4561</v>
       </c>
       <c r="D789" s="74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E789" s="48">
-        <v>60.5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="790" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -18596,33 +18596,33 @@
         <v>1327</v>
       </c>
       <c r="B790" s="72" t="s">
-        <v>1126</v>
+        <v>1328</v>
       </c>
       <c r="C790" s="73">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="D790" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E790" s="48">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="791" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="72" t="s">
-        <v>1327</v>
+        <v>436</v>
       </c>
       <c r="B791" s="72" t="s">
-        <v>1328</v>
+        <v>18</v>
       </c>
       <c r="C791" s="73">
-        <v>4562</v>
+        <v>3124</v>
       </c>
       <c r="D791" s="74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E791" s="48">
-        <v>69</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="792" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -18630,33 +18630,33 @@
         <v>436</v>
       </c>
       <c r="B792" s="72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C792" s="73">
-        <v>3124</v>
+        <v>2824</v>
       </c>
       <c r="D792" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E792" s="48">
-        <v>161.5</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="793" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="72" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B793" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C793" s="73">
-        <v>2824</v>
+        <v>3130</v>
       </c>
       <c r="D793" s="74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E793" s="48">
-        <v>80.5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="794" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -18664,44 +18664,44 @@
         <v>437</v>
       </c>
       <c r="B794" s="72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C794" s="73">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="D794" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E794" s="48">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="795" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="72" t="s">
-        <v>437</v>
+        <v>1201</v>
       </c>
       <c r="B795" s="72" t="s">
-        <v>19</v>
+        <v>1156</v>
       </c>
       <c r="C795" s="73">
-        <v>3131</v>
+        <v>4346</v>
       </c>
       <c r="D795" s="74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E795" s="48">
-        <v>69</v>
+        <v>328</v>
       </c>
     </row>
     <row r="796" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="72" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B796" s="72" t="s">
         <v>1156</v>
       </c>
       <c r="C796" s="73">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="D796" s="74" t="s">
         <v>15</v>
@@ -18712,370 +18712,370 @@
     </row>
     <row r="797" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="72" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B797" s="72" t="s">
-        <v>1156</v>
+        <v>1132</v>
       </c>
       <c r="C797" s="73">
-        <v>4345</v>
+        <v>4347</v>
       </c>
       <c r="D797" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E797" s="48">
-        <v>328</v>
+        <v>274</v>
       </c>
     </row>
     <row r="798" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="72" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B798" s="72" t="s">
-        <v>1132</v>
+        <v>1156</v>
       </c>
       <c r="C798" s="73">
-        <v>4347</v>
+        <v>4446</v>
       </c>
       <c r="D798" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E798" s="48">
-        <v>274</v>
+        <v>325</v>
       </c>
     </row>
     <row r="799" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="72" t="s">
-        <v>1204</v>
+        <v>438</v>
       </c>
       <c r="B799" s="72" t="s">
-        <v>1156</v>
+        <v>78</v>
       </c>
       <c r="C799" s="73">
-        <v>4446</v>
+        <v>4476</v>
       </c>
       <c r="D799" s="74" t="s">
-        <v>15</v>
+        <v>412</v>
       </c>
       <c r="E799" s="48">
-        <v>325</v>
+        <v>30</v>
       </c>
     </row>
     <row r="800" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="72" t="s">
-        <v>438</v>
+        <v>1205</v>
       </c>
       <c r="B800" s="72" t="s">
-        <v>78</v>
+        <v>1156</v>
       </c>
       <c r="C800" s="73">
-        <v>4476</v>
+        <v>4348</v>
       </c>
       <c r="D800" s="74" t="s">
-        <v>412</v>
+        <v>15</v>
       </c>
       <c r="E800" s="48">
-        <v>30</v>
+        <v>328</v>
       </c>
     </row>
     <row r="801" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="72" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B801" s="72" t="s">
-        <v>1156</v>
+        <v>1207</v>
       </c>
       <c r="C801" s="73">
-        <v>4348</v>
+        <v>4456</v>
       </c>
       <c r="D801" s="74" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="E801" s="48">
-        <v>328</v>
+        <v>69</v>
       </c>
     </row>
     <row r="802" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="72" t="s">
-        <v>1206</v>
+        <v>444</v>
       </c>
       <c r="B802" s="72" t="s">
-        <v>1207</v>
+        <v>110</v>
       </c>
       <c r="C802" s="73">
-        <v>4456</v>
+        <v>4051</v>
       </c>
       <c r="D802" s="74" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="E802" s="48">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="803" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="72" t="s">
-        <v>444</v>
+        <v>1315</v>
       </c>
       <c r="B803" s="72" t="s">
-        <v>110</v>
+        <v>1151</v>
       </c>
       <c r="C803" s="73">
-        <v>4051</v>
+        <v>4408</v>
       </c>
       <c r="D803" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E803" s="48">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="804" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="72" t="s">
-        <v>1315</v>
+        <v>1213</v>
       </c>
       <c r="B804" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C804" s="73">
-        <v>4408</v>
+        <v>4341</v>
       </c>
       <c r="D804" s="74" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E804" s="48">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="805" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="72" t="s">
-        <v>1213</v>
+        <v>448</v>
       </c>
       <c r="B805" s="72" t="s">
-        <v>1151</v>
+        <v>145</v>
       </c>
       <c r="C805" s="73">
-        <v>4341</v>
+        <v>4265</v>
       </c>
       <c r="D805" s="74" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E805" s="48">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="806" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="72" t="s">
-        <v>448</v>
+        <v>1214</v>
       </c>
       <c r="B806" s="72" t="s">
-        <v>145</v>
+        <v>1151</v>
       </c>
       <c r="C806" s="73">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="D806" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E806" s="48">
-        <v>65</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="807" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="72" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B807" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C807" s="73">
-        <v>4266</v>
+        <v>4269</v>
       </c>
       <c r="D807" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E807" s="48">
-        <v>81.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="808" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="72" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B808" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C808" s="73">
-        <v>4269</v>
+        <v>4273</v>
       </c>
       <c r="D808" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E808" s="48">
-        <v>87.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="809" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="72" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B809" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C809" s="73">
-        <v>4273</v>
+        <v>4405</v>
       </c>
       <c r="D809" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E809" s="48">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="810" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="72" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B810" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C810" s="73">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="D810" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E810" s="48">
-        <v>78</v>
+        <v>130</v>
       </c>
     </row>
     <row r="811" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="72" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B811" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C811" s="73">
-        <v>4406</v>
+        <v>4267</v>
       </c>
       <c r="D811" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E811" s="48">
-        <v>130</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="812" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="72" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B812" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C812" s="73">
-        <v>4267</v>
+        <v>4271</v>
       </c>
       <c r="D812" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E812" s="48">
-        <v>81.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="813" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="72" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B813" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C813" s="73">
-        <v>4271</v>
+        <v>4276</v>
       </c>
       <c r="D813" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E813" s="48">
-        <v>87.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="814" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="72" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B814" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C814" s="73">
-        <v>4276</v>
+        <v>4342</v>
       </c>
       <c r="D814" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E814" s="48">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="815" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="72" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B815" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C815" s="73">
-        <v>4342</v>
+        <v>4398</v>
       </c>
       <c r="D815" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E815" s="48">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="816" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="72" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B816" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C816" s="73">
-        <v>4398</v>
+        <v>4270</v>
       </c>
       <c r="D816" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E816" s="48">
-        <v>84</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="817" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="72" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B817" s="72" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C817" s="73">
-        <v>4270</v>
+        <v>4275</v>
       </c>
       <c r="D817" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E817" s="48">
-        <v>87.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="818" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="72" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B818" s="72" t="s">
         <v>1147</v>
       </c>
       <c r="C818" s="73">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="D818" s="74" t="s">
         <v>20</v>
@@ -19086,64 +19086,64 @@
     </row>
     <row r="819" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="72" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B819" s="72" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="C819" s="73">
-        <v>4274</v>
+        <v>4399</v>
       </c>
       <c r="D819" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E819" s="48">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="820" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="72" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B820" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C820" s="73">
-        <v>4399</v>
+        <v>4404</v>
       </c>
       <c r="D820" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E820" s="48">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="821" spans="1:5" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="72" t="s">
-        <v>1228</v>
+        <v>449</v>
       </c>
       <c r="B821" s="72" t="s">
-        <v>1151</v>
+        <v>145</v>
       </c>
       <c r="C821" s="73">
-        <v>4404</v>
+        <v>4262</v>
       </c>
       <c r="D821" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E821" s="48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="822" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="72" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B822" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C822" s="73">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="D822" s="74" t="s">
         <v>20</v>
@@ -19154,13 +19154,13 @@
     </row>
     <row r="823" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B823" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C823" s="73">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="D823" s="74" t="s">
         <v>20</v>
@@ -19171,87 +19171,87 @@
     </row>
     <row r="824" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="72" t="s">
-        <v>451</v>
+        <v>1229</v>
       </c>
       <c r="B824" s="72" t="s">
-        <v>145</v>
+        <v>1151</v>
       </c>
       <c r="C824" s="73">
-        <v>4264</v>
+        <v>4407</v>
       </c>
       <c r="D824" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E824" s="48">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="825" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="72" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B825" s="72" t="s">
         <v>1151</v>
       </c>
       <c r="C825" s="73">
-        <v>4407</v>
+        <v>4397</v>
       </c>
       <c r="D825" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E825" s="48">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="826" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="72" t="s">
-        <v>1230</v>
+        <v>452</v>
       </c>
       <c r="B826" s="72" t="s">
-        <v>1151</v>
+        <v>145</v>
       </c>
       <c r="C826" s="73">
-        <v>4397</v>
+        <v>4343</v>
       </c>
       <c r="D826" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E826" s="48">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="72" t="s">
-        <v>452</v>
+        <v>1231</v>
       </c>
       <c r="B827" s="72" t="s">
-        <v>145</v>
+        <v>1151</v>
       </c>
       <c r="C827" s="73">
-        <v>4343</v>
+        <v>4268</v>
       </c>
       <c r="D827" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E827" s="48">
-        <v>67</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="828" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A828" s="72" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B828" s="72" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C828" s="73">
-        <v>4268</v>
-      </c>
-      <c r="D828" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E828" s="48">
-        <v>81.5</v>
+      <c r="A828" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B828" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C828" s="70">
+        <v>2833</v>
+      </c>
+      <c r="D828" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E828" s="40">
+        <v>81</v>
       </c>
     </row>
     <row r="829" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -19259,101 +19259,101 @@
         <v>61</v>
       </c>
       <c r="B829" s="69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C829" s="70">
-        <v>2833</v>
+        <v>3125</v>
       </c>
       <c r="D829" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E829" s="40">
-        <v>81</v>
+        <v>162</v>
       </c>
     </row>
     <row r="830" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B830" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C830" s="70">
-        <v>3125</v>
+        <v>3752</v>
       </c>
       <c r="D830" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E830" s="40">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="831" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A831" s="69" t="s">
+      <c r="A831" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B831" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C831" s="70">
-        <v>3752</v>
-      </c>
-      <c r="D831" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="E831" s="40">
-        <v>166</v>
+      <c r="B831" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C831" s="73">
+        <v>3753</v>
+      </c>
+      <c r="D831" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E831" s="50">
+        <v>83</v>
       </c>
     </row>
     <row r="832" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A832" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="B832" s="72" t="s">
+      <c r="A832" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B832" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C832" s="73">
-        <v>3753</v>
-      </c>
-      <c r="D832" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="E832" s="50">
-        <v>83</v>
+      <c r="C832" s="70">
+        <v>2511</v>
+      </c>
+      <c r="D832" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E832" s="40">
+        <v>61</v>
       </c>
     </row>
     <row r="833" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B833" s="69" t="s">
         <v>19</v>
       </c>
       <c r="C833" s="70">
-        <v>2511</v>
+        <v>4311</v>
       </c>
       <c r="D833" s="69" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E833" s="40">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="834" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B834" s="69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C834" s="70">
-        <v>4311</v>
+        <v>4046</v>
       </c>
       <c r="D834" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E834" s="40">
-        <v>65</v>
+        <v>166</v>
       </c>
     </row>
     <row r="835" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -19361,44 +19361,44 @@
         <v>67</v>
       </c>
       <c r="B835" s="69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C835" s="70">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="D835" s="69" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E835" s="40">
-        <v>166</v>
+        <v>83</v>
       </c>
     </row>
     <row r="836" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B836" s="69" t="s">
         <v>19</v>
       </c>
       <c r="C836" s="70">
-        <v>4047</v>
+        <v>4312</v>
       </c>
       <c r="D836" s="69" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E836" s="40">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="837" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B837" s="69" t="s">
         <v>19</v>
       </c>
       <c r="C837" s="70">
-        <v>4312</v>
+        <v>4310</v>
       </c>
       <c r="D837" s="69" t="s">
         <v>20</v>
@@ -19408,71 +19408,71 @@
       </c>
     </row>
     <row r="838" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A838" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B838" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C838" s="70">
-        <v>4310</v>
-      </c>
-      <c r="D838" s="69" t="s">
+      <c r="A838" s="72" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B838" s="72" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C838" s="73">
+        <v>4074</v>
+      </c>
+      <c r="D838" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E838" s="40">
-        <v>65</v>
+      <c r="E838" s="48">
+        <v>27</v>
       </c>
     </row>
     <row r="839" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="72" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B839" s="72" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C839" s="73">
-        <v>4074</v>
+        <v>4076</v>
       </c>
       <c r="D839" s="74" t="s">
-        <v>20</v>
+        <v>453</v>
       </c>
       <c r="E839" s="48">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="840" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="72" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B840" s="72" t="s">
-        <v>1235</v>
+        <v>1207</v>
       </c>
       <c r="C840" s="73">
-        <v>4076</v>
+        <v>4133</v>
       </c>
       <c r="D840" s="74" t="s">
         <v>453</v>
       </c>
       <c r="E840" s="48">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="841" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="72" t="s">
-        <v>1236</v>
+        <v>455</v>
       </c>
       <c r="B841" s="72" t="s">
-        <v>1207</v>
+        <v>120</v>
       </c>
       <c r="C841" s="73">
-        <v>4133</v>
+        <v>3068</v>
       </c>
       <c r="D841" s="74" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="E841" s="48">
-        <v>72</v>
+        <v>372</v>
       </c>
     </row>
     <row r="842" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -19480,50 +19480,50 @@
         <v>455</v>
       </c>
       <c r="B842" s="72" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="C842" s="73">
-        <v>3068</v>
+        <v>3087</v>
       </c>
       <c r="D842" s="74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E842" s="48">
-        <v>372</v>
+        <v>124</v>
       </c>
     </row>
     <row r="843" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="72" t="s">
-        <v>455</v>
+        <v>1326</v>
       </c>
       <c r="B843" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C843" s="73">
-        <v>3087</v>
+        <v>4560</v>
       </c>
       <c r="D843" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E843" s="48">
-        <v>124</v>
+        <v>195</v>
       </c>
     </row>
     <row r="844" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="72" t="s">
-        <v>1326</v>
+        <v>456</v>
       </c>
       <c r="B844" s="72" t="s">
-        <v>19</v>
+        <v>1132</v>
       </c>
       <c r="C844" s="73">
-        <v>4560</v>
+        <v>4531</v>
       </c>
       <c r="D844" s="74" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E844" s="48">
-        <v>195</v>
+        <v>880</v>
       </c>
     </row>
     <row r="845" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -19531,81 +19531,81 @@
         <v>456</v>
       </c>
       <c r="B845" s="72" t="s">
-        <v>1132</v>
+        <v>78</v>
       </c>
       <c r="C845" s="73">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="D845" s="74" t="s">
         <v>34</v>
       </c>
       <c r="E845" s="48">
-        <v>880</v>
+        <v>88</v>
       </c>
     </row>
     <row r="846" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="72" t="s">
-        <v>456</v>
+        <v>1325</v>
       </c>
       <c r="B846" s="72" t="s">
-        <v>78</v>
+        <v>1166</v>
       </c>
       <c r="C846" s="73">
-        <v>4532</v>
+        <v>4559</v>
       </c>
       <c r="D846" s="74" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E846" s="48">
-        <v>88</v>
+        <v>210</v>
       </c>
     </row>
     <row r="847" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="72" t="s">
-        <v>1325</v>
+        <v>457</v>
       </c>
       <c r="B847" s="72" t="s">
-        <v>1166</v>
+        <v>145</v>
       </c>
       <c r="C847" s="73">
-        <v>4559</v>
+        <v>4493</v>
       </c>
       <c r="D847" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E847" s="48">
-        <v>210</v>
+        <v>83</v>
       </c>
     </row>
     <row r="848" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="72" t="s">
-        <v>457</v>
+        <v>1238</v>
       </c>
       <c r="B848" s="72" t="s">
-        <v>145</v>
+        <v>1239</v>
       </c>
       <c r="C848" s="73">
-        <v>4493</v>
+        <v>4102</v>
       </c>
       <c r="D848" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E848" s="48">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="849" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="72" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B849" s="72" t="s">
         <v>1239</v>
       </c>
       <c r="C849" s="73">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="D849" s="74" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E849" s="48">
         <v>77</v>
@@ -19613,13 +19613,13 @@
     </row>
     <row r="850" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="72" t="s">
-        <v>1240</v>
+        <v>1316</v>
       </c>
       <c r="B850" s="72" t="s">
         <v>1239</v>
       </c>
       <c r="C850" s="73">
-        <v>4103</v>
+        <v>4547</v>
       </c>
       <c r="D850" s="74" t="s">
         <v>160</v>
@@ -19630,13 +19630,13 @@
     </row>
     <row r="851" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="72" t="s">
-        <v>1316</v>
+        <v>1241</v>
       </c>
       <c r="B851" s="72" t="s">
         <v>1239</v>
       </c>
       <c r="C851" s="73">
-        <v>4547</v>
+        <v>4104</v>
       </c>
       <c r="D851" s="74" t="s">
         <v>160</v>
@@ -19647,13 +19647,13 @@
     </row>
     <row r="852" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="72" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B852" s="72" t="s">
         <v>1239</v>
       </c>
       <c r="C852" s="73">
-        <v>4104</v>
+        <v>4101</v>
       </c>
       <c r="D852" s="74" t="s">
         <v>160</v>
@@ -19664,13 +19664,13 @@
     </row>
     <row r="853" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="72" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B853" s="72" t="s">
         <v>1239</v>
       </c>
       <c r="C853" s="73">
-        <v>4101</v>
+        <v>4105</v>
       </c>
       <c r="D853" s="74" t="s">
         <v>160</v>
@@ -19679,69 +19679,69 @@
         <v>77</v>
       </c>
     </row>
-    <row r="854" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="72" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B854" s="72" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="C854" s="73">
-        <v>4105</v>
+        <v>3705</v>
       </c>
       <c r="D854" s="74" t="s">
         <v>160</v>
       </c>
       <c r="E854" s="48">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A855" s="72" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B855" s="72" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C855" s="73">
+        <v>3823</v>
+      </c>
+      <c r="D855" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E855" s="48">
         <v>77</v>
-      </c>
-    </row>
-    <row r="855" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A855" s="72" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B855" s="72" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C855" s="73">
-        <v>3705</v>
-      </c>
-      <c r="D855" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="E855" s="48">
-        <v>123.5</v>
       </c>
     </row>
     <row r="856" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="72" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B856" s="72" t="s">
-        <v>1239</v>
+        <v>1248</v>
       </c>
       <c r="C856" s="73">
-        <v>3823</v>
+        <v>4308</v>
       </c>
       <c r="D856" s="74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E856" s="48">
-        <v>77</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="857" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="72" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B857" s="72" t="s">
         <v>1248</v>
       </c>
       <c r="C857" s="73">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="D857" s="74" t="s">
-        <v>20</v>
+        <v>453</v>
       </c>
       <c r="E857" s="48">
         <v>68.5</v>
@@ -19749,36 +19749,36 @@
     </row>
     <row r="858" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="72" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B858" s="72" t="s">
-        <v>1248</v>
+        <v>1151</v>
       </c>
       <c r="C858" s="73">
-        <v>4309</v>
+        <v>4412</v>
       </c>
       <c r="D858" s="74" t="s">
         <v>453</v>
       </c>
       <c r="E858" s="48">
-        <v>68.5</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="859" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="72" t="s">
-        <v>1250</v>
+        <v>459</v>
       </c>
       <c r="B859" s="72" t="s">
-        <v>1151</v>
+        <v>33</v>
       </c>
       <c r="C859" s="73">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="D859" s="74" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="E859" s="48">
-        <v>71.5</v>
+        <v>496</v>
       </c>
     </row>
     <row r="860" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -19786,33 +19786,33 @@
         <v>459</v>
       </c>
       <c r="B860" s="72" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C860" s="73">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="D860" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E860" s="48">
-        <v>496</v>
+        <v>101</v>
       </c>
     </row>
     <row r="861" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="72" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B861" s="72" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C861" s="73">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="D861" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E861" s="48">
-        <v>101</v>
+        <v>414</v>
       </c>
     </row>
     <row r="862" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -19820,64 +19820,64 @@
         <v>460</v>
       </c>
       <c r="B862" s="72" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C862" s="73">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="D862" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E862" s="48">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="863" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="72" t="s">
-        <v>460</v>
+        <v>1256</v>
       </c>
       <c r="B863" s="72" t="s">
-        <v>19</v>
+        <v>1257</v>
       </c>
       <c r="C863" s="73">
-        <v>4416</v>
+        <v>4475</v>
       </c>
       <c r="D863" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E863" s="48">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="864" spans="1:5" s="39" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="72" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B864" s="72" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C864" s="73">
-        <v>4475</v>
+        <v>4354</v>
       </c>
       <c r="D864" s="74" t="s">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="E864" s="48">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="865" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="72" t="s">
-        <v>1258</v>
+        <v>472</v>
       </c>
       <c r="B865" s="72" t="s">
-        <v>1259</v>
+        <v>473</v>
       </c>
       <c r="C865" s="73">
-        <v>4354</v>
+        <v>4445</v>
       </c>
       <c r="D865" s="74" t="s">
-        <v>412</v>
+        <v>20</v>
       </c>
       <c r="E865" s="48">
         <v>74</v>
@@ -19885,16 +19885,16 @@
     </row>
     <row r="866" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="72" t="s">
-        <v>472</v>
+        <v>1260</v>
       </c>
       <c r="B866" s="72" t="s">
-        <v>473</v>
+        <v>1259</v>
       </c>
       <c r="C866" s="73">
-        <v>4445</v>
+        <v>4353</v>
       </c>
       <c r="D866" s="74" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E866" s="48">
         <v>74</v>
@@ -19902,13 +19902,13 @@
     </row>
     <row r="867" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="72" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B867" s="72" t="s">
         <v>1259</v>
       </c>
       <c r="C867" s="73">
-        <v>4353</v>
+        <v>4350</v>
       </c>
       <c r="D867" s="74" t="s">
         <v>50</v>
@@ -19919,13 +19919,13 @@
     </row>
     <row r="868" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="72" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B868" s="72" t="s">
         <v>1259</v>
       </c>
       <c r="C868" s="73">
-        <v>4350</v>
+        <v>4352</v>
       </c>
       <c r="D868" s="74" t="s">
         <v>50</v>
@@ -19936,13 +19936,13 @@
     </row>
     <row r="869" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="72" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B869" s="72" t="s">
         <v>1259</v>
       </c>
       <c r="C869" s="73">
-        <v>4352</v>
+        <v>4349</v>
       </c>
       <c r="D869" s="74" t="s">
         <v>50</v>
@@ -19953,13 +19953,13 @@
     </row>
     <row r="870" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="72" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B870" s="72" t="s">
         <v>1259</v>
       </c>
       <c r="C870" s="73">
-        <v>4349</v>
+        <v>4351</v>
       </c>
       <c r="D870" s="74" t="s">
         <v>50</v>
@@ -19969,65 +19969,65 @@
       </c>
     </row>
     <row r="871" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A871" s="72" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B871" s="72" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C871" s="73">
-        <v>4351</v>
-      </c>
-      <c r="D871" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="E871" s="48">
-        <v>74</v>
+      <c r="A871" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B871" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C871" s="81">
+        <v>4096</v>
+      </c>
+      <c r="D871" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E871" s="42">
+        <v>79</v>
       </c>
     </row>
     <row r="872" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A872" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B872" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="C872" s="81">
-        <v>4096</v>
-      </c>
-      <c r="D872" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="E872" s="42">
-        <v>79</v>
+      <c r="A872" s="72" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B872" s="72" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C872" s="73">
+        <v>4123</v>
+      </c>
+      <c r="D872" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E872" s="48">
+        <v>60</v>
       </c>
     </row>
     <row r="873" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="72" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="B873" s="72" t="s">
-        <v>1276</v>
+        <v>1239</v>
       </c>
       <c r="C873" s="73">
-        <v>4123</v>
+        <v>4306</v>
       </c>
       <c r="D873" s="74" t="s">
-        <v>20</v>
+        <v>453</v>
       </c>
       <c r="E873" s="48">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="874" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="72" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B874" s="72" t="s">
         <v>1239</v>
       </c>
       <c r="C874" s="73">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="D874" s="74" t="s">
         <v>453</v>
@@ -20038,19 +20038,19 @@
     </row>
     <row r="875" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="72" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B875" s="72" t="s">
-        <v>1239</v>
+        <v>1280</v>
       </c>
       <c r="C875" s="73">
-        <v>4307</v>
-      </c>
-      <c r="D875" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="E875" s="48">
-        <v>81</v>
+        <v>2659</v>
+      </c>
+      <c r="D875" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E875" s="50">
+        <v>27.5</v>
       </c>
     </row>
     <row r="876" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20058,51 +20058,41 @@
         <v>1279</v>
       </c>
       <c r="B876" s="72" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C876" s="73">
-        <v>2659</v>
+        <v>2621</v>
       </c>
       <c r="D876" s="72" t="s">
         <v>160</v>
       </c>
       <c r="E876" s="50">
-        <v>27.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="877" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="72" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="B877" s="72" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C877" s="73">
-        <v>2621</v>
+        <v>3656</v>
       </c>
       <c r="D877" s="72" t="s">
         <v>160</v>
       </c>
       <c r="E877" s="50">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="878" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A878" s="72" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B878" s="72" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C878" s="73">
-        <v>3656</v>
-      </c>
-      <c r="D878" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="E878" s="50">
         <v>27</v>
       </c>
+    </row>
+    <row r="878" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A878" s="99"/>
+      <c r="B878" s="99"/>
+      <c r="C878" s="99"/>
+      <c r="D878" s="99"/>
+      <c r="E878" s="100"/>
     </row>
     <row r="879" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="99"/>
@@ -20118,294 +20108,308 @@
       <c r="D880" s="99"/>
       <c r="E880" s="100"/>
     </row>
-    <row r="881" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A881" s="99"/>
-      <c r="B881" s="99"/>
-      <c r="C881" s="99"/>
-      <c r="D881" s="99"/>
-      <c r="E881" s="100"/>
-    </row>
-    <row r="882" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A882" s="147" t="s">
+    <row r="881" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A881" s="101" t="s">
         <v>1290</v>
       </c>
-      <c r="B882" s="148"/>
-      <c r="C882" s="148"/>
-      <c r="D882" s="148"/>
-      <c r="E882" s="149"/>
+      <c r="B881" s="102"/>
+      <c r="C881" s="102"/>
+      <c r="D881" s="102"/>
+      <c r="E881" s="103"/>
+    </row>
+    <row r="882" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A882" s="87" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B882" s="87" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C882" s="88">
+        <v>3460</v>
+      </c>
+      <c r="D882" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="E882" s="63">
+        <v>90</v>
+      </c>
     </row>
     <row r="883" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A883" s="87" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B883" s="87" t="s">
+      <c r="A883" s="72" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B883" s="72" t="s">
         <v>1291</v>
       </c>
-      <c r="C883" s="88">
-        <v>3460</v>
-      </c>
-      <c r="D883" s="89" t="s">
+      <c r="C883" s="73">
+        <v>3459</v>
+      </c>
+      <c r="D883" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E883" s="63">
-        <v>90</v>
+      <c r="E883" s="48">
+        <v>45</v>
       </c>
     </row>
     <row r="884" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="72" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="B884" s="72" t="s">
         <v>1291</v>
       </c>
       <c r="C884" s="73">
-        <v>3459</v>
+        <v>3803</v>
       </c>
       <c r="D884" s="74" t="s">
         <v>20</v>
       </c>
       <c r="E884" s="48">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="885" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="72" t="s">
-        <v>1294</v>
+        <v>480</v>
       </c>
       <c r="B885" s="72" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="C885" s="73">
-        <v>3803</v>
+        <v>3425</v>
       </c>
       <c r="D885" s="74" t="s">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="E885" s="48">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="886" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="72" t="s">
-        <v>480</v>
+        <v>1297</v>
       </c>
       <c r="B886" s="72" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C886" s="73">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="D886" s="74" t="s">
-        <v>412</v>
+        <v>15</v>
       </c>
       <c r="E886" s="48">
-        <v>27</v>
+        <v>252</v>
       </c>
     </row>
     <row r="887" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="72" t="s">
-        <v>1297</v>
+        <v>481</v>
       </c>
       <c r="B887" s="72" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C887" s="73">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="D887" s="74" t="s">
-        <v>15</v>
+        <v>412</v>
       </c>
       <c r="E887" s="48">
-        <v>252</v>
+        <v>57</v>
       </c>
     </row>
     <row r="888" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="72" t="s">
-        <v>481</v>
+        <v>1298</v>
       </c>
       <c r="B888" s="72" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C888" s="73">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="D888" s="74" t="s">
-        <v>412</v>
+        <v>15</v>
       </c>
       <c r="E888" s="48">
-        <v>57</v>
+        <v>540</v>
       </c>
     </row>
     <row r="889" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="72" t="s">
-        <v>1298</v>
+        <v>482</v>
       </c>
       <c r="B889" s="72" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C889" s="73">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="D889" s="74" t="s">
-        <v>15</v>
+        <v>412</v>
       </c>
       <c r="E889" s="48">
-        <v>540</v>
+        <v>70</v>
       </c>
     </row>
     <row r="890" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="72" t="s">
-        <v>482</v>
+        <v>1299</v>
       </c>
       <c r="B890" s="72" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C890" s="73">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="D890" s="74" t="s">
-        <v>412</v>
+        <v>15</v>
       </c>
       <c r="E890" s="48">
-        <v>70</v>
+        <v>660</v>
       </c>
     </row>
     <row r="891" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="72" t="s">
-        <v>1299</v>
+        <v>483</v>
       </c>
       <c r="B891" s="72" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C891" s="73">
-        <v>3430</v>
+        <v>3913</v>
       </c>
       <c r="D891" s="74" t="s">
-        <v>15</v>
+        <v>412</v>
       </c>
       <c r="E891" s="48">
-        <v>660</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="892" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="72" t="s">
-        <v>483</v>
+        <v>1300</v>
       </c>
       <c r="B892" s="72" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C892" s="73">
-        <v>3913</v>
+        <v>3872</v>
       </c>
       <c r="D892" s="74" t="s">
-        <v>412</v>
+        <v>15</v>
       </c>
       <c r="E892" s="48">
-        <v>62.5</v>
+        <v>582</v>
       </c>
     </row>
     <row r="893" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="72" t="s">
-        <v>1300</v>
+        <v>484</v>
       </c>
       <c r="B893" s="72" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C893" s="73">
-        <v>3872</v>
+        <v>3422</v>
       </c>
       <c r="D893" s="74" t="s">
-        <v>15</v>
+        <v>412</v>
       </c>
       <c r="E893" s="48">
-        <v>582</v>
+        <v>18</v>
       </c>
     </row>
     <row r="894" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="72" t="s">
-        <v>484</v>
+        <v>1301</v>
       </c>
       <c r="B894" s="72" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C894" s="73">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="D894" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E894" s="48">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A895" s="83" t="s">
+        <v>485</v>
+      </c>
+      <c r="B895" s="83" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C895" s="84">
+        <v>3431</v>
+      </c>
+      <c r="D895" s="74" t="s">
         <v>412</v>
       </c>
-      <c r="E894" s="48">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="895" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A895" s="72" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B895" s="72" t="s">
+      <c r="E895" s="48">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A896" s="90" t="s">
+        <v>485</v>
+      </c>
+      <c r="B896" s="90" t="s">
         <v>1295</v>
       </c>
-      <c r="C895" s="73">
-        <v>3423</v>
-      </c>
-      <c r="D895" s="74" t="s">
+      <c r="C896" s="91">
+        <v>3432</v>
+      </c>
+      <c r="D896" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="E895" s="48">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="896" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A896" s="83" t="s">
-        <v>485</v>
-      </c>
-      <c r="B896" s="83" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C896" s="84">
-        <v>3431</v>
-      </c>
-      <c r="D896" s="74" t="s">
-        <v>412</v>
-      </c>
       <c r="E896" s="48">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="897" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A897" s="90" t="s">
-        <v>485</v>
-      </c>
-      <c r="B897" s="90" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C897" s="91">
-        <v>3432</v>
-      </c>
-      <c r="D897" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="E897" s="48">
         <v>996</v>
       </c>
     </row>
-    <row r="898" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="899" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="900" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="901" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="902" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="903" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="904" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="905" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="906" spans="1:5" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="908" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A908" s="64" t="s">
+    <row r="897" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="898" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="899" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="900" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="901" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="902" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="903" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="904" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="905" spans="1:1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="907" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A907" s="64" t="s">
         <v>386</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A882:E882"/>
+    <mergeCell ref="A764:E764"/>
+    <mergeCell ref="A719:E719"/>
+    <mergeCell ref="A738:E738"/>
+    <mergeCell ref="A739:E739"/>
+    <mergeCell ref="A530:E530"/>
+    <mergeCell ref="A554:E554"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A378:E378"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A727:E727"/>
+    <mergeCell ref="A589:E589"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A531:E531"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A379:E379"/>
+    <mergeCell ref="A881:E881"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A3:E3"/>
@@ -20414,34 +20418,13 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A285:E285"/>
-    <mergeCell ref="A591:E591"/>
-    <mergeCell ref="A708:E708"/>
-    <mergeCell ref="A729:E729"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A707:E707"/>
+    <mergeCell ref="A728:E728"/>
     <mergeCell ref="A138:E138"/>
     <mergeCell ref="A553:E553"/>
-    <mergeCell ref="A707:E707"/>
+    <mergeCell ref="A706:E706"/>
     <mergeCell ref="A286:E286"/>
-    <mergeCell ref="A531:E531"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A379:E379"/>
-    <mergeCell ref="A728:E728"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A213:E213"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A739:E739"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A530:E530"/>
-    <mergeCell ref="A554:E554"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A378:E378"/>
-    <mergeCell ref="A139:E139"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A765:E765"/>
-    <mergeCell ref="A720:E720"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="mailto:E-mailastralalimentos@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -20474,90 +20457,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="139"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="142"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="147" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="135"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="137"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="136" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="135"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="148" t="s">
         <v>488</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="135"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="137"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="136" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="135"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="137"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="140"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="135"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="137"/>
     </row>
     <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="146" t="s">
         <v>490</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="135"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="135"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="142"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="135"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
     </row>
     <row r="11" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
@@ -22280,19 +22263,19 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="130"/>
-      <c r="B112" s="131"/>
-      <c r="C112" s="132"/>
-      <c r="D112" s="133"/>
+      <c r="A112" s="132"/>
+      <c r="B112" s="133"/>
+      <c r="C112" s="134"/>
+      <c r="D112" s="135"/>
       <c r="E112" s="25"/>
     </row>
     <row r="113" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="145" t="s">
+      <c r="A113" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="113"/>
+      <c r="B113" s="118"/>
+      <c r="C113" s="118"/>
+      <c r="D113" s="128"/>
       <c r="E113" s="28"/>
     </row>
     <row r="114" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22585,19 +22568,19 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="130"/>
-      <c r="B131" s="131"/>
-      <c r="C131" s="132"/>
-      <c r="D131" s="133"/>
+      <c r="A131" s="132"/>
+      <c r="B131" s="133"/>
+      <c r="C131" s="134"/>
+      <c r="D131" s="135"/>
       <c r="E131" s="25"/>
     </row>
     <row r="132" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="145" t="s">
+      <c r="A132" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="B132" s="108"/>
-      <c r="C132" s="108"/>
-      <c r="D132" s="113"/>
+      <c r="B132" s="118"/>
+      <c r="C132" s="118"/>
+      <c r="D132" s="128"/>
       <c r="E132" s="28"/>
     </row>
     <row r="133" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22771,19 +22754,19 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="130"/>
-      <c r="B143" s="131"/>
-      <c r="C143" s="132"/>
-      <c r="D143" s="133"/>
+      <c r="A143" s="132"/>
+      <c r="B143" s="133"/>
+      <c r="C143" s="134"/>
+      <c r="D143" s="135"/>
       <c r="E143" s="25"/>
     </row>
     <row r="144" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="145" t="s">
+      <c r="A144" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="B144" s="108"/>
-      <c r="C144" s="108"/>
-      <c r="D144" s="113"/>
+      <c r="B144" s="118"/>
+      <c r="C144" s="118"/>
+      <c r="D144" s="128"/>
       <c r="E144" s="28"/>
     </row>
     <row r="145" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -23416,19 +23399,19 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="130"/>
-      <c r="B182" s="131"/>
-      <c r="C182" s="132"/>
-      <c r="D182" s="133"/>
+      <c r="A182" s="132"/>
+      <c r="B182" s="133"/>
+      <c r="C182" s="134"/>
+      <c r="D182" s="135"/>
       <c r="E182" s="25"/>
     </row>
     <row r="183" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="129" t="s">
+      <c r="A183" s="138" t="s">
         <v>148</v>
       </c>
-      <c r="B183" s="108"/>
-      <c r="C183" s="108"/>
-      <c r="D183" s="108"/>
+      <c r="B183" s="118"/>
+      <c r="C183" s="118"/>
+      <c r="D183" s="118"/>
       <c r="E183" s="26"/>
     </row>
     <row r="184" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -24290,19 +24273,19 @@
       </c>
     </row>
     <row r="241" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="130"/>
-      <c r="B241" s="131"/>
-      <c r="C241" s="132"/>
-      <c r="D241" s="133"/>
+      <c r="A241" s="132"/>
+      <c r="B241" s="133"/>
+      <c r="C241" s="134"/>
+      <c r="D241" s="135"/>
       <c r="E241" s="25"/>
     </row>
     <row r="242" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="129" t="s">
+      <c r="A242" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="B242" s="108"/>
-      <c r="C242" s="108"/>
-      <c r="D242" s="108"/>
+      <c r="B242" s="118"/>
+      <c r="C242" s="118"/>
+      <c r="D242" s="118"/>
       <c r="E242" s="28"/>
     </row>
     <row r="243" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -25523,21 +25506,21 @@
       </c>
     </row>
     <row r="324" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="130"/>
-      <c r="B324" s="131"/>
-      <c r="C324" s="132"/>
-      <c r="D324" s="133"/>
+      <c r="A324" s="132"/>
+      <c r="B324" s="133"/>
+      <c r="C324" s="134"/>
+      <c r="D324" s="135"/>
       <c r="E324" s="25"/>
       <c r="G324" s="30"/>
       <c r="H324" s="30"/>
     </row>
     <row r="325" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="129" t="s">
+      <c r="A325" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="B325" s="108"/>
-      <c r="C325" s="108"/>
-      <c r="D325" s="108"/>
+      <c r="B325" s="118"/>
+      <c r="C325" s="118"/>
+      <c r="D325" s="118"/>
       <c r="E325" s="28"/>
     </row>
     <row r="326" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -26034,19 +26017,19 @@
       </c>
     </row>
     <row r="355" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="130"/>
-      <c r="B355" s="131"/>
-      <c r="C355" s="132"/>
-      <c r="D355" s="133"/>
+      <c r="A355" s="132"/>
+      <c r="B355" s="133"/>
+      <c r="C355" s="134"/>
+      <c r="D355" s="135"/>
       <c r="E355" s="25"/>
     </row>
     <row r="356" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="129" t="s">
+      <c r="A356" s="138" t="s">
         <v>261</v>
       </c>
-      <c r="B356" s="108"/>
-      <c r="C356" s="108"/>
-      <c r="D356" s="108"/>
+      <c r="B356" s="118"/>
+      <c r="C356" s="118"/>
+      <c r="D356" s="118"/>
       <c r="E356" s="28"/>
     </row>
     <row r="357" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -27801,19 +27784,19 @@
       </c>
     </row>
     <row r="460" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="130"/>
-      <c r="B460" s="131"/>
-      <c r="C460" s="132"/>
-      <c r="D460" s="133"/>
+      <c r="A460" s="132"/>
+      <c r="B460" s="133"/>
+      <c r="C460" s="134"/>
+      <c r="D460" s="135"/>
       <c r="E460" s="25"/>
     </row>
     <row r="461" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="129" t="s">
+      <c r="A461" s="138" t="s">
         <v>338</v>
       </c>
-      <c r="B461" s="108"/>
-      <c r="C461" s="108"/>
-      <c r="D461" s="108"/>
+      <c r="B461" s="118"/>
+      <c r="C461" s="118"/>
+      <c r="D461" s="118"/>
       <c r="E461" s="28"/>
     </row>
     <row r="462" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -28106,19 +28089,19 @@
       </c>
     </row>
     <row r="479" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="130"/>
-      <c r="B479" s="131"/>
-      <c r="C479" s="132"/>
-      <c r="D479" s="133"/>
+      <c r="A479" s="132"/>
+      <c r="B479" s="133"/>
+      <c r="C479" s="134"/>
+      <c r="D479" s="135"/>
       <c r="E479" s="25"/>
     </row>
     <row r="480" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="129" t="s">
+      <c r="A480" s="138" t="s">
         <v>353</v>
       </c>
-      <c r="B480" s="108"/>
-      <c r="C480" s="108"/>
-      <c r="D480" s="108"/>
+      <c r="B480" s="118"/>
+      <c r="C480" s="118"/>
+      <c r="D480" s="118"/>
       <c r="E480" s="28"/>
     </row>
     <row r="481" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -28547,19 +28530,19 @@
       </c>
     </row>
     <row r="506" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="130"/>
-      <c r="B506" s="131"/>
-      <c r="C506" s="132"/>
-      <c r="D506" s="133"/>
+      <c r="A506" s="132"/>
+      <c r="B506" s="133"/>
+      <c r="C506" s="134"/>
+      <c r="D506" s="135"/>
       <c r="E506" s="25"/>
     </row>
     <row r="507" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="129" t="s">
+      <c r="A507" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="B507" s="108"/>
-      <c r="C507" s="108"/>
-      <c r="D507" s="108"/>
+      <c r="B507" s="118"/>
+      <c r="C507" s="118"/>
+      <c r="D507" s="118"/>
       <c r="E507" s="28"/>
     </row>
     <row r="508" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -30074,19 +30057,19 @@
       </c>
     </row>
     <row r="597" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="130"/>
-      <c r="B597" s="131"/>
-      <c r="C597" s="132"/>
-      <c r="D597" s="133"/>
+      <c r="A597" s="132"/>
+      <c r="B597" s="133"/>
+      <c r="C597" s="134"/>
+      <c r="D597" s="135"/>
       <c r="E597" s="25"/>
     </row>
     <row r="598" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="129" t="s">
+      <c r="A598" s="138" t="s">
         <v>420</v>
       </c>
-      <c r="B598" s="108"/>
-      <c r="C598" s="108"/>
-      <c r="D598" s="108"/>
+      <c r="B598" s="118"/>
+      <c r="C598" s="118"/>
+      <c r="D598" s="118"/>
       <c r="E598" s="28"/>
     </row>
     <row r="599" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -30226,20 +30209,20 @@
       </c>
     </row>
     <row r="607" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="130"/>
-      <c r="B607" s="131"/>
-      <c r="C607" s="132"/>
-      <c r="D607" s="133"/>
+      <c r="A607" s="132"/>
+      <c r="B607" s="133"/>
+      <c r="C607" s="134"/>
+      <c r="D607" s="135"/>
       <c r="E607" s="25"/>
       <c r="G607" s="29"/>
     </row>
     <row r="608" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="129" t="s">
+      <c r="A608" s="138" t="s">
         <v>421</v>
       </c>
-      <c r="B608" s="108"/>
-      <c r="C608" s="108"/>
-      <c r="D608" s="108"/>
+      <c r="B608" s="118"/>
+      <c r="C608" s="118"/>
+      <c r="D608" s="118"/>
       <c r="E608" s="27"/>
     </row>
     <row r="609" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -30328,19 +30311,19 @@
       </c>
     </row>
     <row r="614" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="130"/>
-      <c r="B614" s="131"/>
-      <c r="C614" s="132"/>
-      <c r="D614" s="133"/>
+      <c r="A614" s="132"/>
+      <c r="B614" s="133"/>
+      <c r="C614" s="134"/>
+      <c r="D614" s="135"/>
       <c r="E614" s="25"/>
     </row>
     <row r="615" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="129" t="s">
+      <c r="A615" s="138" t="s">
         <v>422</v>
       </c>
-      <c r="B615" s="108"/>
-      <c r="C615" s="108"/>
-      <c r="D615" s="108"/>
+      <c r="B615" s="118"/>
+      <c r="C615" s="118"/>
+      <c r="D615" s="118"/>
       <c r="E615" s="28"/>
     </row>
     <row r="616" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -31705,25 +31688,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A597:D597"/>
-    <mergeCell ref="A506:D506"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A598:D598"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A460:D460"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:E9"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A242:D242"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A615:D615"/>
     <mergeCell ref="A182:D182"/>
     <mergeCell ref="A480:D480"/>
@@ -31740,6 +31704,25 @@
     <mergeCell ref="A607:D607"/>
     <mergeCell ref="A608:D608"/>
     <mergeCell ref="A507:D507"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A460:D460"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:E9"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A597:D597"/>
+    <mergeCell ref="A506:D506"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A598:D598"/>
+    <mergeCell ref="A132:D132"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="mailto:E-mailastralalimentos@gmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
